--- a/Bulk Loads/4423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/4423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -507,7 +507,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 01, 2024</t>
+          <t>August 05, 2024</t>
         </is>
       </c>
     </row>

--- a/Bulk Loads/4423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
+++ b/Bulk Loads/4423/_PRELIMINARY UTILITY EXPORT - FS_formatted.xlsx
@@ -69,7 +69,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
@@ -83,6 +83,9 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
@@ -478,7 +481,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
+    <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A3:S1025"/>
   <sheetViews>
@@ -499,6 +502,7 @@
     <col width="10" customWidth="1" min="6" max="6"/>
     <col width="10" customWidth="1" min="7" max="7"/>
     <col width="10" customWidth="1" min="8" max="8"/>
+    <col width="30" customWidth="1" min="19" max="19"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1"/>
@@ -513,7 +517,7 @@
     <row r="4" ht="27" customHeight="1">
       <c r="A4" s="2" t="inlineStr">
         <is>
-          <t>August 29, 2024</t>
+          <t>September 18, 2024</t>
         </is>
       </c>
     </row>
@@ -661,6 +665,7 @@
       </c>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="8" t="n"/>
+      <c r="S9" s="9" t="n"/>
     </row>
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
@@ -717,7 +722,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S11" t="inlineStr">
+      <c r="S11" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -737,7 +742,7 @@
       </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="8" t="n"/>
-      <c r="S12" t="inlineStr">
+      <c r="S12" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -768,6 +773,7 @@
         <f>IF(E13&gt;1,(1.732*D13*F13)/1000,(D13*F13)/1000)</f>
         <v/>
       </c>
+      <c r="S13" s="9" t="n"/>
     </row>
     <row r="14">
       <c r="A14" s="5" t="n">
@@ -799,7 +805,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S14" t="inlineStr">
+      <c r="S14" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -821,6 +827,7 @@
       </c>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="8" t="n"/>
+      <c r="S15" s="9" t="n"/>
     </row>
     <row r="16">
       <c r="A16" s="5" t="n">
@@ -836,7 +843,7 @@
       </c>
       <c r="F16" s="7" t="n"/>
       <c r="G16" s="8" t="n"/>
-      <c r="S16" t="inlineStr">
+      <c r="S16" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -867,6 +874,7 @@
         <f>IF(E17&gt;1,(1.732*D17*F17)/1000,(D17*F17)/1000)</f>
         <v/>
       </c>
+      <c r="S17" s="9" t="n"/>
     </row>
     <row r="18">
       <c r="A18" s="5" t="n">
@@ -887,7 +895,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S18" t="inlineStr">
+      <c r="S18" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -912,7 +920,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S19" t="inlineStr">
+      <c r="S19" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -943,6 +951,7 @@
         <f>IF(E20&gt;1,(1.732*D20*F20)/1000,(D20*F20)/1000)</f>
         <v/>
       </c>
+      <c r="S20" s="9" t="n"/>
     </row>
     <row r="21">
       <c r="A21" s="5" t="n">
@@ -974,7 +983,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S21" t="inlineStr">
+      <c r="S21" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -994,7 +1003,7 @@
       </c>
       <c r="F22" s="7" t="n"/>
       <c r="G22" s="8" t="n"/>
-      <c r="S22" t="inlineStr">
+      <c r="S22" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1014,6 +1023,7 @@
       </c>
       <c r="F23" s="7" t="n"/>
       <c r="G23" s="8" t="n"/>
+      <c r="S23" s="9" t="n"/>
     </row>
     <row r="24">
       <c r="A24" s="5" t="n">
@@ -1029,7 +1039,7 @@
       </c>
       <c r="F24" s="7" t="n"/>
       <c r="G24" s="8" t="n"/>
-      <c r="S24" t="inlineStr">
+      <c r="S24" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -1060,6 +1070,7 @@
         <f>IF(E25&gt;1,(1.732*D25*F25)/1000,(D25*F25)/1000)</f>
         <v/>
       </c>
+      <c r="S25" s="9" t="n"/>
     </row>
     <row r="26">
       <c r="A26" s="5" t="n">
@@ -1086,7 +1097,7 @@
         <f>IF(E26&gt;1,(1.732*D26*F26)/1000,(D26*F26)/1000)</f>
         <v/>
       </c>
-      <c r="S26" t="inlineStr">
+      <c r="S26" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -1106,7 +1117,7 @@
       </c>
       <c r="F27" s="7" t="n"/>
       <c r="G27" s="8" t="n"/>
-      <c r="S27" t="inlineStr">
+      <c r="S27" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -1126,7 +1137,7 @@
       </c>
       <c r="F28" s="7" t="n"/>
       <c r="G28" s="8" t="n"/>
-      <c r="S28" t="inlineStr">
+      <c r="S28" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1148,6 +1159,7 @@
       </c>
       <c r="F29" s="7" t="n"/>
       <c r="G29" s="8" t="n"/>
+      <c r="S29" s="9" t="n"/>
     </row>
     <row r="30">
       <c r="A30" s="5" t="n">
@@ -1165,6 +1177,7 @@
       </c>
       <c r="F30" s="7" t="n"/>
       <c r="G30" s="8" t="n"/>
+      <c r="S30" s="9" t="n"/>
     </row>
     <row r="31">
       <c r="A31" s="5" t="n">
@@ -1191,7 +1204,7 @@
         <f>IF(E31&gt;1,(1.732*D31*F31)/1000,(D31*F31)/1000)</f>
         <v/>
       </c>
-      <c r="S31" t="inlineStr">
+      <c r="S31" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -1211,7 +1224,7 @@
       </c>
       <c r="F32" s="7" t="n"/>
       <c r="G32" s="8" t="n"/>
-      <c r="S32" t="inlineStr">
+      <c r="S32" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -1233,6 +1246,7 @@
       </c>
       <c r="F33" s="7" t="n"/>
       <c r="G33" s="8" t="n"/>
+      <c r="S33" s="9" t="n"/>
     </row>
     <row r="34">
       <c r="A34" s="5" t="n">
@@ -1253,7 +1267,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S34" t="inlineStr">
+      <c r="S34" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #128</t>
         </is>
@@ -1275,6 +1289,7 @@
       </c>
       <c r="F35" s="7" t="n"/>
       <c r="G35" s="8" t="n"/>
+      <c r="S35" s="9" t="n"/>
     </row>
     <row r="36">
       <c r="A36" s="5" t="n">
@@ -1295,7 +1310,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S36" t="inlineStr">
+      <c r="S36" s="9" t="inlineStr">
         <is>
           <t>2000LBS.</t>
         </is>
@@ -1320,7 +1335,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S37" t="inlineStr">
+      <c r="S37" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1374,7 +1389,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S38" t="inlineStr">
+      <c r="S38" s="9" t="inlineStr">
         <is>
           <t>1444LBS. WATER-COOLED CUBE ICE</t>
         </is>
@@ -1396,6 +1411,7 @@
       </c>
       <c r="F39" s="7" t="n"/>
       <c r="G39" s="8" t="n"/>
+      <c r="S39" s="9" t="n"/>
     </row>
     <row r="40">
       <c r="A40" s="5" t="n">
@@ -1413,6 +1429,7 @@
       </c>
       <c r="F40" s="7" t="n"/>
       <c r="G40" s="8" t="n"/>
+      <c r="S40" s="9" t="n"/>
     </row>
     <row r="41">
       <c r="A41" s="5" t="n">
@@ -1462,7 +1479,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S41" t="inlineStr">
+      <c r="S41" s="9" t="inlineStr">
         <is>
           <t>500LBS. WATER-COOLED FLAKE ICE</t>
         </is>
@@ -1482,7 +1499,7 @@
       </c>
       <c r="F42" s="7" t="n"/>
       <c r="G42" s="8" t="n"/>
-      <c r="S42" t="inlineStr">
+      <c r="S42" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS.</t>
         </is>
@@ -1507,7 +1524,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S43" t="inlineStr">
+      <c r="S43" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #131</t>
         </is>
@@ -1529,6 +1546,7 @@
       </c>
       <c r="F44" s="7" t="n"/>
       <c r="G44" s="8" t="n"/>
+      <c r="S44" s="9" t="n"/>
     </row>
     <row r="45">
       <c r="A45" s="5" t="n">
@@ -1546,6 +1564,7 @@
       </c>
       <c r="F45" s="7" t="n"/>
       <c r="G45" s="8" t="n"/>
+      <c r="S45" s="9" t="n"/>
     </row>
     <row r="46">
       <c r="A46" s="5" t="n">
@@ -1561,7 +1580,7 @@
       </c>
       <c r="F46" s="7" t="n"/>
       <c r="G46" s="8" t="n"/>
-      <c r="S46" t="inlineStr">
+      <c r="S46" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -1581,6 +1600,7 @@
       </c>
       <c r="F47" s="7" t="n"/>
       <c r="G47" s="8" t="n"/>
+      <c r="S47" s="9" t="n"/>
     </row>
     <row r="48">
       <c r="A48" s="5" t="n">
@@ -1617,7 +1637,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S48" t="inlineStr">
+      <c r="S48" s="9" t="inlineStr">
         <is>
           <t>WATER-COOLED</t>
         </is>
@@ -1639,6 +1659,7 @@
       </c>
       <c r="F49" s="7" t="n"/>
       <c r="G49" s="8" t="n"/>
+      <c r="S49" s="9" t="n"/>
     </row>
     <row r="50">
       <c r="A50" s="5" t="n">
@@ -1656,6 +1677,7 @@
       </c>
       <c r="F50" s="7" t="n"/>
       <c r="G50" s="8" t="n"/>
+      <c r="S50" s="9" t="n"/>
     </row>
     <row r="51">
       <c r="A51" s="5" t="n">
@@ -1671,7 +1693,7 @@
       </c>
       <c r="F51" s="7" t="n"/>
       <c r="G51" s="8" t="n"/>
-      <c r="S51" t="inlineStr">
+      <c r="S51" s="9" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER</t>
         </is>
@@ -1702,6 +1724,7 @@
         <f>IF(E52&gt;1,(1.732*D52*F52)/1000,(D52*F52)/1000)</f>
         <v/>
       </c>
+      <c r="S52" s="9" t="n"/>
     </row>
     <row r="53">
       <c r="A53" s="5" t="n">
@@ -1722,7 +1745,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S53" t="inlineStr">
+      <c r="S53" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -1758,7 +1781,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S54" t="inlineStr">
+      <c r="S54" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -1780,6 +1803,7 @@
       </c>
       <c r="F55" s="7" t="n"/>
       <c r="G55" s="8" t="n"/>
+      <c r="S55" s="9" t="n"/>
     </row>
     <row r="56">
       <c r="A56" s="5" t="n">
@@ -1795,7 +1819,7 @@
       </c>
       <c r="F56" s="7" t="n"/>
       <c r="G56" s="8" t="n"/>
-      <c r="S56" t="inlineStr">
+      <c r="S56" s="9" t="inlineStr">
         <is>
           <t>2 TIER 6 KEGS</t>
         </is>
@@ -1815,7 +1839,7 @@
       </c>
       <c r="F57" s="7" t="n"/>
       <c r="G57" s="8" t="n"/>
-      <c r="S57" t="inlineStr">
+      <c r="S57" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -1835,7 +1859,7 @@
       </c>
       <c r="F58" s="7" t="n"/>
       <c r="G58" s="8" t="n"/>
-      <c r="S58" t="inlineStr">
+      <c r="S58" s="9" t="inlineStr">
         <is>
           <t>FIXED FOURTEEN TIER</t>
         </is>
@@ -1857,6 +1881,7 @@
       </c>
       <c r="F59" s="7" t="n"/>
       <c r="G59" s="8" t="n"/>
+      <c r="S59" s="9" t="n"/>
     </row>
     <row r="60">
       <c r="A60" s="5" t="n">
@@ -1874,6 +1899,7 @@
       </c>
       <c r="F60" s="7" t="n"/>
       <c r="G60" s="8" t="n"/>
+      <c r="S60" s="9" t="n"/>
     </row>
     <row r="61">
       <c r="A61" s="5" t="n">
@@ -1900,7 +1926,7 @@
         <f>IF(E61&gt;1,(1.732*D61*F61)/1000,(D61*F61)/1000)</f>
         <v/>
       </c>
-      <c r="S61" t="inlineStr">
+      <c r="S61" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1920,7 +1946,7 @@
       </c>
       <c r="F62" s="7" t="n"/>
       <c r="G62" s="8" t="n"/>
-      <c r="S62" t="inlineStr">
+      <c r="S62" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1940,7 +1966,7 @@
       </c>
       <c r="F63" s="7" t="n"/>
       <c r="G63" s="8" t="n"/>
-      <c r="S63" t="inlineStr">
+      <c r="S63" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -1962,6 +1988,7 @@
       </c>
       <c r="F64" s="7" t="n"/>
       <c r="G64" s="8" t="n"/>
+      <c r="S64" s="9" t="n"/>
     </row>
     <row r="65">
       <c r="A65" s="5" t="inlineStr">
@@ -1981,6 +2008,7 @@
       </c>
       <c r="F65" s="7" t="n"/>
       <c r="G65" s="8" t="n"/>
+      <c r="S65" s="9" t="n"/>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
@@ -2021,7 +2049,7 @@
       </c>
       <c r="F67" s="7" t="n"/>
       <c r="G67" s="8" t="n"/>
-      <c r="S67" t="inlineStr">
+      <c r="S67" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2041,7 +2069,7 @@
       </c>
       <c r="F68" s="7" t="n"/>
       <c r="G68" s="8" t="n"/>
-      <c r="S68" t="inlineStr">
+      <c r="S68" s="9" t="inlineStr">
         <is>
           <t>MOBILE BLUE</t>
         </is>
@@ -2072,7 +2100,7 @@
         <f>IF(E69&gt;1,(1.732*D69*F69)/1000,(D69*F69)/1000)</f>
         <v/>
       </c>
-      <c r="S69" t="inlineStr">
+      <c r="S69" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED BY VENDOR</t>
         </is>
@@ -2094,6 +2122,7 @@
       </c>
       <c r="F70" s="7" t="n"/>
       <c r="G70" s="8" t="n"/>
+      <c r="S70" s="9" t="n"/>
     </row>
     <row r="71">
       <c r="A71" s="5" t="n">
@@ -2111,6 +2140,7 @@
       </c>
       <c r="F71" s="7" t="n"/>
       <c r="G71" s="8" t="n"/>
+      <c r="S71" s="9" t="n"/>
     </row>
     <row r="72">
       <c r="A72" s="5" t="n">
@@ -2126,7 +2156,7 @@
       </c>
       <c r="F72" s="7" t="n"/>
       <c r="G72" s="8" t="n"/>
-      <c r="S72" t="inlineStr">
+      <c r="S72" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -2151,7 +2181,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S73" t="inlineStr">
+      <c r="S73" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -2171,7 +2201,7 @@
       </c>
       <c r="F74" s="7" t="n"/>
       <c r="G74" s="8" t="n"/>
-      <c r="S74" t="inlineStr">
+      <c r="S74" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2193,6 +2223,7 @@
       </c>
       <c r="F75" s="7" t="n"/>
       <c r="G75" s="8" t="n"/>
+      <c r="S75" s="9" t="n"/>
     </row>
     <row r="76">
       <c r="A76" s="5" t="n">
@@ -2210,6 +2241,7 @@
       </c>
       <c r="F76" s="7" t="n"/>
       <c r="G76" s="8" t="n"/>
+      <c r="S76" s="9" t="n"/>
     </row>
     <row r="77">
       <c r="A77" s="5" t="n">
@@ -2235,7 +2267,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S77" t="inlineStr">
+      <c r="S77" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -2268,7 +2300,7 @@
           <t>1/4"</t>
         </is>
       </c>
-      <c r="S78" t="inlineStr">
+      <c r="S78" s="9" t="inlineStr">
         <is>
           <t>250 GPD WITH STORAGE TANK FOR ITEM #263</t>
         </is>
@@ -2293,7 +2325,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S79" t="inlineStr">
+      <c r="S79" s="9" t="inlineStr">
         <is>
           <t>40 GALLON FOR ITEM #172</t>
         </is>
@@ -2313,7 +2345,7 @@
       </c>
       <c r="F80" s="7" t="n"/>
       <c r="G80" s="8" t="n"/>
-      <c r="S80" t="inlineStr">
+      <c r="S80" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -2337,6 +2369,7 @@
       </c>
       <c r="F81" s="7" t="n"/>
       <c r="G81" s="8" t="n"/>
+      <c r="S81" s="9" t="n"/>
     </row>
     <row r="82">
       <c r="A82" s="3" t="inlineStr">
@@ -2388,7 +2421,7 @@
         <f>IF(E83&gt;1,(1.732*D83*F83)/1000,(D83*F83)/1000)</f>
         <v/>
       </c>
-      <c r="S83" t="inlineStr">
+      <c r="S83" s="9" t="inlineStr">
         <is>
           <t>OUTDOOR AIR-COOLED ON EMERGENCY POWER</t>
         </is>
@@ -2412,6 +2445,7 @@
       </c>
       <c r="F84" s="7" t="n"/>
       <c r="G84" s="8" t="n"/>
+      <c r="S84" s="9" t="n"/>
     </row>
     <row r="85">
       <c r="A85" s="3" t="inlineStr">
@@ -2463,7 +2497,7 @@
         <f>IF(E86&gt;1,(1.732*D86*F86)/1000,(D86*F86)/1000)</f>
         <v/>
       </c>
-      <c r="S86" t="inlineStr">
+      <c r="S86" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2497,7 +2531,7 @@
       <c r="J87" t="n">
         <v>15</v>
       </c>
-      <c r="S87" t="inlineStr">
+      <c r="S87" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2517,7 +2551,7 @@
       </c>
       <c r="F88" s="7" t="n"/>
       <c r="G88" s="8" t="n"/>
-      <c r="S88" t="inlineStr">
+      <c r="S88" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -2547,6 +2581,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S89" s="9" t="n"/>
     </row>
     <row r="90">
       <c r="A90" s="5" t="n">
@@ -2564,6 +2599,7 @@
       </c>
       <c r="F90" s="7" t="n"/>
       <c r="G90" s="8" t="n"/>
+      <c r="S90" s="9" t="n"/>
     </row>
     <row r="91">
       <c r="A91" s="5" t="n">
@@ -2579,7 +2615,7 @@
       </c>
       <c r="F91" s="7" t="n"/>
       <c r="G91" s="8" t="n"/>
-      <c r="S91" t="inlineStr">
+      <c r="S91" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -2615,6 +2651,7 @@
           <t>3/8"</t>
         </is>
       </c>
+      <c r="S92" s="9" t="n"/>
     </row>
     <row r="93">
       <c r="A93" s="5" t="n">
@@ -2641,6 +2678,7 @@
         <f>IF(E93&gt;1,(1.732*D93*F93)/1000,(D93*F93)/1000)</f>
         <v/>
       </c>
+      <c r="S93" s="9" t="n"/>
     </row>
     <row r="94">
       <c r="A94" s="5" t="n">
@@ -2658,6 +2696,7 @@
       </c>
       <c r="F94" s="7" t="n"/>
       <c r="G94" s="8" t="n"/>
+      <c r="S94" s="9" t="n"/>
     </row>
     <row r="95">
       <c r="A95" s="5" t="n">
@@ -2675,6 +2714,7 @@
       </c>
       <c r="F95" s="7" t="n"/>
       <c r="G95" s="8" t="n"/>
+      <c r="S95" s="9" t="n"/>
     </row>
     <row r="96">
       <c r="A96" s="5" t="n">
@@ -2706,6 +2746,7 @@
           <t>3/8"</t>
         </is>
       </c>
+      <c r="S96" s="9" t="n"/>
     </row>
     <row r="97">
       <c r="A97" s="5" t="n">
@@ -2721,7 +2762,7 @@
       </c>
       <c r="F97" s="7" t="n"/>
       <c r="G97" s="8" t="n"/>
-      <c r="S97" t="inlineStr">
+      <c r="S97" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2759,7 +2800,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S98" t="inlineStr">
+      <c r="S98" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -2779,7 +2820,7 @@
       </c>
       <c r="F99" s="7" t="n"/>
       <c r="G99" s="8" t="n"/>
-      <c r="S99" t="inlineStr">
+      <c r="S99" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -2801,6 +2842,7 @@
       </c>
       <c r="F100" s="7" t="n"/>
       <c r="G100" s="8" t="n"/>
+      <c r="S100" s="9" t="n"/>
     </row>
     <row r="101">
       <c r="A101" s="5" t="n">
@@ -2827,6 +2869,7 @@
         <f>IF(E101&gt;1,(1.732*D101*F101)/1000,(D101*F101)/1000)</f>
         <v/>
       </c>
+      <c r="S101" s="9" t="n"/>
     </row>
     <row r="102">
       <c r="A102" s="5" t="n">
@@ -2842,6 +2885,7 @@
       </c>
       <c r="F102" s="7" t="n"/>
       <c r="G102" s="8" t="n"/>
+      <c r="S102" s="9" t="n"/>
     </row>
     <row r="103">
       <c r="A103" s="5" t="n">
@@ -2857,6 +2901,7 @@
       </c>
       <c r="F103" s="7" t="n"/>
       <c r="G103" s="8" t="n"/>
+      <c r="S103" s="9" t="n"/>
     </row>
     <row r="104">
       <c r="A104" s="5" t="n">
@@ -2874,6 +2919,7 @@
       </c>
       <c r="F104" s="7" t="n"/>
       <c r="G104" s="8" t="n"/>
+      <c r="S104" s="9" t="n"/>
     </row>
     <row r="105">
       <c r="A105" s="5" t="n">
@@ -2891,6 +2937,7 @@
       </c>
       <c r="F105" s="7" t="n"/>
       <c r="G105" s="8" t="n"/>
+      <c r="S105" s="9" t="n"/>
     </row>
     <row r="106">
       <c r="A106" s="5" t="n">
@@ -2917,7 +2964,7 @@
         <f>IF(E106&gt;1,(1.732*D106*F106)/1000,(D106*F106)/1000)</f>
         <v/>
       </c>
-      <c r="S106" t="inlineStr">
+      <c r="S106" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -2937,7 +2984,7 @@
       </c>
       <c r="F107" s="7" t="n"/>
       <c r="G107" s="8" t="n"/>
-      <c r="S107" t="inlineStr">
+      <c r="S107" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -2957,7 +3004,7 @@
       </c>
       <c r="F108" s="7" t="n"/>
       <c r="G108" s="8" t="n"/>
-      <c r="S108" t="inlineStr">
+      <c r="S108" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -2988,7 +3035,7 @@
         <f>IF(E109&gt;1,(1.732*D109*F109)/1000,(D109*F109)/1000)</f>
         <v/>
       </c>
-      <c r="S109" t="inlineStr">
+      <c r="S109" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -3010,6 +3057,7 @@
       </c>
       <c r="F110" s="7" t="n"/>
       <c r="G110" s="8" t="n"/>
+      <c r="S110" s="9" t="n"/>
     </row>
     <row r="111">
       <c r="A111" s="5" t="n">
@@ -3025,7 +3073,7 @@
       </c>
       <c r="F111" s="7" t="n"/>
       <c r="G111" s="8" t="n"/>
-      <c r="S111" t="inlineStr">
+      <c r="S111" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -3056,7 +3104,7 @@
         <f>IF(E112&gt;1,(1.732*D112*F112)/1000,(D112*F112)/1000)</f>
         <v/>
       </c>
-      <c r="S112" t="inlineStr">
+      <c r="S112" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -3076,7 +3124,7 @@
       </c>
       <c r="F113" s="7" t="n"/>
       <c r="G113" s="8" t="n"/>
-      <c r="S113" t="inlineStr">
+      <c r="S113" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -3098,6 +3146,7 @@
       </c>
       <c r="F114" s="7" t="n"/>
       <c r="G114" s="8" t="n"/>
+      <c r="S114" s="9" t="n"/>
     </row>
     <row r="115">
       <c r="A115" s="5" t="n">
@@ -3115,6 +3164,7 @@
       </c>
       <c r="F115" s="7" t="n"/>
       <c r="G115" s="8" t="n"/>
+      <c r="S115" s="9" t="n"/>
     </row>
     <row r="116">
       <c r="A116" s="3" t="inlineStr">
@@ -3184,7 +3234,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S117" t="inlineStr">
+      <c r="S117" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3215,6 +3265,7 @@
         <f>IF(E118&gt;1,(1.732*D118*F118)/1000,(D118*F118)/1000)</f>
         <v/>
       </c>
+      <c r="S118" s="9" t="n"/>
     </row>
     <row r="119">
       <c r="A119" s="5" t="n">
@@ -3230,7 +3281,7 @@
       </c>
       <c r="F119" s="7" t="n"/>
       <c r="G119" s="8" t="n"/>
-      <c r="S119" t="inlineStr">
+      <c r="S119" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3250,7 +3301,7 @@
       </c>
       <c r="F120" s="7" t="n"/>
       <c r="G120" s="8" t="n"/>
-      <c r="S120" t="inlineStr">
+      <c r="S120" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3272,6 +3323,7 @@
       </c>
       <c r="F121" s="7" t="n"/>
       <c r="G121" s="8" t="n"/>
+      <c r="S121" s="9" t="n"/>
     </row>
     <row r="122">
       <c r="A122" s="5" t="n">
@@ -3287,7 +3339,7 @@
       </c>
       <c r="F122" s="7" t="n"/>
       <c r="G122" s="8" t="n"/>
-      <c r="S122" t="inlineStr">
+      <c r="S122" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -3318,6 +3370,7 @@
         <f>IF(E123&gt;1,(1.732*D123*F123)/1000,(D123*F123)/1000)</f>
         <v/>
       </c>
+      <c r="S123" s="9" t="n"/>
     </row>
     <row r="124">
       <c r="A124" s="5" t="n">
@@ -3344,6 +3397,7 @@
         <f>IF(E124&gt;1,(1.732*D124*F124)/1000,(D124*F124)/1000)</f>
         <v/>
       </c>
+      <c r="S124" s="9" t="n"/>
     </row>
     <row r="125">
       <c r="A125" s="5" t="n">
@@ -3361,6 +3415,7 @@
       </c>
       <c r="F125" s="7" t="n"/>
       <c r="G125" s="8" t="n"/>
+      <c r="S125" s="9" t="n"/>
     </row>
     <row r="126">
       <c r="A126" s="5" t="n">
@@ -3378,6 +3433,7 @@
       </c>
       <c r="F126" s="7" t="n"/>
       <c r="G126" s="8" t="n"/>
+      <c r="S126" s="9" t="n"/>
     </row>
     <row r="127">
       <c r="A127" s="5" t="n">
@@ -3404,6 +3460,7 @@
         <f>IF(E127&gt;1,(1.732*D127*F127)/1000,(D127*F127)/1000)</f>
         <v/>
       </c>
+      <c r="S127" s="9" t="n"/>
     </row>
     <row r="128">
       <c r="A128" s="5" t="n">
@@ -3430,6 +3487,7 @@
         <f>IF(E128&gt;1,(1.732*D128*F128)/1000,(D128*F128)/1000)</f>
         <v/>
       </c>
+      <c r="S128" s="9" t="n"/>
     </row>
     <row r="129">
       <c r="A129" s="5" t="n">
@@ -3456,6 +3514,7 @@
         <f>IF(E129&gt;1,(1.732*D129*F129)/1000,(D129*F129)/1000)</f>
         <v/>
       </c>
+      <c r="S129" s="9" t="n"/>
     </row>
     <row r="130">
       <c r="A130" s="5" t="n">
@@ -3489,7 +3548,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S130" t="inlineStr">
+      <c r="S130" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -3511,6 +3570,7 @@
       </c>
       <c r="F131" s="7" t="n"/>
       <c r="G131" s="8" t="n"/>
+      <c r="S131" s="9" t="n"/>
     </row>
     <row r="132">
       <c r="A132" s="5" t="n">
@@ -3526,7 +3586,7 @@
       </c>
       <c r="F132" s="7" t="n"/>
       <c r="G132" s="8" t="n"/>
-      <c r="S132" t="inlineStr">
+      <c r="S132" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -3546,7 +3606,7 @@
       </c>
       <c r="F133" s="7" t="n"/>
       <c r="G133" s="8" t="n"/>
-      <c r="S133" t="inlineStr">
+      <c r="S133" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -3566,7 +3626,7 @@
       </c>
       <c r="F134" s="7" t="n"/>
       <c r="G134" s="8" t="n"/>
-      <c r="S134" t="inlineStr">
+      <c r="S134" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -3588,6 +3648,7 @@
       </c>
       <c r="F135" s="7" t="n"/>
       <c r="G135" s="8" t="n"/>
+      <c r="S135" s="9" t="n"/>
     </row>
     <row r="136">
       <c r="A136" s="5" t="n">
@@ -3605,6 +3666,7 @@
       </c>
       <c r="F136" s="7" t="n"/>
       <c r="G136" s="8" t="n"/>
+      <c r="S136" s="9" t="n"/>
     </row>
     <row r="137">
       <c r="A137" s="5" t="n">
@@ -3649,7 +3711,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S137" t="inlineStr">
+      <c r="S137" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -3669,7 +3731,7 @@
       </c>
       <c r="F138" s="7" t="n"/>
       <c r="G138" s="8" t="n"/>
-      <c r="S138" t="inlineStr">
+      <c r="S138" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #251</t>
         </is>
@@ -3689,7 +3751,7 @@
       </c>
       <c r="F139" s="7" t="n"/>
       <c r="G139" s="8" t="n"/>
-      <c r="S139" t="inlineStr">
+      <c r="S139" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -3709,7 +3771,7 @@
       </c>
       <c r="F140" s="7" t="n"/>
       <c r="G140" s="8" t="n"/>
-      <c r="S140" t="inlineStr">
+      <c r="S140" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -3731,6 +3793,7 @@
       </c>
       <c r="F141" s="7" t="n"/>
       <c r="G141" s="8" t="n"/>
+      <c r="S141" s="9" t="n"/>
     </row>
     <row r="142">
       <c r="A142" s="5" t="n">
@@ -3748,6 +3811,7 @@
       </c>
       <c r="F142" s="7" t="n"/>
       <c r="G142" s="8" t="n"/>
+      <c r="S142" s="9" t="n"/>
     </row>
     <row r="143">
       <c r="A143" s="5" t="n">
@@ -3765,6 +3829,7 @@
       </c>
       <c r="F143" s="7" t="n"/>
       <c r="G143" s="8" t="n"/>
+      <c r="S143" s="9" t="n"/>
     </row>
     <row r="144">
       <c r="A144" s="5" t="n">
@@ -3780,7 +3845,7 @@
       </c>
       <c r="F144" s="7" t="n"/>
       <c r="G144" s="8" t="n"/>
-      <c r="S144" t="inlineStr">
+      <c r="S144" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3802,6 +3867,7 @@
       </c>
       <c r="F145" s="7" t="n"/>
       <c r="G145" s="8" t="n"/>
+      <c r="S145" s="9" t="n"/>
     </row>
     <row r="146">
       <c r="A146" s="5" t="n">
@@ -3819,6 +3885,7 @@
       </c>
       <c r="F146" s="7" t="n"/>
       <c r="G146" s="8" t="n"/>
+      <c r="S146" s="9" t="n"/>
     </row>
     <row r="147">
       <c r="A147" s="5" t="n">
@@ -3851,7 +3918,7 @@
       <c r="O147" t="n">
         <v>3680</v>
       </c>
-      <c r="S147" t="inlineStr">
+      <c r="S147" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -3882,7 +3949,7 @@
         <f>IF(E148&gt;1,(1.732*D148*F148)/1000,(D148*F148)/1000)</f>
         <v/>
       </c>
-      <c r="S148" t="inlineStr">
+      <c r="S148" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #261 #331 #352</t>
         </is>
@@ -3915,7 +3982,8 @@
       </c>
       <c r="H149" t="inlineStr">
         <is>
-          <t>(2)3/4"</t>
+          <t>(2)3/4"_x000D_
+(2)3/4"</t>
         </is>
       </c>
       <c r="K149" t="inlineStr">
@@ -3923,7 +3991,7 @@
           <t>(2)2"</t>
         </is>
       </c>
-      <c r="S149" t="inlineStr">
+      <c r="S149" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3956,7 +4024,8 @@
       </c>
       <c r="H150" t="inlineStr">
         <is>
-          <t>(2)3/4"</t>
+          <t>(2)3/4"_x000D_
+(2)3/4"</t>
         </is>
       </c>
       <c r="K150" t="inlineStr">
@@ -3964,7 +4033,7 @@
           <t>(2)2"</t>
         </is>
       </c>
-      <c r="S150" t="inlineStr">
+      <c r="S150" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -3998,7 +4067,7 @@
       <c r="M151" t="n">
         <v>110000</v>
       </c>
-      <c r="S151" t="inlineStr">
+      <c r="S151" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4029,7 +4098,7 @@
         <f>IF(E152&gt;1,(1.732*D152*F152)/1000,(D152*F152)/1000)</f>
         <v/>
       </c>
-      <c r="S152" t="inlineStr">
+      <c r="S152" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4051,6 +4120,7 @@
       </c>
       <c r="F153" s="7" t="n"/>
       <c r="G153" s="8" t="n"/>
+      <c r="S153" s="9" t="n"/>
     </row>
     <row r="154">
       <c r="A154" s="5" t="n">
@@ -4066,7 +4136,7 @@
       </c>
       <c r="F154" s="7" t="n"/>
       <c r="G154" s="8" t="n"/>
-      <c r="S154" t="inlineStr">
+      <c r="S154" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4086,7 +4156,7 @@
       </c>
       <c r="F155" s="7" t="n"/>
       <c r="G155" s="8" t="n"/>
-      <c r="S155" t="inlineStr">
+      <c r="S155" s="9" t="inlineStr">
         <is>
           <t>MOBILE CUSTOM FABRICATION WITH TRASH CHUTE</t>
         </is>
@@ -4120,7 +4190,7 @@
       <c r="M156" t="n">
         <v>240000</v>
       </c>
-      <c r="S156" t="inlineStr">
+      <c r="S156" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH FILTER</t>
         </is>
@@ -4142,6 +4212,7 @@
       </c>
       <c r="F157" s="7" t="n"/>
       <c r="G157" s="8" t="n"/>
+      <c r="S157" s="9" t="n"/>
     </row>
     <row r="158">
       <c r="A158" s="5" t="n">
@@ -4159,6 +4230,7 @@
       </c>
       <c r="F158" s="7" t="n"/>
       <c r="G158" s="8" t="n"/>
+      <c r="S158" s="9" t="n"/>
     </row>
     <row r="159">
       <c r="A159" s="5" t="n">
@@ -4201,7 +4273,7 @@
       <c r="M159" t="n">
         <v>144000</v>
       </c>
-      <c r="S159" t="inlineStr">
+      <c r="S159" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -4248,7 +4320,7 @@
       <c r="M160" t="n">
         <v>100000</v>
       </c>
-      <c r="S160" t="inlineStr">
+      <c r="S160" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -4273,7 +4345,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S161" t="inlineStr">
+      <c r="S161" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4296,7 +4368,7 @@
       <c r="M162" t="n">
         <v>260000</v>
       </c>
-      <c r="S162" t="inlineStr">
+      <c r="S162" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4320,6 +4392,7 @@
       </c>
       <c r="F163" s="7" t="n"/>
       <c r="G163" s="8" t="n"/>
+      <c r="S163" s="9" t="n"/>
     </row>
     <row r="164">
       <c r="A164" s="3" t="inlineStr">
@@ -4378,7 +4451,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S165" t="inlineStr">
+      <c r="S165" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -4398,7 +4471,7 @@
       </c>
       <c r="F166" s="7" t="n"/>
       <c r="G166" s="8" t="n"/>
-      <c r="S166" t="inlineStr">
+      <c r="S166" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -4429,7 +4502,7 @@
         <f>IF(E167&gt;1,(1.732*D167*F167)/1000,(D167*F167)/1000)</f>
         <v/>
       </c>
-      <c r="S167" t="inlineStr">
+      <c r="S167" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4449,7 +4522,7 @@
       </c>
       <c r="F168" s="7" t="n"/>
       <c r="G168" s="8" t="n"/>
-      <c r="S168" t="inlineStr">
+      <c r="S168" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4471,6 +4544,7 @@
       </c>
       <c r="F169" s="7" t="n"/>
       <c r="G169" s="8" t="n"/>
+      <c r="S169" s="9" t="n"/>
     </row>
     <row r="170">
       <c r="A170" s="5" t="n">
@@ -4500,6 +4574,7 @@
       <c r="P170" t="n">
         <v>8000</v>
       </c>
+      <c r="S170" s="9" t="n"/>
     </row>
     <row r="171">
       <c r="A171" s="5" t="n">
@@ -4525,6 +4600,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S171" s="9" t="n"/>
     </row>
     <row r="172">
       <c r="A172" s="5" t="n">
@@ -4556,7 +4632,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S172" t="inlineStr">
+      <c r="S172" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4578,6 +4654,7 @@
       </c>
       <c r="F173" s="7" t="n"/>
       <c r="G173" s="8" t="n"/>
+      <c r="S173" s="9" t="n"/>
     </row>
     <row r="174">
       <c r="A174" s="5" t="n">
@@ -4595,6 +4672,7 @@
       </c>
       <c r="F174" s="7" t="n"/>
       <c r="G174" s="8" t="n"/>
+      <c r="S174" s="9" t="n"/>
     </row>
     <row r="175">
       <c r="A175" s="5" t="n">
@@ -4639,7 +4717,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S175" t="inlineStr">
+      <c r="S175" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4659,7 +4737,7 @@
       </c>
       <c r="F176" s="7" t="n"/>
       <c r="G176" s="8" t="n"/>
-      <c r="S176" t="inlineStr">
+      <c r="S176" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -4679,7 +4757,7 @@
       </c>
       <c r="F177" s="7" t="n"/>
       <c r="G177" s="8" t="n"/>
-      <c r="S177" t="inlineStr">
+      <c r="S177" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #311</t>
         </is>
@@ -4715,7 +4793,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S178" t="inlineStr">
+      <c r="S178" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #311</t>
         </is>
@@ -4737,6 +4815,7 @@
       </c>
       <c r="F179" s="7" t="n"/>
       <c r="G179" s="8" t="n"/>
+      <c r="S179" s="9" t="n"/>
     </row>
     <row r="180">
       <c r="A180" s="5" t="n">
@@ -4768,7 +4847,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S180" t="inlineStr">
+      <c r="S180" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWER PART OF ITEM #311</t>
         </is>
@@ -4799,6 +4878,7 @@
         <f>IF(E181&gt;1,(1.732*D181*F181)/1000,(D181*F181)/1000)</f>
         <v/>
       </c>
+      <c r="S181" s="9" t="n"/>
     </row>
     <row r="182">
       <c r="A182" s="5" t="n">
@@ -4814,7 +4894,7 @@
       </c>
       <c r="F182" s="7" t="n"/>
       <c r="G182" s="8" t="n"/>
-      <c r="S182" t="inlineStr">
+      <c r="S182" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -4836,6 +4916,7 @@
       </c>
       <c r="F183" s="7" t="n"/>
       <c r="G183" s="8" t="n"/>
+      <c r="S183" s="9" t="n"/>
     </row>
     <row r="184">
       <c r="A184" s="5" t="n">
@@ -4853,6 +4934,7 @@
       </c>
       <c r="F184" s="7" t="n"/>
       <c r="G184" s="8" t="n"/>
+      <c r="S184" s="9" t="n"/>
     </row>
     <row r="185">
       <c r="A185" s="5" t="n">
@@ -4879,7 +4961,7 @@
         <f>IF(E185&gt;1,(1.732*D185*F185)/1000,(D185*F185)/1000)</f>
         <v/>
       </c>
-      <c r="S185" t="inlineStr">
+      <c r="S185" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -4899,7 +4981,7 @@
       </c>
       <c r="F186" s="7" t="n"/>
       <c r="G186" s="8" t="n"/>
-      <c r="S186" t="inlineStr">
+      <c r="S186" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -4937,7 +5019,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S187" t="inlineStr">
+      <c r="S187" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -4957,7 +5039,7 @@
       </c>
       <c r="F188" s="7" t="n"/>
       <c r="G188" s="8" t="n"/>
-      <c r="S188" t="inlineStr">
+      <c r="S188" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -4981,6 +5063,7 @@
       </c>
       <c r="F189" s="7" t="n"/>
       <c r="G189" s="8" t="n"/>
+      <c r="S189" s="9" t="n"/>
     </row>
     <row r="190">
       <c r="A190" s="3" t="inlineStr">
@@ -5038,7 +5121,7 @@
       <c r="O191" t="n">
         <v>3000</v>
       </c>
-      <c r="S191" t="inlineStr">
+      <c r="S191" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -5069,7 +5152,7 @@
         <f>IF(E192&gt;1,(1.732*D192*F192)/1000,(D192*F192)/1000)</f>
         <v/>
       </c>
-      <c r="S192" t="inlineStr">
+      <c r="S192" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -5103,7 +5186,7 @@
       <c r="M193" t="n">
         <v>240000</v>
       </c>
-      <c r="S193" t="inlineStr">
+      <c r="S193" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH FILTER</t>
         </is>
@@ -5123,7 +5206,7 @@
       </c>
       <c r="F194" s="7" t="n"/>
       <c r="G194" s="8" t="n"/>
-      <c r="S194" t="inlineStr">
+      <c r="S194" s="9" t="inlineStr">
         <is>
           <t>MOBILE CUSTOM FABRICATION WITH TRASH CHUTE</t>
         </is>
@@ -5145,6 +5228,7 @@
       </c>
       <c r="F195" s="7" t="n"/>
       <c r="G195" s="8" t="n"/>
+      <c r="S195" s="9" t="n"/>
     </row>
     <row r="196">
       <c r="A196" s="5" t="n">
@@ -5160,7 +5244,7 @@
       </c>
       <c r="F196" s="7" t="n"/>
       <c r="G196" s="8" t="n"/>
-      <c r="S196" t="inlineStr">
+      <c r="S196" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5194,7 +5278,7 @@
       <c r="M197" t="n">
         <v>105000</v>
       </c>
-      <c r="S197" t="inlineStr">
+      <c r="S197" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -5214,7 +5298,7 @@
       </c>
       <c r="F198" s="7" t="n"/>
       <c r="G198" s="8" t="n"/>
-      <c r="S198" t="inlineStr">
+      <c r="S198" s="9" t="inlineStr">
         <is>
           <t>MOBILE CUSTOM FABRICATION WITH TRASH CHUTE</t>
         </is>
@@ -5236,6 +5320,7 @@
       </c>
       <c r="F199" s="7" t="n"/>
       <c r="G199" s="8" t="n"/>
+      <c r="S199" s="9" t="n"/>
     </row>
     <row r="200">
       <c r="A200" s="5" t="n">
@@ -5253,6 +5338,7 @@
       </c>
       <c r="F200" s="7" t="n"/>
       <c r="G200" s="8" t="n"/>
+      <c r="S200" s="9" t="n"/>
     </row>
     <row r="201">
       <c r="A201" s="5" t="n">
@@ -5268,7 +5354,7 @@
       </c>
       <c r="F201" s="7" t="n"/>
       <c r="G201" s="8" t="n"/>
-      <c r="S201" t="inlineStr">
+      <c r="S201" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5291,6 +5377,7 @@
       <c r="M202" t="n">
         <v>210000</v>
       </c>
+      <c r="S202" s="9" t="n"/>
     </row>
     <row r="203">
       <c r="A203" s="5" t="n">
@@ -5309,7 +5396,7 @@
       <c r="M203" t="n">
         <v>35000</v>
       </c>
-      <c r="S203" t="inlineStr">
+      <c r="S203" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -5332,6 +5419,7 @@
       <c r="M204" t="n">
         <v>210000</v>
       </c>
+      <c r="S204" s="9" t="n"/>
     </row>
     <row r="205">
       <c r="A205" s="5" t="n">
@@ -5349,6 +5437,7 @@
       </c>
       <c r="F205" s="7" t="n"/>
       <c r="G205" s="8" t="n"/>
+      <c r="S205" s="9" t="n"/>
     </row>
     <row r="206">
       <c r="A206" s="5" t="n">
@@ -5377,6 +5466,7 @@
       <c r="J206" t="n">
         <v>30</v>
       </c>
+      <c r="S206" s="9" t="n"/>
     </row>
     <row r="207">
       <c r="A207" s="5" t="n">
@@ -5403,7 +5493,7 @@
         <f>IF(E207&gt;1,(1.732*D207*F207)/1000,(D207*F207)/1000)</f>
         <v/>
       </c>
-      <c r="S207" t="inlineStr">
+      <c r="S207" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -5423,7 +5513,7 @@
       </c>
       <c r="F208" s="7" t="n"/>
       <c r="G208" s="8" t="n"/>
-      <c r="S208" t="inlineStr">
+      <c r="S208" s="9" t="inlineStr">
         <is>
           <t>MOBILE CUSTOM FABRICATION WITH TRASH CHUTE</t>
         </is>
@@ -5445,6 +5535,7 @@
       </c>
       <c r="F209" s="7" t="n"/>
       <c r="G209" s="8" t="n"/>
+      <c r="S209" s="9" t="n"/>
     </row>
     <row r="210">
       <c r="A210" s="5" t="n">
@@ -5462,6 +5553,7 @@
       </c>
       <c r="F210" s="7" t="n"/>
       <c r="G210" s="8" t="n"/>
+      <c r="S210" s="9" t="n"/>
     </row>
     <row r="211">
       <c r="A211" s="5" t="n">
@@ -5477,7 +5569,7 @@
       </c>
       <c r="F211" s="7" t="n"/>
       <c r="G211" s="8" t="n"/>
-      <c r="S211" t="inlineStr">
+      <c r="S211" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5497,7 +5589,7 @@
       </c>
       <c r="F212" s="7" t="n"/>
       <c r="G212" s="8" t="n"/>
-      <c r="S212" t="inlineStr">
+      <c r="S212" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -5534,7 +5626,7 @@
       <c r="O213" t="n">
         <v>1279</v>
       </c>
-      <c r="S213" t="inlineStr">
+      <c r="S213" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -5554,7 +5646,7 @@
       </c>
       <c r="F214" s="7" t="n"/>
       <c r="G214" s="8" t="n"/>
-      <c r="S214" t="inlineStr">
+      <c r="S214" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -5576,6 +5668,7 @@
       </c>
       <c r="F215" s="7" t="n"/>
       <c r="G215" s="8" t="n"/>
+      <c r="S215" s="9" t="n"/>
     </row>
     <row r="216">
       <c r="A216" s="5" t="n">
@@ -5591,7 +5684,7 @@
       </c>
       <c r="F216" s="7" t="n"/>
       <c r="G216" s="8" t="n"/>
-      <c r="S216" t="inlineStr">
+      <c r="S216" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE</t>
         </is>
@@ -5613,6 +5706,7 @@
       </c>
       <c r="F217" s="7" t="n"/>
       <c r="G217" s="8" t="n"/>
+      <c r="S217" s="9" t="n"/>
     </row>
     <row r="218">
       <c r="A218" s="5" t="n">
@@ -5630,6 +5724,7 @@
       </c>
       <c r="F218" s="7" t="n"/>
       <c r="G218" s="8" t="n"/>
+      <c r="S218" s="9" t="n"/>
     </row>
     <row r="219">
       <c r="A219" s="5" t="n">
@@ -5647,6 +5742,7 @@
       </c>
       <c r="F219" s="7" t="n"/>
       <c r="G219" s="8" t="n"/>
+      <c r="S219" s="9" t="n"/>
     </row>
     <row r="220">
       <c r="A220" s="5" t="n">
@@ -5664,6 +5760,7 @@
       </c>
       <c r="F220" s="7" t="n"/>
       <c r="G220" s="8" t="n"/>
+      <c r="S220" s="9" t="n"/>
     </row>
     <row r="221">
       <c r="A221" s="5" t="n">
@@ -5708,7 +5805,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S221" t="inlineStr">
+      <c r="S221" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5728,7 +5825,7 @@
       </c>
       <c r="F222" s="7" t="n"/>
       <c r="G222" s="8" t="n"/>
-      <c r="S222" t="inlineStr">
+      <c r="S222" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -5759,7 +5856,7 @@
         <f>IF(E223&gt;1,(1.732*D223*F223)/1000,(D223*F223)/1000)</f>
         <v/>
       </c>
-      <c r="S223" t="inlineStr">
+      <c r="S223" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -5795,7 +5892,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S224" t="inlineStr">
+      <c r="S224" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #361</t>
         </is>
@@ -5817,6 +5914,7 @@
       </c>
       <c r="F225" s="7" t="n"/>
       <c r="G225" s="8" t="n"/>
+      <c r="S225" s="9" t="n"/>
     </row>
     <row r="226">
       <c r="A226" s="5" t="n">
@@ -5843,6 +5941,7 @@
         <f>IF(E226&gt;1,(1.732*D226*F226)/1000,(D226*F226)/1000)</f>
         <v/>
       </c>
+      <c r="S226" s="9" t="n"/>
     </row>
     <row r="227">
       <c r="A227" s="5" t="n">
@@ -5858,7 +5957,7 @@
       </c>
       <c r="F227" s="7" t="n"/>
       <c r="G227" s="8" t="n"/>
-      <c r="S227" t="inlineStr">
+      <c r="S227" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #361</t>
         </is>
@@ -5888,6 +5987,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S228" s="9" t="n"/>
     </row>
     <row r="229">
       <c r="A229" s="5" t="n">
@@ -5905,6 +6005,7 @@
       </c>
       <c r="F229" s="7" t="n"/>
       <c r="G229" s="8" t="n"/>
+      <c r="S229" s="9" t="n"/>
     </row>
     <row r="230">
       <c r="A230" s="5" t="n">
@@ -5922,6 +6023,7 @@
       </c>
       <c r="F230" s="7" t="n"/>
       <c r="G230" s="8" t="n"/>
+      <c r="S230" s="9" t="n"/>
     </row>
     <row r="231">
       <c r="A231" s="5" t="n">
@@ -5953,7 +6055,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S231" t="inlineStr">
+      <c r="S231" s="9" t="inlineStr">
         <is>
           <t>2 WELLS</t>
         </is>
@@ -5984,6 +6086,7 @@
         <f>IF(E232&gt;1,(1.732*D232*F232)/1000,(D232*F232)/1000)</f>
         <v/>
       </c>
+      <c r="S232" s="9" t="n"/>
     </row>
     <row r="233">
       <c r="A233" s="5" t="n">
@@ -6009,6 +6112,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S233" s="9" t="n"/>
     </row>
     <row r="234">
       <c r="A234" s="5" t="n">
@@ -6040,7 +6144,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S234" t="inlineStr">
+      <c r="S234" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #361</t>
         </is>
@@ -6062,6 +6166,7 @@
       </c>
       <c r="F235" s="7" t="n"/>
       <c r="G235" s="8" t="n"/>
+      <c r="S235" s="9" t="n"/>
     </row>
     <row r="236">
       <c r="A236" s="5" t="n">
@@ -6077,7 +6182,7 @@
       </c>
       <c r="F236" s="7" t="n"/>
       <c r="G236" s="8" t="n"/>
-      <c r="S236" t="inlineStr">
+      <c r="S236" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #361</t>
         </is>
@@ -6108,7 +6213,7 @@
         <f>IF(E237&gt;1,(1.732*D237*F237)/1000,(D237*F237)/1000)</f>
         <v/>
       </c>
-      <c r="S237" t="inlineStr">
+      <c r="S237" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6139,7 +6244,7 @@
         <f>IF(E238&gt;1,(1.732*D238*F238)/1000,(D238*F238)/1000)</f>
         <v/>
       </c>
-      <c r="S238" t="inlineStr">
+      <c r="S238" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6161,6 +6266,7 @@
       </c>
       <c r="F239" s="7" t="n"/>
       <c r="G239" s="8" t="n"/>
+      <c r="S239" s="9" t="n"/>
     </row>
     <row r="240">
       <c r="A240" s="5" t="n">
@@ -6178,6 +6284,7 @@
       </c>
       <c r="F240" s="7" t="n"/>
       <c r="G240" s="8" t="n"/>
+      <c r="S240" s="9" t="n"/>
     </row>
     <row r="241">
       <c r="A241" s="5" t="n">
@@ -6204,7 +6311,7 @@
         <f>IF(E241&gt;1,(1.732*D241*F241)/1000,(D241*F241)/1000)</f>
         <v/>
       </c>
-      <c r="S241" t="inlineStr">
+      <c r="S241" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6240,7 +6347,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S242" t="inlineStr">
+      <c r="S242" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #361</t>
         </is>
@@ -6260,7 +6367,7 @@
       </c>
       <c r="F243" s="7" t="n"/>
       <c r="G243" s="8" t="n"/>
-      <c r="S243" t="inlineStr">
+      <c r="S243" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #361</t>
         </is>
@@ -6291,7 +6398,7 @@
         <f>IF(E244&gt;1,(1.732*D244*F244)/1000,(D244*F244)/1000)</f>
         <v/>
       </c>
-      <c r="S244" t="inlineStr">
+      <c r="S244" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6313,6 +6420,7 @@
       </c>
       <c r="F245" s="7" t="n"/>
       <c r="G245" s="8" t="n"/>
+      <c r="S245" s="9" t="n"/>
     </row>
     <row r="246">
       <c r="A246" s="5" t="n">
@@ -6339,7 +6447,7 @@
         <f>IF(E246&gt;1,(1.732*D246*F246)/1000,(D246*F246)/1000)</f>
         <v/>
       </c>
-      <c r="S246" t="inlineStr">
+      <c r="S246" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #261 #331 #352</t>
         </is>
@@ -6361,6 +6469,7 @@
       </c>
       <c r="F247" s="7" t="n"/>
       <c r="G247" s="8" t="n"/>
+      <c r="S247" s="9" t="n"/>
     </row>
     <row r="248">
       <c r="A248" s="5" t="n">
@@ -6378,6 +6487,7 @@
       </c>
       <c r="F248" s="7" t="n"/>
       <c r="G248" s="8" t="n"/>
+      <c r="S248" s="9" t="n"/>
     </row>
     <row r="249">
       <c r="A249" s="5" t="n">
@@ -6395,6 +6505,7 @@
       </c>
       <c r="F249" s="7" t="n"/>
       <c r="G249" s="8" t="n"/>
+      <c r="S249" s="9" t="n"/>
     </row>
     <row r="250">
       <c r="A250" s="5" t="inlineStr">
@@ -6414,6 +6525,7 @@
       </c>
       <c r="F250" s="7" t="n"/>
       <c r="G250" s="8" t="n"/>
+      <c r="S250" s="9" t="n"/>
     </row>
     <row r="251">
       <c r="A251" s="3" t="inlineStr">
@@ -6465,7 +6577,7 @@
         <f>IF(E252&gt;1,(1.732*D252*F252)/1000,(D252*F252)/1000)</f>
         <v/>
       </c>
-      <c r="S252" t="inlineStr">
+      <c r="S252" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DOOR</t>
         </is>
@@ -6514,7 +6626,7 @@
           <t>(2)1-1/2"</t>
         </is>
       </c>
-      <c r="S253" t="inlineStr">
+      <c r="S253" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6534,7 +6646,7 @@
       </c>
       <c r="F254" s="7" t="n"/>
       <c r="G254" s="8" t="n"/>
-      <c r="S254" t="inlineStr">
+      <c r="S254" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6554,7 +6666,7 @@
       </c>
       <c r="F255" s="7" t="n"/>
       <c r="G255" s="8" t="n"/>
-      <c r="S255" t="inlineStr">
+      <c r="S255" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #402</t>
         </is>
@@ -6576,6 +6688,7 @@
       </c>
       <c r="F256" s="7" t="n"/>
       <c r="G256" s="8" t="n"/>
+      <c r="S256" s="9" t="n"/>
     </row>
     <row r="257">
       <c r="A257" s="5" t="n">
@@ -6591,7 +6704,7 @@
       </c>
       <c r="F257" s="7" t="n"/>
       <c r="G257" s="8" t="n"/>
-      <c r="S257" t="inlineStr">
+      <c r="S257" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -6627,7 +6740,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S258" t="inlineStr">
+      <c r="S258" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #402</t>
         </is>
@@ -6658,7 +6771,7 @@
         <f>IF(E259&gt;1,(1.732*D259*F259)/1000,(D259*F259)/1000)</f>
         <v/>
       </c>
-      <c r="S259" t="inlineStr">
+      <c r="S259" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -6680,6 +6793,7 @@
       </c>
       <c r="F260" s="7" t="n"/>
       <c r="G260" s="8" t="n"/>
+      <c r="S260" s="9" t="n"/>
     </row>
     <row r="261">
       <c r="A261" s="5" t="n">
@@ -6697,6 +6811,7 @@
       </c>
       <c r="F261" s="7" t="n"/>
       <c r="G261" s="8" t="n"/>
+      <c r="S261" s="9" t="n"/>
     </row>
     <row r="262">
       <c r="A262" s="5" t="n">
@@ -6712,7 +6827,7 @@
       </c>
       <c r="F262" s="7" t="n"/>
       <c r="G262" s="8" t="n"/>
-      <c r="S262" t="inlineStr">
+      <c r="S262" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #402</t>
         </is>
@@ -6743,7 +6858,7 @@
         <f>IF(E263&gt;1,(1.732*D263*F263)/1000,(D263*F263)/1000)</f>
         <v/>
       </c>
-      <c r="S263" t="inlineStr">
+      <c r="S263" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -6779,7 +6894,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S264" t="inlineStr">
+      <c r="S264" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #402</t>
         </is>
@@ -6799,7 +6914,7 @@
       </c>
       <c r="F265" s="7" t="n"/>
       <c r="G265" s="8" t="n"/>
-      <c r="S265" t="inlineStr">
+      <c r="S265" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #402</t>
         </is>
@@ -6821,6 +6936,7 @@
       </c>
       <c r="F266" s="7" t="n"/>
       <c r="G266" s="8" t="n"/>
+      <c r="S266" s="9" t="n"/>
     </row>
     <row r="267">
       <c r="A267" s="5" t="n">
@@ -6836,7 +6952,7 @@
       </c>
       <c r="F267" s="7" t="n"/>
       <c r="G267" s="8" t="n"/>
-      <c r="S267" t="inlineStr">
+      <c r="S267" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #402</t>
         </is>
@@ -6858,6 +6974,7 @@
       </c>
       <c r="F268" s="7" t="n"/>
       <c r="G268" s="8" t="n"/>
+      <c r="S268" s="9" t="n"/>
     </row>
     <row r="269">
       <c r="A269" s="5" t="n">
@@ -6875,6 +6992,7 @@
       </c>
       <c r="F269" s="7" t="n"/>
       <c r="G269" s="8" t="n"/>
+      <c r="S269" s="9" t="n"/>
     </row>
     <row r="270">
       <c r="A270" s="5" t="n">
@@ -6892,6 +7010,7 @@
       </c>
       <c r="F270" s="7" t="n"/>
       <c r="G270" s="8" t="n"/>
+      <c r="S270" s="9" t="n"/>
     </row>
     <row r="271">
       <c r="A271" s="5" t="n">
@@ -6909,6 +7028,7 @@
       </c>
       <c r="F271" s="7" t="n"/>
       <c r="G271" s="8" t="n"/>
+      <c r="S271" s="9" t="n"/>
     </row>
     <row r="272">
       <c r="A272" s="3" t="inlineStr">
@@ -6960,7 +7080,7 @@
         <f>IF(E273&gt;1,(1.732*D273*F273)/1000,(D273*F273)/1000)</f>
         <v/>
       </c>
-      <c r="S273" t="inlineStr">
+      <c r="S273" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -6991,7 +7111,7 @@
         <f>IF(E274&gt;1,(1.732*D274*F274)/1000,(D274*F274)/1000)</f>
         <v/>
       </c>
-      <c r="S274" t="inlineStr">
+      <c r="S274" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7021,6 +7141,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S275" s="9" t="n"/>
     </row>
     <row r="276">
       <c r="A276" s="5" t="n">
@@ -7036,7 +7157,7 @@
       </c>
       <c r="F276" s="7" t="n"/>
       <c r="G276" s="8" t="n"/>
-      <c r="S276" t="inlineStr">
+      <c r="S276" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7058,6 +7179,7 @@
       </c>
       <c r="F277" s="7" t="n"/>
       <c r="G277" s="8" t="n"/>
+      <c r="S277" s="9" t="n"/>
     </row>
     <row r="278">
       <c r="A278" s="5" t="n">
@@ -7089,6 +7211,7 @@
           <t>3/8"</t>
         </is>
       </c>
+      <c r="S278" s="9" t="n"/>
     </row>
     <row r="279">
       <c r="A279" s="5" t="n">
@@ -7104,7 +7227,7 @@
       </c>
       <c r="F279" s="7" t="n"/>
       <c r="G279" s="8" t="n"/>
-      <c r="S279" t="inlineStr">
+      <c r="S279" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7140,7 +7263,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S280" t="inlineStr">
+      <c r="S280" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -7162,6 +7285,7 @@
       </c>
       <c r="F281" s="7" t="n"/>
       <c r="G281" s="8" t="n"/>
+      <c r="S281" s="9" t="n"/>
     </row>
     <row r="282">
       <c r="A282" s="5" t="n">
@@ -7179,6 +7303,7 @@
       </c>
       <c r="F282" s="7" t="n"/>
       <c r="G282" s="8" t="n"/>
+      <c r="S282" s="9" t="n"/>
     </row>
     <row r="283">
       <c r="A283" s="5" t="n">
@@ -7218,7 +7343,7 @@
       <c r="P283" t="n">
         <v>5000</v>
       </c>
-      <c r="S283" t="inlineStr">
+      <c r="S283" s="9" t="inlineStr">
         <is>
           <t>400LBS. AIR-COOLED NUGGET ICE</t>
         </is>
@@ -7243,7 +7368,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S284" t="inlineStr">
+      <c r="S284" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #431</t>
         </is>
@@ -7279,6 +7404,7 @@
           <t>3/8"</t>
         </is>
       </c>
+      <c r="S285" s="9" t="n"/>
     </row>
     <row r="286">
       <c r="A286" s="5" t="n">
@@ -7296,6 +7422,7 @@
       </c>
       <c r="F286" s="7" t="n"/>
       <c r="G286" s="8" t="n"/>
+      <c r="S286" s="9" t="n"/>
     </row>
     <row r="287">
       <c r="A287" s="5" t="n">
@@ -7313,6 +7440,7 @@
       </c>
       <c r="F287" s="7" t="n"/>
       <c r="G287" s="8" t="n"/>
+      <c r="S287" s="9" t="n"/>
     </row>
     <row r="288">
       <c r="A288" s="5" t="n">
@@ -7333,7 +7461,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S288" t="inlineStr">
+      <c r="S288" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #426 #433 #438</t>
         </is>
@@ -7364,6 +7492,7 @@
         <f>IF(E289&gt;1,(1.732*D289*F289)/1000,(D289*F289)/1000)</f>
         <v/>
       </c>
+      <c r="S289" s="9" t="n"/>
     </row>
     <row r="290">
       <c r="A290" s="5" t="n">
@@ -7400,7 +7529,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S290" t="inlineStr">
+      <c r="S290" s="9" t="inlineStr">
         <is>
           <t>2 GROUP</t>
         </is>
@@ -7422,6 +7551,7 @@
       </c>
       <c r="F291" s="7" t="n"/>
       <c r="G291" s="8" t="n"/>
+      <c r="S291" s="9" t="n"/>
     </row>
     <row r="292">
       <c r="A292" s="5" t="n">
@@ -7439,6 +7569,7 @@
       </c>
       <c r="F292" s="7" t="n"/>
       <c r="G292" s="8" t="n"/>
+      <c r="S292" s="9" t="n"/>
     </row>
     <row r="293">
       <c r="A293" s="5" t="n">
@@ -7472,7 +7603,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S293" t="inlineStr">
+      <c r="S293" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -7492,7 +7623,7 @@
       </c>
       <c r="F294" s="7" t="n"/>
       <c r="G294" s="8" t="n"/>
-      <c r="S294" t="inlineStr">
+      <c r="S294" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -7514,6 +7645,7 @@
       </c>
       <c r="F295" s="7" t="n"/>
       <c r="G295" s="8" t="n"/>
+      <c r="S295" s="9" t="n"/>
     </row>
     <row r="296">
       <c r="A296" s="5" t="n">
@@ -7531,6 +7663,7 @@
       </c>
       <c r="F296" s="7" t="n"/>
       <c r="G296" s="8" t="n"/>
+      <c r="S296" s="9" t="n"/>
     </row>
     <row r="297">
       <c r="A297" s="5" t="inlineStr">
@@ -7550,6 +7683,7 @@
       </c>
       <c r="F297" s="7" t="n"/>
       <c r="G297" s="8" t="n"/>
+      <c r="S297" s="9" t="n"/>
     </row>
     <row r="298">
       <c r="A298" s="3" t="inlineStr">
@@ -7590,7 +7724,7 @@
       </c>
       <c r="F299" s="7" t="n"/>
       <c r="G299" s="8" t="n"/>
-      <c r="S299" t="inlineStr">
+      <c r="S299" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -7610,7 +7744,7 @@
       </c>
       <c r="F300" s="7" t="n"/>
       <c r="G300" s="8" t="n"/>
-      <c r="S300" t="inlineStr">
+      <c r="S300" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #453</t>
         </is>
@@ -7630,7 +7764,7 @@
       </c>
       <c r="F301" s="7" t="n"/>
       <c r="G301" s="8" t="n"/>
-      <c r="S301" t="inlineStr">
+      <c r="S301" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH TROUGH AND BRIDGES</t>
         </is>
@@ -7650,7 +7784,7 @@
       </c>
       <c r="F302" s="7" t="n"/>
       <c r="G302" s="8" t="n"/>
-      <c r="S302" t="inlineStr">
+      <c r="S302" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #453</t>
         </is>
@@ -7672,6 +7806,7 @@
       </c>
       <c r="F303" s="7" t="n"/>
       <c r="G303" s="8" t="n"/>
+      <c r="S303" s="9" t="n"/>
     </row>
     <row r="304">
       <c r="A304" s="5" t="n">
@@ -7687,7 +7822,7 @@
       </c>
       <c r="F304" s="7" t="n"/>
       <c r="G304" s="8" t="n"/>
-      <c r="S304" t="inlineStr">
+      <c r="S304" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -7712,7 +7847,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S305" t="inlineStr">
+      <c r="S305" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7732,7 +7867,7 @@
       </c>
       <c r="F306" s="7" t="n"/>
       <c r="G306" s="8" t="n"/>
-      <c r="S306" t="inlineStr">
+      <c r="S306" s="9" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
         </is>
@@ -7754,6 +7889,7 @@
       </c>
       <c r="F307" s="7" t="n"/>
       <c r="G307" s="8" t="n"/>
+      <c r="S307" s="9" t="n"/>
     </row>
     <row r="308">
       <c r="A308" s="5" t="n">
@@ -7771,6 +7907,7 @@
       </c>
       <c r="F308" s="7" t="n"/>
       <c r="G308" s="8" t="n"/>
+      <c r="S308" s="9" t="n"/>
     </row>
     <row r="309">
       <c r="A309" s="5" t="n">
@@ -7786,7 +7923,7 @@
       </c>
       <c r="F309" s="7" t="n"/>
       <c r="G309" s="8" t="n"/>
-      <c r="S309" t="inlineStr">
+      <c r="S309" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -7835,7 +7972,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S310" t="inlineStr">
+      <c r="S310" s="9" t="inlineStr">
         <is>
           <t>WITH COVER</t>
         </is>
@@ -7855,7 +7992,7 @@
       </c>
       <c r="F311" s="7" t="n"/>
       <c r="G311" s="8" t="n"/>
-      <c r="S311" t="inlineStr">
+      <c r="S311" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -7899,7 +8036,7 @@
       <c r="P312" t="n">
         <v>6100</v>
       </c>
-      <c r="S312" t="inlineStr">
+      <c r="S312" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE VENTLESS</t>
         </is>
@@ -7921,6 +8058,7 @@
       </c>
       <c r="F313" s="7" t="n"/>
       <c r="G313" s="8" t="n"/>
+      <c r="S313" s="9" t="n"/>
     </row>
     <row r="314">
       <c r="A314" s="5" t="n">
@@ -7936,7 +8074,7 @@
       </c>
       <c r="F314" s="7" t="n"/>
       <c r="G314" s="8" t="n"/>
-      <c r="S314" t="inlineStr">
+      <c r="S314" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -7956,7 +8094,7 @@
       </c>
       <c r="F315" s="7" t="n"/>
       <c r="G315" s="8" t="n"/>
-      <c r="S315" t="inlineStr">
+      <c r="S315" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -8000,6 +8138,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S316" s="9" t="n"/>
     </row>
     <row r="317">
       <c r="A317" s="5" t="n">
@@ -8017,6 +8156,7 @@
       </c>
       <c r="F317" s="7" t="n"/>
       <c r="G317" s="8" t="n"/>
+      <c r="S317" s="9" t="n"/>
     </row>
     <row r="318">
       <c r="A318" s="5" t="n">
@@ -8034,6 +8174,7 @@
       </c>
       <c r="F318" s="7" t="n"/>
       <c r="G318" s="8" t="n"/>
+      <c r="S318" s="9" t="n"/>
     </row>
     <row r="319">
       <c r="A319" s="5" t="n">
@@ -8073,6 +8214,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S319" s="9" t="n"/>
     </row>
     <row r="320">
       <c r="A320" s="5" t="n">
@@ -8101,7 +8243,7 @@
       <c r="J320" t="n">
         <v>25</v>
       </c>
-      <c r="S320" t="inlineStr">
+      <c r="S320" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #458</t>
         </is>
@@ -8139,7 +8281,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S321" t="inlineStr">
+      <c r="S321" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -8159,7 +8301,7 @@
       </c>
       <c r="F322" s="7" t="n"/>
       <c r="G322" s="8" t="n"/>
-      <c r="S322" t="inlineStr">
+      <c r="S322" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -8181,6 +8323,7 @@
       </c>
       <c r="F323" s="7" t="n"/>
       <c r="G323" s="8" t="n"/>
+      <c r="S323" s="9" t="n"/>
     </row>
     <row r="324">
       <c r="A324" s="5" t="n">
@@ -8196,7 +8339,7 @@
       </c>
       <c r="F324" s="7" t="n"/>
       <c r="G324" s="8" t="n"/>
-      <c r="S324" t="inlineStr">
+      <c r="S324" s="9" t="inlineStr">
         <is>
           <t>FIXED THREE TIER</t>
         </is>
@@ -8234,7 +8377,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S325" t="inlineStr">
+      <c r="S325" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8254,7 +8397,7 @@
       </c>
       <c r="F326" s="7" t="n"/>
       <c r="G326" s="8" t="n"/>
-      <c r="S326" t="inlineStr">
+      <c r="S326" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8276,6 +8419,7 @@
       </c>
       <c r="F327" s="7" t="n"/>
       <c r="G327" s="8" t="n"/>
+      <c r="S327" s="9" t="n"/>
     </row>
     <row r="328">
       <c r="A328" s="5" t="n">
@@ -8293,6 +8437,7 @@
       </c>
       <c r="F328" s="7" t="n"/>
       <c r="G328" s="8" t="n"/>
+      <c r="S328" s="9" t="n"/>
     </row>
     <row r="329">
       <c r="A329" s="5" t="n">
@@ -8313,7 +8458,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S329" t="inlineStr">
+      <c r="S329" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8333,7 +8478,7 @@
       </c>
       <c r="F330" s="7" t="n"/>
       <c r="G330" s="8" t="n"/>
-      <c r="S330" t="inlineStr">
+      <c r="S330" s="9" t="inlineStr">
         <is>
           <t>CEILING MOUNT</t>
         </is>
@@ -8366,7 +8511,7 @@
       <c r="J331" t="n">
         <v>25</v>
       </c>
-      <c r="S331" t="inlineStr">
+      <c r="S331" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #482</t>
         </is>
@@ -8404,7 +8549,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S332" t="inlineStr">
+      <c r="S332" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -8426,6 +8571,7 @@
       </c>
       <c r="F333" s="7" t="n"/>
       <c r="G333" s="8" t="n"/>
+      <c r="S333" s="9" t="n"/>
     </row>
     <row r="334">
       <c r="A334" s="5" t="n">
@@ -8441,7 +8587,7 @@
       </c>
       <c r="F334" s="7" t="n"/>
       <c r="G334" s="8" t="n"/>
-      <c r="S334" t="inlineStr">
+      <c r="S334" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -8461,7 +8607,7 @@
       </c>
       <c r="F335" s="7" t="n"/>
       <c r="G335" s="8" t="n"/>
-      <c r="S335" t="inlineStr">
+      <c r="S335" s="9" t="inlineStr">
         <is>
           <t>MOBILE FOUR TIER</t>
         </is>
@@ -8481,7 +8627,7 @@
       </c>
       <c r="F336" s="7" t="n"/>
       <c r="G336" s="8" t="n"/>
-      <c r="S336" t="inlineStr">
+      <c r="S336" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -8503,6 +8649,7 @@
       </c>
       <c r="F337" s="7" t="n"/>
       <c r="G337" s="8" t="n"/>
+      <c r="S337" s="9" t="n"/>
     </row>
     <row r="338">
       <c r="A338" s="5" t="n">
@@ -8520,6 +8667,7 @@
       </c>
       <c r="F338" s="7" t="n"/>
       <c r="G338" s="8" t="n"/>
+      <c r="S338" s="9" t="n"/>
     </row>
     <row r="339">
       <c r="A339" s="5" t="n">
@@ -8535,6 +8683,7 @@
       </c>
       <c r="F339" s="7" t="n"/>
       <c r="G339" s="8" t="n"/>
+      <c r="S339" s="9" t="n"/>
     </row>
     <row r="340">
       <c r="A340" s="5" t="n">
@@ -8550,7 +8699,7 @@
       </c>
       <c r="F340" s="7" t="n"/>
       <c r="G340" s="8" t="n"/>
-      <c r="S340" t="inlineStr">
+      <c r="S340" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8570,7 +8719,7 @@
       </c>
       <c r="F341" s="7" t="n"/>
       <c r="G341" s="8" t="n"/>
-      <c r="S341" t="inlineStr">
+      <c r="S341" s="9" t="inlineStr">
         <is>
           <t>FIXED THREE TIER</t>
         </is>
@@ -8592,6 +8741,7 @@
       </c>
       <c r="F342" s="7" t="n"/>
       <c r="G342" s="8" t="n"/>
+      <c r="S342" s="9" t="n"/>
     </row>
     <row r="343">
       <c r="A343" s="5" t="inlineStr">
@@ -8611,6 +8761,7 @@
       </c>
       <c r="F343" s="7" t="n"/>
       <c r="G343" s="8" t="n"/>
+      <c r="S343" s="9" t="n"/>
     </row>
     <row r="344">
       <c r="A344" s="3" t="inlineStr">
@@ -8662,6 +8813,7 @@
         <f>IF(E345&gt;1,(1.732*D345*F345)/1000,(D345*F345)/1000)</f>
         <v/>
       </c>
+      <c r="S345" s="9" t="n"/>
     </row>
     <row r="346">
       <c r="A346" s="5" t="n">
@@ -8677,7 +8829,7 @@
       </c>
       <c r="F346" s="7" t="n"/>
       <c r="G346" s="8" t="n"/>
-      <c r="S346" t="inlineStr">
+      <c r="S346" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8708,6 +8860,7 @@
         <f>IF(E347&gt;1,(1.732*D347*F347)/1000,(D347*F347)/1000)</f>
         <v/>
       </c>
+      <c r="S347" s="9" t="n"/>
     </row>
     <row r="348">
       <c r="A348" s="5" t="n">
@@ -8723,7 +8876,7 @@
       </c>
       <c r="F348" s="7" t="n"/>
       <c r="G348" s="8" t="n"/>
-      <c r="S348" t="inlineStr">
+      <c r="S348" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8745,6 +8898,7 @@
       </c>
       <c r="F349" s="7" t="n"/>
       <c r="G349" s="8" t="n"/>
+      <c r="S349" s="9" t="n"/>
     </row>
     <row r="350">
       <c r="A350" s="5" t="n">
@@ -8778,7 +8932,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S350" t="inlineStr">
+      <c r="S350" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -8798,7 +8952,7 @@
       </c>
       <c r="F351" s="7" t="n"/>
       <c r="G351" s="8" t="n"/>
-      <c r="S351" t="inlineStr">
+      <c r="S351" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -8836,7 +8990,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S352" t="inlineStr">
+      <c r="S352" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8858,6 +9012,7 @@
       </c>
       <c r="F353" s="7" t="n"/>
       <c r="G353" s="8" t="n"/>
+      <c r="S353" s="9" t="n"/>
     </row>
     <row r="354">
       <c r="A354" s="5" t="n">
@@ -8875,6 +9030,7 @@
       </c>
       <c r="F354" s="7" t="n"/>
       <c r="G354" s="8" t="n"/>
+      <c r="S354" s="9" t="n"/>
     </row>
     <row r="355">
       <c r="A355" s="5" t="n">
@@ -8890,7 +9046,7 @@
       </c>
       <c r="F355" s="7" t="n"/>
       <c r="G355" s="8" t="n"/>
-      <c r="S355" t="inlineStr">
+      <c r="S355" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -8928,7 +9084,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S356" t="inlineStr">
+      <c r="S356" s="9" t="inlineStr">
         <is>
           <t>WITH HOSE BIBB</t>
         </is>
@@ -8959,7 +9115,7 @@
         <f>IF(E357&gt;1,(1.732*D357*F357)/1000,(D357*F357)/1000)</f>
         <v/>
       </c>
-      <c r="S357" t="inlineStr">
+      <c r="S357" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -8979,7 +9135,7 @@
       </c>
       <c r="F358" s="7" t="n"/>
       <c r="G358" s="8" t="n"/>
-      <c r="S358" t="inlineStr">
+      <c r="S358" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9001,6 +9157,7 @@
       </c>
       <c r="F359" s="7" t="n"/>
       <c r="G359" s="8" t="n"/>
+      <c r="S359" s="9" t="n"/>
     </row>
     <row r="360">
       <c r="A360" s="5" t="n">
@@ -9016,6 +9173,7 @@
       </c>
       <c r="F360" s="7" t="n"/>
       <c r="G360" s="8" t="n"/>
+      <c r="S360" s="9" t="n"/>
     </row>
     <row r="361">
       <c r="A361" s="5" t="n">
@@ -9033,6 +9191,7 @@
       </c>
       <c r="F361" s="7" t="n"/>
       <c r="G361" s="8" t="n"/>
+      <c r="S361" s="9" t="n"/>
     </row>
     <row r="362">
       <c r="A362" s="5" t="n">
@@ -9050,6 +9209,7 @@
       </c>
       <c r="F362" s="7" t="n"/>
       <c r="G362" s="8" t="n"/>
+      <c r="S362" s="9" t="n"/>
     </row>
     <row r="363">
       <c r="A363" s="5" t="n">
@@ -9067,6 +9227,7 @@
       </c>
       <c r="F363" s="7" t="n"/>
       <c r="G363" s="8" t="n"/>
+      <c r="S363" s="9" t="n"/>
     </row>
     <row r="364">
       <c r="A364" s="5" t="inlineStr">
@@ -9086,6 +9247,7 @@
       </c>
       <c r="F364" s="7" t="n"/>
       <c r="G364" s="8" t="n"/>
+      <c r="S364" s="9" t="n"/>
     </row>
     <row r="365">
       <c r="A365" s="5" t="n">
@@ -9101,7 +9263,7 @@
       </c>
       <c r="F365" s="7" t="n"/>
       <c r="G365" s="8" t="n"/>
-      <c r="S365" t="inlineStr">
+      <c r="S365" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9121,7 +9283,7 @@
       </c>
       <c r="F366" s="7" t="n"/>
       <c r="G366" s="8" t="n"/>
-      <c r="S366" t="inlineStr">
+      <c r="S366" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9146,7 +9308,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S367" t="inlineStr">
+      <c r="S367" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #534</t>
         </is>
@@ -9190,7 +9352,7 @@
       <c r="P368" t="n">
         <v>5500</v>
       </c>
-      <c r="S368" t="inlineStr">
+      <c r="S368" s="9" t="inlineStr">
         <is>
           <t>1900LBS. AIR-COOLED CUBE ICE</t>
         </is>
@@ -9212,6 +9374,7 @@
       </c>
       <c r="F369" s="7" t="n"/>
       <c r="G369" s="8" t="n"/>
+      <c r="S369" s="9" t="n"/>
     </row>
     <row r="370">
       <c r="A370" s="5" t="n">
@@ -9232,7 +9395,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S370" t="inlineStr">
+      <c r="S370" s="9" t="inlineStr">
         <is>
           <t>1750LBS</t>
         </is>
@@ -9257,7 +9420,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S371" t="inlineStr">
+      <c r="S371" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9295,7 +9458,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S372" t="inlineStr">
+      <c r="S372" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -9317,6 +9480,7 @@
       </c>
       <c r="F373" s="7" t="n"/>
       <c r="G373" s="8" t="n"/>
+      <c r="S373" s="9" t="n"/>
     </row>
     <row r="374">
       <c r="A374" s="5" t="n">
@@ -9334,6 +9498,7 @@
       </c>
       <c r="F374" s="7" t="n"/>
       <c r="G374" s="8" t="n"/>
+      <c r="S374" s="9" t="n"/>
     </row>
     <row r="375">
       <c r="A375" s="5" t="n">
@@ -9349,7 +9514,7 @@
       </c>
       <c r="F375" s="7" t="n"/>
       <c r="G375" s="8" t="n"/>
-      <c r="S375" t="inlineStr">
+      <c r="S375" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -9369,7 +9534,7 @@
       </c>
       <c r="F376" s="7" t="n"/>
       <c r="G376" s="8" t="n"/>
-      <c r="S376" t="inlineStr">
+      <c r="S376" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9405,7 +9570,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S377" t="inlineStr">
+      <c r="S377" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -9430,6 +9595,7 @@
           <t>1/2"</t>
         </is>
       </c>
+      <c r="S378" s="9" t="n"/>
     </row>
     <row r="379">
       <c r="A379" s="5" t="n">
@@ -9447,6 +9613,7 @@
       </c>
       <c r="F379" s="7" t="n"/>
       <c r="G379" s="8" t="n"/>
+      <c r="S379" s="9" t="n"/>
     </row>
     <row r="380">
       <c r="A380" s="5" t="n">
@@ -9478,6 +9645,7 @@
           <t>3/8"</t>
         </is>
       </c>
+      <c r="S380" s="9" t="n"/>
     </row>
     <row r="381">
       <c r="A381" s="5" t="n">
@@ -9498,7 +9666,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S381" t="inlineStr">
+      <c r="S381" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #546 #548 #551</t>
         </is>
@@ -9534,6 +9702,7 @@
           <t>3/8"</t>
         </is>
       </c>
+      <c r="S382" s="9" t="n"/>
     </row>
     <row r="383">
       <c r="A383" s="5" t="n">
@@ -9551,6 +9720,7 @@
       </c>
       <c r="F383" s="7" t="n"/>
       <c r="G383" s="8" t="n"/>
+      <c r="S383" s="9" t="n"/>
     </row>
     <row r="384">
       <c r="A384" s="5" t="n">
@@ -9568,6 +9738,7 @@
       </c>
       <c r="F384" s="7" t="n"/>
       <c r="G384" s="8" t="n"/>
+      <c r="S384" s="9" t="n"/>
     </row>
     <row r="385">
       <c r="A385" s="5" t="n">
@@ -9599,7 +9770,7 @@
           <t>1/4"</t>
         </is>
       </c>
-      <c r="S385" t="inlineStr">
+      <c r="S385" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -9630,7 +9801,7 @@
         <f>IF(E386&gt;1,(1.732*D386*F386)/1000,(D386*F386)/1000)</f>
         <v/>
       </c>
-      <c r="S386" t="inlineStr">
+      <c r="S386" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9650,7 +9821,7 @@
       </c>
       <c r="F387" s="7" t="n"/>
       <c r="G387" s="8" t="n"/>
-      <c r="S387" t="inlineStr">
+      <c r="S387" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -9672,6 +9843,7 @@
       </c>
       <c r="F388" s="7" t="n"/>
       <c r="G388" s="8" t="n"/>
+      <c r="S388" s="9" t="n"/>
     </row>
     <row r="389">
       <c r="A389" s="5" t="inlineStr">
@@ -9691,6 +9863,7 @@
       </c>
       <c r="F389" s="7" t="n"/>
       <c r="G389" s="8" t="n"/>
+      <c r="S389" s="9" t="n"/>
     </row>
     <row r="390">
       <c r="A390" s="3" t="inlineStr">
@@ -9731,7 +9904,7 @@
       </c>
       <c r="F391" s="7" t="n"/>
       <c r="G391" s="8" t="n"/>
-      <c r="S391" t="inlineStr">
+      <c r="S391" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER WITH DRINK RAIL GRANITE TOP</t>
         </is>
@@ -9751,7 +9924,7 @@
       </c>
       <c r="F392" s="7" t="n"/>
       <c r="G392" s="8" t="n"/>
-      <c r="S392" t="inlineStr">
+      <c r="S392" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER PART OF ITEM #601</t>
         </is>
@@ -9771,7 +9944,7 @@
       </c>
       <c r="F393" s="7" t="n"/>
       <c r="G393" s="8" t="n"/>
-      <c r="S393" t="inlineStr">
+      <c r="S393" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -9791,7 +9964,7 @@
       </c>
       <c r="F394" s="7" t="n"/>
       <c r="G394" s="8" t="n"/>
-      <c r="S394" t="inlineStr">
+      <c r="S394" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -9813,6 +9986,7 @@
       </c>
       <c r="F395" s="7" t="n"/>
       <c r="G395" s="8" t="n"/>
+      <c r="S395" s="9" t="n"/>
     </row>
     <row r="396">
       <c r="A396" s="5" t="n">
@@ -9828,7 +10002,7 @@
       </c>
       <c r="F396" s="7" t="n"/>
       <c r="G396" s="8" t="n"/>
-      <c r="S396" t="inlineStr">
+      <c r="S396" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -9866,6 +10040,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S397" s="9" t="n"/>
     </row>
     <row r="398">
       <c r="A398" s="5" t="n">
@@ -9886,6 +10061,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S398" s="9" t="n"/>
     </row>
     <row r="399">
       <c r="A399" s="5" t="n">
@@ -9903,6 +10079,7 @@
       </c>
       <c r="F399" s="7" t="n"/>
       <c r="G399" s="8" t="n"/>
+      <c r="S399" s="9" t="n"/>
     </row>
     <row r="400">
       <c r="A400" s="5" t="n">
@@ -9920,6 +10097,7 @@
       </c>
       <c r="F400" s="7" t="n"/>
       <c r="G400" s="8" t="n"/>
+      <c r="S400" s="9" t="n"/>
     </row>
     <row r="401">
       <c r="A401" s="5" t="n">
@@ -9935,6 +10113,7 @@
       </c>
       <c r="F401" s="7" t="n"/>
       <c r="G401" s="8" t="n"/>
+      <c r="S401" s="9" t="n"/>
     </row>
     <row r="402">
       <c r="A402" s="5" t="n">
@@ -9950,7 +10129,7 @@
       </c>
       <c r="F402" s="7" t="n"/>
       <c r="G402" s="8" t="n"/>
-      <c r="S402" t="inlineStr">
+      <c r="S402" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -9970,6 +10149,7 @@
       </c>
       <c r="F403" s="7" t="n"/>
       <c r="G403" s="8" t="n"/>
+      <c r="S403" s="9" t="n"/>
     </row>
     <row r="404">
       <c r="A404" s="5" t="n">
@@ -9985,7 +10165,7 @@
       </c>
       <c r="F404" s="7" t="n"/>
       <c r="G404" s="8" t="n"/>
-      <c r="S404" t="inlineStr">
+      <c r="S404" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #613</t>
         </is>
@@ -10015,7 +10195,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S405" t="inlineStr">
+      <c r="S405" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -10035,7 +10215,7 @@
       </c>
       <c r="F406" s="7" t="n"/>
       <c r="G406" s="8" t="n"/>
-      <c r="S406" t="inlineStr">
+      <c r="S406" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10066,7 +10246,7 @@
         <f>IF(E407&gt;1,(1.732*D407*F407)/1000,(D407*F407)/1000)</f>
         <v/>
       </c>
-      <c r="S407" t="inlineStr">
+      <c r="S407" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10086,7 +10266,7 @@
       </c>
       <c r="F408" s="7" t="n"/>
       <c r="G408" s="8" t="n"/>
-      <c r="S408" t="inlineStr">
+      <c r="S408" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10108,6 +10288,7 @@
       </c>
       <c r="F409" s="7" t="n"/>
       <c r="G409" s="8" t="n"/>
+      <c r="S409" s="9" t="n"/>
     </row>
     <row r="410">
       <c r="A410" s="5" t="n">
@@ -10125,6 +10306,7 @@
       </c>
       <c r="F410" s="7" t="n"/>
       <c r="G410" s="8" t="n"/>
+      <c r="S410" s="9" t="n"/>
     </row>
     <row r="411">
       <c r="A411" s="5" t="n">
@@ -10140,7 +10322,7 @@
       </c>
       <c r="F411" s="7" t="n"/>
       <c r="G411" s="8" t="n"/>
-      <c r="S411" t="inlineStr">
+      <c r="S411" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10165,6 +10347,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S412" s="9" t="n"/>
     </row>
     <row r="413">
       <c r="A413" s="5" t="n">
@@ -10180,7 +10363,7 @@
       </c>
       <c r="F413" s="7" t="n"/>
       <c r="G413" s="8" t="n"/>
-      <c r="S413" t="inlineStr">
+      <c r="S413" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10224,7 +10407,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S414" t="inlineStr">
+      <c r="S414" s="9" t="inlineStr">
         <is>
           <t>180° RINSE</t>
         </is>
@@ -10246,6 +10429,7 @@
       </c>
       <c r="F415" s="7" t="n"/>
       <c r="G415" s="8" t="n"/>
+      <c r="S415" s="9" t="n"/>
     </row>
     <row r="416">
       <c r="A416" s="5" t="n">
@@ -10261,7 +10445,7 @@
       </c>
       <c r="F416" s="7" t="n"/>
       <c r="G416" s="8" t="n"/>
-      <c r="S416" t="inlineStr">
+      <c r="S416" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10286,6 +10470,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S417" s="9" t="n"/>
     </row>
     <row r="418">
       <c r="A418" s="5" t="n">
@@ -10301,7 +10486,7 @@
       </c>
       <c r="F418" s="7" t="n"/>
       <c r="G418" s="8" t="n"/>
-      <c r="S418" t="inlineStr">
+      <c r="S418" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -10323,6 +10508,7 @@
       </c>
       <c r="F419" s="7" t="n"/>
       <c r="G419" s="8" t="n"/>
+      <c r="S419" s="9" t="n"/>
     </row>
     <row r="420">
       <c r="A420" s="5" t="n">
@@ -10340,6 +10526,7 @@
       </c>
       <c r="F420" s="7" t="n"/>
       <c r="G420" s="8" t="n"/>
+      <c r="S420" s="9" t="n"/>
     </row>
     <row r="421">
       <c r="A421" s="5" t="n">
@@ -10355,7 +10542,7 @@
       </c>
       <c r="F421" s="7" t="n"/>
       <c r="G421" s="8" t="n"/>
-      <c r="S421" t="inlineStr">
+      <c r="S421" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10393,7 +10580,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S422" t="inlineStr">
+      <c r="S422" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -10413,7 +10600,7 @@
       </c>
       <c r="F423" s="7" t="n"/>
       <c r="G423" s="8" t="n"/>
-      <c r="S423" t="inlineStr">
+      <c r="S423" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10438,6 +10625,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S424" s="9" t="n"/>
     </row>
     <row r="425">
       <c r="A425" s="5" t="n">
@@ -10455,6 +10643,7 @@
       </c>
       <c r="F425" s="7" t="n"/>
       <c r="G425" s="8" t="n"/>
+      <c r="S425" s="9" t="n"/>
     </row>
     <row r="426">
       <c r="A426" s="5" t="n">
@@ -10470,7 +10659,7 @@
       </c>
       <c r="F426" s="7" t="n"/>
       <c r="G426" s="8" t="n"/>
-      <c r="S426" t="inlineStr">
+      <c r="S426" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10490,7 +10679,7 @@
       </c>
       <c r="F427" s="7" t="n"/>
       <c r="G427" s="8" t="n"/>
-      <c r="S427" t="inlineStr">
+      <c r="S427" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -10510,7 +10699,7 @@
       </c>
       <c r="F428" s="7" t="n"/>
       <c r="G428" s="8" t="n"/>
-      <c r="S428" t="inlineStr">
+      <c r="S428" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10532,6 +10721,7 @@
       </c>
       <c r="F429" s="7" t="n"/>
       <c r="G429" s="8" t="n"/>
+      <c r="S429" s="9" t="n"/>
     </row>
     <row r="430">
       <c r="A430" s="5" t="n">
@@ -10549,6 +10739,7 @@
       </c>
       <c r="F430" s="7" t="n"/>
       <c r="G430" s="8" t="n"/>
+      <c r="S430" s="9" t="n"/>
     </row>
     <row r="431">
       <c r="A431" s="5" t="n">
@@ -10582,6 +10773,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S431" s="9" t="n"/>
     </row>
     <row r="432">
       <c r="A432" s="5" t="n">
@@ -10602,6 +10794,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S432" s="9" t="n"/>
     </row>
     <row r="433">
       <c r="A433" s="5" t="n">
@@ -10617,6 +10810,7 @@
       </c>
       <c r="F433" s="7" t="n"/>
       <c r="G433" s="8" t="n"/>
+      <c r="S433" s="9" t="n"/>
     </row>
     <row r="434">
       <c r="A434" s="5" t="n">
@@ -10632,7 +10826,7 @@
       </c>
       <c r="F434" s="7" t="n"/>
       <c r="G434" s="8" t="n"/>
-      <c r="S434" t="inlineStr">
+      <c r="S434" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10662,7 +10856,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S435" t="inlineStr">
+      <c r="S435" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -10682,6 +10876,7 @@
       </c>
       <c r="F436" s="7" t="n"/>
       <c r="G436" s="8" t="n"/>
+      <c r="S436" s="9" t="n"/>
     </row>
     <row r="437">
       <c r="A437" s="5" t="n">
@@ -10697,7 +10892,7 @@
       </c>
       <c r="F437" s="7" t="n"/>
       <c r="G437" s="8" t="n"/>
-      <c r="S437" t="inlineStr">
+      <c r="S437" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #646</t>
         </is>
@@ -10717,7 +10912,7 @@
       </c>
       <c r="F438" s="7" t="n"/>
       <c r="G438" s="8" t="n"/>
-      <c r="S438" t="inlineStr">
+      <c r="S438" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10739,6 +10934,7 @@
       </c>
       <c r="F439" s="7" t="n"/>
       <c r="G439" s="8" t="n"/>
+      <c r="S439" s="9" t="n"/>
     </row>
     <row r="440">
       <c r="A440" s="5" t="n">
@@ -10756,6 +10952,7 @@
       </c>
       <c r="F440" s="7" t="n"/>
       <c r="G440" s="8" t="n"/>
+      <c r="S440" s="9" t="n"/>
     </row>
     <row r="441">
       <c r="A441" s="5" t="n">
@@ -10782,7 +10979,7 @@
         <f>IF(E441&gt;1,(1.732*D441*F441)/1000,(D441*F441)/1000)</f>
         <v/>
       </c>
-      <c r="S441" t="inlineStr">
+      <c r="S441" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -10802,7 +10999,7 @@
       </c>
       <c r="F442" s="7" t="n"/>
       <c r="G442" s="8" t="n"/>
-      <c r="S442" t="inlineStr">
+      <c r="S442" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10822,7 +11019,7 @@
       </c>
       <c r="F443" s="7" t="n"/>
       <c r="G443" s="8" t="n"/>
-      <c r="S443" t="inlineStr">
+      <c r="S443" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10847,6 +11044,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S444" s="9" t="n"/>
     </row>
     <row r="445">
       <c r="A445" s="5" t="n">
@@ -10872,7 +11070,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S445" t="inlineStr">
+      <c r="S445" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -10892,7 +11090,7 @@
       </c>
       <c r="F446" s="7" t="n"/>
       <c r="G446" s="8" t="n"/>
-      <c r="S446" t="inlineStr">
+      <c r="S446" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10912,7 +11110,7 @@
       </c>
       <c r="F447" s="7" t="n"/>
       <c r="G447" s="8" t="n"/>
-      <c r="S447" t="inlineStr">
+      <c r="S447" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -10932,7 +11130,7 @@
       </c>
       <c r="F448" s="7" t="n"/>
       <c r="G448" s="8" t="n"/>
-      <c r="S448" t="inlineStr">
+      <c r="S448" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -10954,6 +11152,7 @@
       </c>
       <c r="F449" s="7" t="n"/>
       <c r="G449" s="8" t="n"/>
+      <c r="S449" s="9" t="n"/>
     </row>
     <row r="450">
       <c r="A450" s="5" t="n">
@@ -10971,6 +11170,7 @@
       </c>
       <c r="F450" s="7" t="n"/>
       <c r="G450" s="8" t="n"/>
+      <c r="S450" s="9" t="n"/>
     </row>
     <row r="451">
       <c r="A451" s="5" t="n">
@@ -11004,6 +11204,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S451" s="9" t="n"/>
     </row>
     <row r="452">
       <c r="A452" s="5" t="n">
@@ -11024,6 +11225,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S452" s="9" t="n"/>
     </row>
     <row r="453">
       <c r="A453" s="5" t="n">
@@ -11039,6 +11241,7 @@
       </c>
       <c r="F453" s="7" t="n"/>
       <c r="G453" s="8" t="n"/>
+      <c r="S453" s="9" t="n"/>
     </row>
     <row r="454">
       <c r="A454" s="5" t="n">
@@ -11054,7 +11257,7 @@
       </c>
       <c r="F454" s="7" t="n"/>
       <c r="G454" s="8" t="n"/>
-      <c r="S454" t="inlineStr">
+      <c r="S454" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -11076,6 +11279,7 @@
       </c>
       <c r="F455" s="7" t="n"/>
       <c r="G455" s="8" t="n"/>
+      <c r="S455" s="9" t="n"/>
     </row>
     <row r="456">
       <c r="A456" s="5" t="n">
@@ -11091,6 +11295,7 @@
       </c>
       <c r="F456" s="7" t="n"/>
       <c r="G456" s="8" t="n"/>
+      <c r="S456" s="9" t="n"/>
     </row>
     <row r="457">
       <c r="A457" s="5" t="n">
@@ -11106,7 +11311,7 @@
       </c>
       <c r="F457" s="7" t="n"/>
       <c r="G457" s="8" t="n"/>
-      <c r="S457" t="inlineStr">
+      <c r="S457" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #666</t>
         </is>
@@ -11126,7 +11331,7 @@
       </c>
       <c r="F458" s="7" t="n"/>
       <c r="G458" s="8" t="n"/>
-      <c r="S458" t="inlineStr">
+      <c r="S458" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -11148,6 +11353,7 @@
       </c>
       <c r="F459" s="7" t="n"/>
       <c r="G459" s="8" t="n"/>
+      <c r="S459" s="9" t="n"/>
     </row>
     <row r="460">
       <c r="A460" s="5" t="n">
@@ -11165,6 +11371,7 @@
       </c>
       <c r="F460" s="7" t="n"/>
       <c r="G460" s="8" t="n"/>
+      <c r="S460" s="9" t="n"/>
     </row>
     <row r="461">
       <c r="A461" s="5" t="n">
@@ -11191,7 +11398,7 @@
         <f>IF(E461&gt;1,(1.732*D461*F461)/1000,(D461*F461)/1000)</f>
         <v/>
       </c>
-      <c r="S461" t="inlineStr">
+      <c r="S461" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -11211,7 +11418,7 @@
       </c>
       <c r="F462" s="7" t="n"/>
       <c r="G462" s="8" t="n"/>
-      <c r="S462" t="inlineStr">
+      <c r="S462" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -11231,7 +11438,7 @@
       </c>
       <c r="F463" s="7" t="n"/>
       <c r="G463" s="8" t="n"/>
-      <c r="S463" t="inlineStr">
+      <c r="S463" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -11262,7 +11469,7 @@
         <f>IF(E464&gt;1,(1.732*D464*F464)/1000,(D464*F464)/1000)</f>
         <v/>
       </c>
-      <c r="S464" t="inlineStr">
+      <c r="S464" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWER</t>
         </is>
@@ -11284,6 +11491,7 @@
       </c>
       <c r="F465" s="7" t="n"/>
       <c r="G465" s="8" t="n"/>
+      <c r="S465" s="9" t="n"/>
     </row>
     <row r="466">
       <c r="A466" s="5" t="n">
@@ -11299,6 +11507,7 @@
       </c>
       <c r="F466" s="7" t="n"/>
       <c r="G466" s="8" t="n"/>
+      <c r="S466" s="9" t="n"/>
     </row>
     <row r="467">
       <c r="A467" s="5" t="n">
@@ -11325,7 +11534,7 @@
         <f>IF(E467&gt;1,(1.732*D467*F467)/1000,(D467*F467)/1000)</f>
         <v/>
       </c>
-      <c r="S467" t="inlineStr">
+      <c r="S467" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER</t>
         </is>
@@ -11345,7 +11554,7 @@
       </c>
       <c r="F468" s="7" t="n"/>
       <c r="G468" s="8" t="n"/>
-      <c r="S468" t="inlineStr">
+      <c r="S468" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -11367,6 +11576,7 @@
       </c>
       <c r="F469" s="7" t="n"/>
       <c r="G469" s="8" t="n"/>
+      <c r="S469" s="9" t="n"/>
     </row>
     <row r="470">
       <c r="A470" s="5" t="n">
@@ -11384,6 +11594,7 @@
       </c>
       <c r="F470" s="7" t="n"/>
       <c r="G470" s="8" t="n"/>
+      <c r="S470" s="9" t="n"/>
     </row>
     <row r="471">
       <c r="A471" s="5" t="n">
@@ -11399,7 +11610,7 @@
       </c>
       <c r="F471" s="7" t="n"/>
       <c r="G471" s="8" t="n"/>
-      <c r="S471" t="inlineStr">
+      <c r="S471" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -11419,7 +11630,7 @@
       </c>
       <c r="F472" s="7" t="n"/>
       <c r="G472" s="8" t="n"/>
-      <c r="S472" t="inlineStr">
+      <c r="S472" s="9" t="inlineStr">
         <is>
           <t>4 TAP</t>
         </is>
@@ -11449,7 +11660,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S473" t="inlineStr">
+      <c r="S473" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -11471,6 +11682,7 @@
       </c>
       <c r="F474" s="7" t="n"/>
       <c r="G474" s="8" t="n"/>
+      <c r="S474" s="9" t="n"/>
     </row>
     <row r="475">
       <c r="A475" s="5" t="inlineStr">
@@ -11490,6 +11702,7 @@
       </c>
       <c r="F475" s="7" t="n"/>
       <c r="G475" s="8" t="n"/>
+      <c r="S475" s="9" t="n"/>
     </row>
     <row r="476">
       <c r="A476" s="3" t="inlineStr">
@@ -11554,7 +11767,7 @@
       <c r="J477" t="n">
         <v>30</v>
       </c>
-      <c r="S477" t="inlineStr">
+      <c r="S477" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -11574,7 +11787,7 @@
       </c>
       <c r="F478" s="7" t="n"/>
       <c r="G478" s="8" t="n"/>
-      <c r="S478" t="inlineStr">
+      <c r="S478" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -11605,7 +11818,7 @@
         <f>IF(E479&gt;1,(1.732*D479*F479)/1000,(D479*F479)/1000)</f>
         <v/>
       </c>
-      <c r="S479" t="inlineStr">
+      <c r="S479" s="9" t="inlineStr">
         <is>
           <t>VENTLESS</t>
         </is>
@@ -11636,7 +11849,7 @@
         <f>IF(E480&gt;1,(1.732*D480*F480)/1000,(D480*F480)/1000)</f>
         <v/>
       </c>
-      <c r="S480" t="inlineStr">
+      <c r="S480" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DOORS</t>
         </is>
@@ -11658,6 +11871,7 @@
       </c>
       <c r="F481" s="7" t="n"/>
       <c r="G481" s="8" t="n"/>
+      <c r="S481" s="9" t="n"/>
     </row>
     <row r="482">
       <c r="A482" s="5" t="n">
@@ -11684,7 +11898,7 @@
         <f>IF(E482&gt;1,(1.732*D482*F482)/1000,(D482*F482)/1000)</f>
         <v/>
       </c>
-      <c r="S482" t="inlineStr">
+      <c r="S482" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWERS</t>
         </is>
@@ -11715,6 +11929,7 @@
         <f>IF(E483&gt;1,(1.732*D483*F483)/1000,(D483*F483)/1000)</f>
         <v/>
       </c>
+      <c r="S483" s="9" t="n"/>
     </row>
     <row r="484">
       <c r="A484" s="5" t="n">
@@ -11741,7 +11956,7 @@
         <f>IF(E484&gt;1,(1.732*D484*F484)/1000,(D484*F484)/1000)</f>
         <v/>
       </c>
-      <c r="S484" t="inlineStr">
+      <c r="S484" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DOOR</t>
         </is>
@@ -11763,6 +11978,7 @@
       </c>
       <c r="F485" s="7" t="n"/>
       <c r="G485" s="8" t="n"/>
+      <c r="S485" s="9" t="n"/>
     </row>
     <row r="486">
       <c r="A486" s="5" t="n">
@@ -11780,6 +11996,7 @@
       </c>
       <c r="F486" s="7" t="n"/>
       <c r="G486" s="8" t="n"/>
+      <c r="S486" s="9" t="n"/>
     </row>
     <row r="487">
       <c r="A487" s="5" t="n">
@@ -11795,7 +12012,7 @@
       </c>
       <c r="F487" s="7" t="n"/>
       <c r="G487" s="8" t="n"/>
-      <c r="S487" t="inlineStr">
+      <c r="S487" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
         </is>
@@ -11815,7 +12032,7 @@
       </c>
       <c r="F488" s="7" t="n"/>
       <c r="G488" s="8" t="n"/>
-      <c r="S488" t="inlineStr">
+      <c r="S488" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -11853,7 +12070,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S489" t="inlineStr">
+      <c r="S489" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -11889,6 +12106,7 @@
           <t>3/8"</t>
         </is>
       </c>
+      <c r="S490" s="9" t="n"/>
     </row>
     <row r="491">
       <c r="A491" s="5" t="n">
@@ -11909,7 +12127,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S491" t="inlineStr">
+      <c r="S491" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #714 #722 #734</t>
         </is>
@@ -11940,6 +12158,7 @@
         <f>IF(E492&gt;1,(1.732*D492*F492)/1000,(D492*F492)/1000)</f>
         <v/>
       </c>
+      <c r="S492" s="9" t="n"/>
     </row>
     <row r="493">
       <c r="A493" s="5" t="n">
@@ -11955,7 +12174,7 @@
       </c>
       <c r="F493" s="7" t="n"/>
       <c r="G493" s="8" t="n"/>
-      <c r="S493" t="inlineStr">
+      <c r="S493" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
         </is>
@@ -11975,7 +12194,7 @@
       </c>
       <c r="F494" s="7" t="n"/>
       <c r="G494" s="8" t="n"/>
-      <c r="S494" t="inlineStr">
+      <c r="S494" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -11997,6 +12216,7 @@
       </c>
       <c r="F495" s="7" t="n"/>
       <c r="G495" s="8" t="n"/>
+      <c r="S495" s="9" t="n"/>
     </row>
     <row r="496">
       <c r="A496" s="5" t="n">
@@ -12014,6 +12234,7 @@
       </c>
       <c r="F496" s="7" t="n"/>
       <c r="G496" s="8" t="n"/>
+      <c r="S496" s="9" t="n"/>
     </row>
     <row r="497">
       <c r="A497" s="5" t="n">
@@ -12045,6 +12266,7 @@
           <t>3/8"</t>
         </is>
       </c>
+      <c r="S497" s="9" t="n"/>
     </row>
     <row r="498">
       <c r="A498" s="5" t="n">
@@ -12076,6 +12298,7 @@
           <t>3/8"</t>
         </is>
       </c>
+      <c r="S498" s="9" t="n"/>
     </row>
     <row r="499">
       <c r="A499" s="5" t="n">
@@ -12102,7 +12325,7 @@
         <f>IF(E499&gt;1,(1.732*D499*F499)/1000,(D499*F499)/1000)</f>
         <v/>
       </c>
-      <c r="S499" t="inlineStr">
+      <c r="S499" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DOOR</t>
         </is>
@@ -12127,7 +12350,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S500" t="inlineStr">
+      <c r="S500" s="9" t="inlineStr">
         <is>
           <t>45 LBS.</t>
         </is>
@@ -12149,6 +12372,7 @@
       </c>
       <c r="F501" s="7" t="n"/>
       <c r="G501" s="8" t="n"/>
+      <c r="S501" s="9" t="n"/>
     </row>
     <row r="502">
       <c r="A502" s="5" t="n">
@@ -12175,7 +12399,7 @@
         <f>IF(E502&gt;1,(1.732*D502*F502)/1000,(D502*F502)/1000)</f>
         <v/>
       </c>
-      <c r="S502" t="inlineStr">
+      <c r="S502" s="9" t="inlineStr">
         <is>
           <t>WITH DOME</t>
         </is>
@@ -12195,7 +12419,7 @@
       </c>
       <c r="F503" s="7" t="n"/>
       <c r="G503" s="8" t="n"/>
-      <c r="S503" t="inlineStr">
+      <c r="S503" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -12215,7 +12439,7 @@
       </c>
       <c r="F504" s="7" t="n"/>
       <c r="G504" s="8" t="n"/>
-      <c r="S504" t="inlineStr">
+      <c r="S504" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
         </is>
@@ -12237,6 +12461,7 @@
       </c>
       <c r="F505" s="7" t="n"/>
       <c r="G505" s="8" t="n"/>
+      <c r="S505" s="9" t="n"/>
     </row>
     <row r="506">
       <c r="A506" s="5" t="n">
@@ -12254,6 +12479,7 @@
       </c>
       <c r="F506" s="7" t="n"/>
       <c r="G506" s="8" t="n"/>
+      <c r="S506" s="9" t="n"/>
     </row>
     <row r="507">
       <c r="A507" s="5" t="n">
@@ -12269,7 +12495,7 @@
       </c>
       <c r="F507" s="7" t="n"/>
       <c r="G507" s="8" t="n"/>
-      <c r="S507" t="inlineStr">
+      <c r="S507" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -12289,7 +12515,7 @@
       </c>
       <c r="F508" s="7" t="n"/>
       <c r="G508" s="8" t="n"/>
-      <c r="S508" t="inlineStr">
+      <c r="S508" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -12311,6 +12537,7 @@
       </c>
       <c r="F509" s="7" t="n"/>
       <c r="G509" s="8" t="n"/>
+      <c r="S509" s="9" t="n"/>
     </row>
     <row r="510">
       <c r="A510" s="5" t="n">
@@ -12347,7 +12574,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S510" t="inlineStr">
+      <c r="S510" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -12369,6 +12596,7 @@
       </c>
       <c r="F511" s="7" t="n"/>
       <c r="G511" s="8" t="n"/>
+      <c r="S511" s="9" t="n"/>
     </row>
     <row r="512">
       <c r="A512" s="5" t="n">
@@ -12395,7 +12623,7 @@
         <f>IF(E512&gt;1,(1.732*D512*F512)/1000,(D512*F512)/1000)</f>
         <v/>
       </c>
-      <c r="S512" t="inlineStr">
+      <c r="S512" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DOOR</t>
         </is>
@@ -12426,6 +12654,7 @@
         <f>IF(E513&gt;1,(1.732*D513*F513)/1000,(D513*F513)/1000)</f>
         <v/>
       </c>
+      <c r="S513" s="9" t="n"/>
     </row>
     <row r="514">
       <c r="A514" s="5" t="n">
@@ -12441,7 +12670,7 @@
       </c>
       <c r="F514" s="7" t="n"/>
       <c r="G514" s="8" t="n"/>
-      <c r="S514" t="inlineStr">
+      <c r="S514" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #701</t>
         </is>
@@ -12463,6 +12692,7 @@
       </c>
       <c r="F515" s="7" t="n"/>
       <c r="G515" s="8" t="n"/>
+      <c r="S515" s="9" t="n"/>
     </row>
     <row r="516">
       <c r="A516" s="5" t="n">
@@ -12480,6 +12710,7 @@
       </c>
       <c r="F516" s="7" t="n"/>
       <c r="G516" s="8" t="n"/>
+      <c r="S516" s="9" t="n"/>
     </row>
     <row r="517">
       <c r="A517" s="5" t="n">
@@ -12495,7 +12726,7 @@
       </c>
       <c r="F517" s="7" t="n"/>
       <c r="G517" s="8" t="n"/>
-      <c r="S517" t="inlineStr">
+      <c r="S517" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -12526,7 +12757,7 @@
         <f>IF(E518&gt;1,(1.732*D518*F518)/1000,(D518*F518)/1000)</f>
         <v/>
       </c>
-      <c r="S518" t="inlineStr">
+      <c r="S518" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -12546,7 +12777,7 @@
       </c>
       <c r="F519" s="7" t="n"/>
       <c r="G519" s="8" t="n"/>
-      <c r="S519" t="inlineStr">
+      <c r="S519" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -12577,7 +12808,7 @@
         <f>IF(E520&gt;1,(1.732*D520*F520)/1000,(D520*F520)/1000)</f>
         <v/>
       </c>
-      <c r="S520" t="inlineStr">
+      <c r="S520" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -12599,6 +12830,7 @@
       </c>
       <c r="F521" s="7" t="n"/>
       <c r="G521" s="8" t="n"/>
+      <c r="S521" s="9" t="n"/>
     </row>
     <row r="522">
       <c r="A522" s="5" t="n">
@@ -12614,7 +12846,7 @@
       </c>
       <c r="F522" s="7" t="n"/>
       <c r="G522" s="8" t="n"/>
-      <c r="S522" t="inlineStr">
+      <c r="S522" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -12645,6 +12877,7 @@
         <f>IF(E523&gt;1,(1.732*D523*F523)/1000,(D523*F523)/1000)</f>
         <v/>
       </c>
+      <c r="S523" s="9" t="n"/>
     </row>
     <row r="524">
       <c r="A524" s="5" t="n">
@@ -12662,6 +12895,7 @@
       </c>
       <c r="F524" s="7" t="n"/>
       <c r="G524" s="8" t="n"/>
+      <c r="S524" s="9" t="n"/>
     </row>
     <row r="525">
       <c r="A525" s="5" t="n">
@@ -12679,6 +12913,7 @@
       </c>
       <c r="F525" s="7" t="n"/>
       <c r="G525" s="8" t="n"/>
+      <c r="S525" s="9" t="n"/>
     </row>
     <row r="526">
       <c r="A526" s="5" t="n">
@@ -12696,6 +12931,7 @@
       </c>
       <c r="F526" s="7" t="n"/>
       <c r="G526" s="8" t="n"/>
+      <c r="S526" s="9" t="n"/>
     </row>
     <row r="527">
       <c r="A527" s="5" t="n">
@@ -12711,7 +12947,7 @@
       </c>
       <c r="F527" s="7" t="n"/>
       <c r="G527" s="8" t="n"/>
-      <c r="S527" t="inlineStr">
+      <c r="S527" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS.</t>
         </is>
@@ -12733,6 +12969,7 @@
       </c>
       <c r="F528" s="7" t="n"/>
       <c r="G528" s="8" t="n"/>
+      <c r="S528" s="9" t="n"/>
     </row>
     <row r="529">
       <c r="A529" s="5" t="n">
@@ -12750,6 +12987,7 @@
       </c>
       <c r="F529" s="7" t="n"/>
       <c r="G529" s="8" t="n"/>
+      <c r="S529" s="9" t="n"/>
     </row>
     <row r="530">
       <c r="A530" s="5" t="n">
@@ -12767,6 +13005,7 @@
       </c>
       <c r="F530" s="7" t="n"/>
       <c r="G530" s="8" t="n"/>
+      <c r="S530" s="9" t="n"/>
     </row>
     <row r="531">
       <c r="A531" s="5" t="inlineStr">
@@ -12786,6 +13025,7 @@
       </c>
       <c r="F531" s="7" t="n"/>
       <c r="G531" s="8" t="n"/>
+      <c r="S531" s="9" t="n"/>
     </row>
     <row r="532">
       <c r="A532" s="3" t="inlineStr">
@@ -12842,7 +13082,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S533" t="inlineStr">
+      <c r="S533" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -12862,7 +13102,7 @@
       </c>
       <c r="F534" s="7" t="n"/>
       <c r="G534" s="8" t="n"/>
-      <c r="S534" t="inlineStr">
+      <c r="S534" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -12882,7 +13122,7 @@
       </c>
       <c r="F535" s="7" t="n"/>
       <c r="G535" s="8" t="n"/>
-      <c r="S535" t="inlineStr">
+      <c r="S535" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -12902,7 +13142,7 @@
       </c>
       <c r="F536" s="7" t="n"/>
       <c r="G536" s="8" t="n"/>
-      <c r="S536" t="inlineStr">
+      <c r="S536" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -12924,6 +13164,7 @@
       </c>
       <c r="F537" s="7" t="n"/>
       <c r="G537" s="8" t="n"/>
+      <c r="S537" s="9" t="n"/>
     </row>
     <row r="538">
       <c r="A538" s="5" t="n">
@@ -12960,7 +13201,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S538" t="inlineStr">
+      <c r="S538" s="9" t="inlineStr">
         <is>
           <t>WATER-COOLED</t>
         </is>
@@ -12980,7 +13221,7 @@
       </c>
       <c r="F539" s="7" t="n"/>
       <c r="G539" s="8" t="n"/>
-      <c r="S539" t="inlineStr">
+      <c r="S539" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -13005,7 +13246,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S540" t="inlineStr">
+      <c r="S540" s="9" t="inlineStr">
         <is>
           <t>2576LBS.</t>
         </is>
@@ -13027,6 +13268,7 @@
       </c>
       <c r="F541" s="7" t="n"/>
       <c r="G541" s="8" t="n"/>
+      <c r="S541" s="9" t="n"/>
     </row>
     <row r="542">
       <c r="A542" s="5" t="n">
@@ -13044,6 +13286,7 @@
       </c>
       <c r="F542" s="7" t="n"/>
       <c r="G542" s="8" t="n"/>
+      <c r="S542" s="9" t="n"/>
     </row>
     <row r="543">
       <c r="A543" s="5" t="n">
@@ -13064,7 +13307,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S543" t="inlineStr">
+      <c r="S543" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #812</t>
         </is>
@@ -13118,7 +13361,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S544" t="inlineStr">
+      <c r="S544" s="9" t="inlineStr">
         <is>
           <t>1444LBS. WATER-COOLED CUBE ICE</t>
         </is>
@@ -13172,7 +13415,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S545" t="inlineStr">
+      <c r="S545" s="9" t="inlineStr">
         <is>
           <t>500LBS. WATER-COOLED FLAKE ICE</t>
         </is>
@@ -13197,7 +13440,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S546" t="inlineStr">
+      <c r="S546" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #813</t>
         </is>
@@ -13217,7 +13460,7 @@
       </c>
       <c r="F547" s="7" t="n"/>
       <c r="G547" s="8" t="n"/>
-      <c r="S547" t="inlineStr">
+      <c r="S547" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS.</t>
         </is>
@@ -13242,7 +13485,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S548" t="inlineStr">
+      <c r="S548" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13264,6 +13507,7 @@
       </c>
       <c r="F549" s="7" t="n"/>
       <c r="G549" s="8" t="n"/>
+      <c r="S549" s="9" t="n"/>
     </row>
     <row r="550">
       <c r="A550" s="5" t="n">
@@ -13281,6 +13525,7 @@
       </c>
       <c r="F550" s="7" t="n"/>
       <c r="G550" s="8" t="n"/>
+      <c r="S550" s="9" t="n"/>
     </row>
     <row r="551">
       <c r="A551" s="5" t="n">
@@ -13298,6 +13543,7 @@
       </c>
       <c r="F551" s="7" t="n"/>
       <c r="G551" s="8" t="n"/>
+      <c r="S551" s="9" t="n"/>
     </row>
     <row r="552">
       <c r="A552" s="5" t="n">
@@ -13324,6 +13570,7 @@
         <f>IF(E552&gt;1,(1.732*D552*F552)/1000,(D552*F552)/1000)</f>
         <v/>
       </c>
+      <c r="S552" s="9" t="n"/>
     </row>
     <row r="553">
       <c r="A553" s="5" t="n">
@@ -13344,7 +13591,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S553" t="inlineStr">
+      <c r="S553" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13385,7 +13632,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S554" t="inlineStr">
+      <c r="S554" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED ON EMERGENCY POWER</t>
         </is>
@@ -13421,7 +13668,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S555" t="inlineStr">
+      <c r="S555" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -13443,6 +13690,7 @@
       </c>
       <c r="F556" s="7" t="n"/>
       <c r="G556" s="8" t="n"/>
+      <c r="S556" s="9" t="n"/>
     </row>
     <row r="557">
       <c r="A557" s="5" t="n">
@@ -13458,7 +13706,7 @@
       </c>
       <c r="F557" s="7" t="n"/>
       <c r="G557" s="8" t="n"/>
-      <c r="S557" t="inlineStr">
+      <c r="S557" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -13478,6 +13726,7 @@
       </c>
       <c r="F558" s="7" t="n"/>
       <c r="G558" s="8" t="n"/>
+      <c r="S558" s="9" t="n"/>
     </row>
     <row r="559">
       <c r="A559" s="5" t="n">
@@ -13493,7 +13742,7 @@
       </c>
       <c r="F559" s="7" t="n"/>
       <c r="G559" s="8" t="n"/>
-      <c r="S559" t="inlineStr">
+      <c r="S559" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13515,6 +13764,7 @@
       </c>
       <c r="F560" s="7" t="n"/>
       <c r="G560" s="8" t="n"/>
+      <c r="S560" s="9" t="n"/>
     </row>
     <row r="561">
       <c r="A561" s="5" t="n">
@@ -13532,6 +13782,7 @@
       </c>
       <c r="F561" s="7" t="n"/>
       <c r="G561" s="8" t="n"/>
+      <c r="S561" s="9" t="n"/>
     </row>
     <row r="562">
       <c r="A562" s="5" t="n">
@@ -13558,6 +13809,7 @@
         <f>IF(E562&gt;1,(1.732*D562*F562)/1000,(D562*F562)/1000)</f>
         <v/>
       </c>
+      <c r="S562" s="9" t="n"/>
     </row>
     <row r="563">
       <c r="A563" s="3" t="inlineStr">
@@ -13609,7 +13861,7 @@
         <f>IF(E564&gt;1,(1.732*D564*F564)/1000,(D564*F564)/1000)</f>
         <v/>
       </c>
-      <c r="S564" t="inlineStr">
+      <c r="S564" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13640,7 +13892,7 @@
         <f>IF(E565&gt;1,(1.732*D565*F565)/1000,(D565*F565)/1000)</f>
         <v/>
       </c>
-      <c r="S565" t="inlineStr">
+      <c r="S565" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DOORS</t>
         </is>
@@ -13676,7 +13928,7 @@
           <t>1-1/4"</t>
         </is>
       </c>
-      <c r="S566" t="inlineStr">
+      <c r="S566" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13698,6 +13950,7 @@
       </c>
       <c r="F567" s="7" t="n"/>
       <c r="G567" s="8" t="n"/>
+      <c r="S567" s="9" t="n"/>
     </row>
     <row r="568">
       <c r="A568" s="5" t="n">
@@ -13724,7 +13977,7 @@
         <f>IF(E568&gt;1,(1.732*D568*F568)/1000,(D568*F568)/1000)</f>
         <v/>
       </c>
-      <c r="S568" t="inlineStr">
+      <c r="S568" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #837</t>
         </is>
@@ -13761,7 +14014,7 @@
       <c r="O569" t="n">
         <v>1866</v>
       </c>
-      <c r="S569" t="inlineStr">
+      <c r="S569" s="9" t="inlineStr">
         <is>
           <t>WITH MAKE-UP AIR</t>
         </is>
@@ -13783,6 +14036,7 @@
       </c>
       <c r="F570" s="7" t="n"/>
       <c r="G570" s="8" t="n"/>
+      <c r="S570" s="9" t="n"/>
     </row>
     <row r="571">
       <c r="A571" s="5" t="n">
@@ -13800,6 +14054,7 @@
       </c>
       <c r="F571" s="7" t="n"/>
       <c r="G571" s="8" t="n"/>
+      <c r="S571" s="9" t="n"/>
     </row>
     <row r="572">
       <c r="A572" s="5" t="n">
@@ -13817,6 +14072,7 @@
       </c>
       <c r="F572" s="7" t="n"/>
       <c r="G572" s="8" t="n"/>
+      <c r="S572" s="9" t="n"/>
     </row>
     <row r="573">
       <c r="A573" s="5" t="n">
@@ -13846,7 +14102,7 @@
       <c r="M573" t="n">
         <v>240000</v>
       </c>
-      <c r="S573" t="inlineStr">
+      <c r="S573" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH FILTER AND DUMP STATION</t>
         </is>
@@ -13866,7 +14122,7 @@
       </c>
       <c r="F574" s="7" t="n"/>
       <c r="G574" s="8" t="n"/>
-      <c r="S574" t="inlineStr">
+      <c r="S574" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION MOBILE WITH TRASH CHUTE</t>
         </is>
@@ -13886,7 +14142,7 @@
       </c>
       <c r="F575" s="7" t="n"/>
       <c r="G575" s="8" t="n"/>
-      <c r="S575" t="inlineStr">
+      <c r="S575" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -13920,7 +14176,7 @@
       <c r="M576" t="n">
         <v>105000</v>
       </c>
-      <c r="S576" t="inlineStr">
+      <c r="S576" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13942,6 +14198,7 @@
       </c>
       <c r="F577" s="7" t="n"/>
       <c r="G577" s="8" t="n"/>
+      <c r="S577" s="9" t="n"/>
     </row>
     <row r="578">
       <c r="A578" s="5" t="n">
@@ -13960,7 +14217,7 @@
       <c r="M578" t="n">
         <v>245000</v>
       </c>
-      <c r="S578" t="inlineStr">
+      <c r="S578" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -13993,6 +14250,7 @@
       <c r="J579" t="n">
         <v>30</v>
       </c>
+      <c r="S579" s="9" t="n"/>
     </row>
     <row r="580">
       <c r="A580" s="5" t="n">
@@ -14008,7 +14266,7 @@
       </c>
       <c r="F580" s="7" t="n"/>
       <c r="G580" s="8" t="n"/>
-      <c r="S580" t="inlineStr">
+      <c r="S580" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -14030,6 +14288,7 @@
       </c>
       <c r="F581" s="7" t="n"/>
       <c r="G581" s="8" t="n"/>
+      <c r="S581" s="9" t="n"/>
     </row>
     <row r="582">
       <c r="A582" s="5" t="n">
@@ -14047,6 +14306,7 @@
       </c>
       <c r="F582" s="7" t="n"/>
       <c r="G582" s="8" t="n"/>
+      <c r="S582" s="9" t="n"/>
     </row>
     <row r="583">
       <c r="A583" s="5" t="n">
@@ -14060,7 +14320,7 @@
       </c>
       <c r="F583" s="7" t="n"/>
       <c r="G583" s="8" t="n"/>
-      <c r="S583" t="inlineStr">
+      <c r="S583" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #848</t>
         </is>
@@ -14091,7 +14351,7 @@
         <f>IF(E584&gt;1,(1.732*D584*F584)/1000,(D584*F584)/1000)</f>
         <v/>
       </c>
-      <c r="S584" t="inlineStr">
+      <c r="S584" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -14122,6 +14382,7 @@
         <f>IF(E585&gt;1,(1.732*D585*F585)/1000,(D585*F585)/1000)</f>
         <v/>
       </c>
+      <c r="S585" s="9" t="n"/>
     </row>
     <row r="586">
       <c r="A586" s="5" t="n">
@@ -14148,7 +14409,7 @@
         <f>IF(E586&gt;1,(1.732*D586*F586)/1000,(D586*F586)/1000)</f>
         <v/>
       </c>
-      <c r="S586" t="inlineStr">
+      <c r="S586" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWERS</t>
         </is>
@@ -14170,6 +14431,7 @@
       </c>
       <c r="F587" s="7" t="n"/>
       <c r="G587" s="8" t="n"/>
+      <c r="S587" s="9" t="n"/>
     </row>
     <row r="588">
       <c r="A588" s="5" t="n">
@@ -14187,6 +14449,7 @@
       </c>
       <c r="F588" s="7" t="n"/>
       <c r="G588" s="8" t="n"/>
+      <c r="S588" s="9" t="n"/>
     </row>
     <row r="589">
       <c r="A589" s="5" t="n">
@@ -14213,6 +14476,7 @@
         <f>IF(E589&gt;1,(1.732*D589*F589)/1000,(D589*F589)/1000)</f>
         <v/>
       </c>
+      <c r="S589" s="9" t="n"/>
     </row>
     <row r="590">
       <c r="A590" s="5" t="n">
@@ -14239,7 +14503,7 @@
         <f>IF(E590&gt;1,(1.732*D590*F590)/1000,(D590*F590)/1000)</f>
         <v/>
       </c>
-      <c r="S590" t="inlineStr">
+      <c r="S590" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -14261,6 +14525,7 @@
       </c>
       <c r="F591" s="7" t="n"/>
       <c r="G591" s="8" t="n"/>
+      <c r="S591" s="9" t="n"/>
     </row>
     <row r="592">
       <c r="A592" s="5" t="n">
@@ -14278,6 +14543,7 @@
       </c>
       <c r="F592" s="7" t="n"/>
       <c r="G592" s="8" t="n"/>
+      <c r="S592" s="9" t="n"/>
     </row>
     <row r="593">
       <c r="A593" s="5" t="n">
@@ -14311,7 +14577,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S593" t="inlineStr">
+      <c r="S593" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -14331,7 +14597,7 @@
       </c>
       <c r="F594" s="7" t="n"/>
       <c r="G594" s="8" t="n"/>
-      <c r="S594" t="inlineStr">
+      <c r="S594" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -14365,7 +14631,7 @@
       <c r="M595" t="n">
         <v>55000</v>
       </c>
-      <c r="S595" t="inlineStr">
+      <c r="S595" s="9" t="inlineStr">
         <is>
           <t>WITH EXHAUST HOOD</t>
         </is>
@@ -14385,7 +14651,7 @@
       </c>
       <c r="F596" s="7" t="n"/>
       <c r="G596" s="8" t="n"/>
-      <c r="S596" t="inlineStr">
+      <c r="S596" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH MARBLE TOP</t>
         </is>
@@ -14407,6 +14673,7 @@
       </c>
       <c r="F597" s="7" t="n"/>
       <c r="G597" s="8" t="n"/>
+      <c r="S597" s="9" t="n"/>
     </row>
     <row r="598">
       <c r="A598" s="5" t="n">
@@ -14433,7 +14700,7 @@
         <f>IF(E598&gt;1,(1.732*D598*F598)/1000,(D598*F598)/1000)</f>
         <v/>
       </c>
-      <c r="S598" t="inlineStr">
+      <c r="S598" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWERS</t>
         </is>
@@ -14464,7 +14731,7 @@
         <f>IF(E599&gt;1,(1.732*D599*F599)/1000,(D599*F599)/1000)</f>
         <v/>
       </c>
-      <c r="S599" t="inlineStr">
+      <c r="S599" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -14484,7 +14751,7 @@
       </c>
       <c r="F600" s="7" t="n"/>
       <c r="G600" s="8" t="n"/>
-      <c r="S600" t="inlineStr">
+      <c r="S600" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -14506,6 +14773,7 @@
       </c>
       <c r="F601" s="7" t="n"/>
       <c r="G601" s="8" t="n"/>
+      <c r="S601" s="9" t="n"/>
     </row>
     <row r="602">
       <c r="A602" s="5" t="n">
@@ -14521,7 +14789,7 @@
       </c>
       <c r="F602" s="7" t="n"/>
       <c r="G602" s="8" t="n"/>
-      <c r="S602" t="inlineStr">
+      <c r="S602" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #868</t>
         </is>
@@ -14552,7 +14820,7 @@
         <f>IF(E603&gt;1,(1.732*D603*F603)/1000,(D603*F603)/1000)</f>
         <v/>
       </c>
-      <c r="S603" t="inlineStr">
+      <c r="S603" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -14583,6 +14851,7 @@
         <f>IF(E604&gt;1,(1.732*D604*F604)/1000,(D604*F604)/1000)</f>
         <v/>
       </c>
+      <c r="S604" s="9" t="n"/>
     </row>
     <row r="605">
       <c r="A605" s="5" t="n">
@@ -14609,7 +14878,7 @@
         <f>IF(E605&gt;1,(1.732*D605*F605)/1000,(D605*F605)/1000)</f>
         <v/>
       </c>
-      <c r="S605" t="inlineStr">
+      <c r="S605" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #837</t>
         </is>
@@ -14633,6 +14902,7 @@
       </c>
       <c r="F606" s="7" t="n"/>
       <c r="G606" s="8" t="n"/>
+      <c r="S606" s="9" t="n"/>
     </row>
     <row r="607">
       <c r="A607" s="3" t="inlineStr">
@@ -14684,7 +14954,7 @@
         <f>IF(E608&gt;1,(1.732*D608*F608)/1000,(D608*F608)/1000)</f>
         <v/>
       </c>
-      <c r="S608" t="inlineStr">
+      <c r="S608" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -14722,7 +14992,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S609" t="inlineStr">
+      <c r="S609" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -14742,7 +15012,7 @@
       </c>
       <c r="F610" s="7" t="n"/>
       <c r="G610" s="8" t="n"/>
-      <c r="S610" t="inlineStr">
+      <c r="S610" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #881</t>
         </is>
@@ -14762,7 +15032,7 @@
       </c>
       <c r="F611" s="7" t="n"/>
       <c r="G611" s="8" t="n"/>
-      <c r="S611" t="inlineStr">
+      <c r="S611" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -14784,6 +15054,7 @@
       </c>
       <c r="F612" s="7" t="n"/>
       <c r="G612" s="8" t="n"/>
+      <c r="S612" s="9" t="n"/>
     </row>
     <row r="613">
       <c r="A613" s="5" t="n">
@@ -14810,7 +15081,7 @@
         <f>IF(E613&gt;1,(1.732*D613*F613)/1000,(D613*F613)/1000)</f>
         <v/>
       </c>
-      <c r="S613" t="inlineStr">
+      <c r="S613" s="9" t="inlineStr">
         <is>
           <t>AIR-COOLED</t>
         </is>
@@ -14840,6 +15111,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S614" s="9" t="n"/>
     </row>
     <row r="615">
       <c r="A615" s="5" t="n">
@@ -14866,6 +15138,7 @@
         <f>IF(E615&gt;1,(1.732*D615*F615)/1000,(D615*F615)/1000)</f>
         <v/>
       </c>
+      <c r="S615" s="9" t="n"/>
     </row>
     <row r="616">
       <c r="A616" s="5" t="n">
@@ -14883,6 +15156,7 @@
       </c>
       <c r="F616" s="7" t="n"/>
       <c r="G616" s="8" t="n"/>
+      <c r="S616" s="9" t="n"/>
     </row>
     <row r="617">
       <c r="A617" s="5" t="n">
@@ -14900,6 +15174,7 @@
       </c>
       <c r="F617" s="7" t="n"/>
       <c r="G617" s="8" t="n"/>
+      <c r="S617" s="9" t="n"/>
     </row>
     <row r="618">
       <c r="A618" s="5" t="n">
@@ -14915,7 +15190,7 @@
       </c>
       <c r="F618" s="7" t="n"/>
       <c r="G618" s="8" t="n"/>
-      <c r="S618" t="inlineStr">
+      <c r="S618" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #881</t>
         </is>
@@ -14935,7 +15210,7 @@
       </c>
       <c r="F619" s="7" t="n"/>
       <c r="G619" s="8" t="n"/>
-      <c r="S619" t="inlineStr">
+      <c r="S619" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -14966,7 +15241,7 @@
         <f>IF(E620&gt;1,(1.732*D620*F620)/1000,(D620*F620)/1000)</f>
         <v/>
       </c>
-      <c r="S620" t="inlineStr">
+      <c r="S620" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -14997,7 +15272,7 @@
         <f>IF(E621&gt;1,(1.732*D621*F621)/1000,(D621*F621)/1000)</f>
         <v/>
       </c>
-      <c r="S621" t="inlineStr">
+      <c r="S621" s="9" t="inlineStr">
         <is>
           <t>BY OS&amp;E</t>
         </is>
@@ -15019,6 +15294,7 @@
       </c>
       <c r="F622" s="7" t="n"/>
       <c r="G622" s="8" t="n"/>
+      <c r="S622" s="9" t="n"/>
     </row>
     <row r="623">
       <c r="A623" s="5" t="n">
@@ -15034,7 +15310,7 @@
       </c>
       <c r="F623" s="7" t="n"/>
       <c r="G623" s="8" t="n"/>
-      <c r="S623" t="inlineStr">
+      <c r="S623" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15056,6 +15332,7 @@
       </c>
       <c r="F624" s="7" t="n"/>
       <c r="G624" s="8" t="n"/>
+      <c r="S624" s="9" t="n"/>
     </row>
     <row r="625">
       <c r="A625" s="5" t="n">
@@ -15073,6 +15350,7 @@
       </c>
       <c r="F625" s="7" t="n"/>
       <c r="G625" s="8" t="n"/>
+      <c r="S625" s="9" t="n"/>
     </row>
     <row r="626">
       <c r="A626" s="5" t="n">
@@ -15090,6 +15368,7 @@
       </c>
       <c r="F626" s="7" t="n"/>
       <c r="G626" s="8" t="n"/>
+      <c r="S626" s="9" t="n"/>
     </row>
     <row r="627">
       <c r="A627" s="5" t="n">
@@ -15107,6 +15386,7 @@
       </c>
       <c r="F627" s="7" t="n"/>
       <c r="G627" s="8" t="n"/>
+      <c r="S627" s="9" t="n"/>
     </row>
     <row r="628">
       <c r="A628" s="3" t="inlineStr">
@@ -15165,7 +15445,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S629" t="inlineStr">
+      <c r="S629" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -15185,7 +15465,7 @@
       </c>
       <c r="F630" s="7" t="n"/>
       <c r="G630" s="8" t="n"/>
-      <c r="S630" t="inlineStr">
+      <c r="S630" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -15210,7 +15490,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S631" t="inlineStr">
+      <c r="S631" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15230,7 +15510,7 @@
       </c>
       <c r="F632" s="7" t="n"/>
       <c r="G632" s="8" t="n"/>
-      <c r="S632" t="inlineStr">
+      <c r="S632" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15252,6 +15532,7 @@
       </c>
       <c r="F633" s="7" t="n"/>
       <c r="G633" s="8" t="n"/>
+      <c r="S633" s="9" t="n"/>
     </row>
     <row r="634">
       <c r="A634" s="5" t="n">
@@ -15267,7 +15548,7 @@
       </c>
       <c r="F634" s="7" t="n"/>
       <c r="G634" s="8" t="n"/>
-      <c r="S634" t="inlineStr">
+      <c r="S634" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #903</t>
         </is>
@@ -15287,7 +15568,7 @@
       </c>
       <c r="F635" s="7" t="n"/>
       <c r="G635" s="8" t="n"/>
-      <c r="S635" t="inlineStr">
+      <c r="S635" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -15320,7 +15601,7 @@
       <c r="J636" t="n">
         <v>50</v>
       </c>
-      <c r="S636" t="inlineStr">
+      <c r="S636" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -15342,6 +15623,7 @@
       </c>
       <c r="F637" s="7" t="n"/>
       <c r="G637" s="8" t="n"/>
+      <c r="S637" s="9" t="n"/>
     </row>
     <row r="638">
       <c r="A638" s="5" t="n">
@@ -15359,6 +15641,7 @@
       </c>
       <c r="F638" s="7" t="n"/>
       <c r="G638" s="8" t="n"/>
+      <c r="S638" s="9" t="n"/>
     </row>
     <row r="639">
       <c r="A639" s="5" t="n">
@@ -15398,7 +15681,7 @@
       <c r="P639" t="n">
         <v>6100</v>
       </c>
-      <c r="S639" t="inlineStr">
+      <c r="S639" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE VENTLESS</t>
         </is>
@@ -15418,7 +15701,7 @@
       </c>
       <c r="F640" s="7" t="n"/>
       <c r="G640" s="8" t="n"/>
-      <c r="S640" t="inlineStr">
+      <c r="S640" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15438,7 +15721,7 @@
       </c>
       <c r="F641" s="7" t="n"/>
       <c r="G641" s="8" t="n"/>
-      <c r="S641" t="inlineStr">
+      <c r="S641" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -15482,6 +15765,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S642" s="9" t="n"/>
     </row>
     <row r="643">
       <c r="A643" s="5" t="n">
@@ -15499,6 +15783,7 @@
       </c>
       <c r="F643" s="7" t="n"/>
       <c r="G643" s="8" t="n"/>
+      <c r="S643" s="9" t="n"/>
     </row>
     <row r="644">
       <c r="A644" s="5" t="n">
@@ -15514,7 +15799,7 @@
       </c>
       <c r="F644" s="7" t="n"/>
       <c r="G644" s="8" t="n"/>
-      <c r="S644" t="inlineStr">
+      <c r="S644" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -15552,7 +15837,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S645" t="inlineStr">
+      <c r="S645" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15572,7 +15857,7 @@
       </c>
       <c r="F646" s="7" t="n"/>
       <c r="G646" s="8" t="n"/>
-      <c r="S646" t="inlineStr">
+      <c r="S646" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15594,6 +15879,7 @@
       </c>
       <c r="F647" s="7" t="n"/>
       <c r="G647" s="8" t="n"/>
+      <c r="S647" s="9" t="n"/>
     </row>
     <row r="648">
       <c r="A648" s="5" t="n">
@@ -15611,6 +15897,7 @@
       </c>
       <c r="F648" s="7" t="n"/>
       <c r="G648" s="8" t="n"/>
+      <c r="S648" s="9" t="n"/>
     </row>
     <row r="649">
       <c r="A649" s="5" t="n">
@@ -15639,7 +15926,7 @@
       <c r="J649" t="n">
         <v>50</v>
       </c>
-      <c r="S649" t="inlineStr">
+      <c r="S649" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -15659,7 +15946,7 @@
       </c>
       <c r="F650" s="7" t="n"/>
       <c r="G650" s="8" t="n"/>
-      <c r="S650" t="inlineStr">
+      <c r="S650" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15684,7 +15971,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S651" t="inlineStr">
+      <c r="S651" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15704,7 +15991,7 @@
       </c>
       <c r="F652" s="7" t="n"/>
       <c r="G652" s="8" t="n"/>
-      <c r="S652" t="inlineStr">
+      <c r="S652" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -15726,6 +16013,7 @@
       </c>
       <c r="F653" s="7" t="n"/>
       <c r="G653" s="8" t="n"/>
+      <c r="S653" s="9" t="n"/>
     </row>
     <row r="654">
       <c r="A654" s="5" t="n">
@@ -15741,7 +16029,7 @@
       </c>
       <c r="F654" s="7" t="n"/>
       <c r="G654" s="8" t="n"/>
-      <c r="S654" t="inlineStr">
+      <c r="S654" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -15766,7 +16054,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S655" t="inlineStr">
+      <c r="S655" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -15796,7 +16084,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S656" t="inlineStr">
+      <c r="S656" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -15818,6 +16106,7 @@
       </c>
       <c r="F657" s="7" t="n"/>
       <c r="G657" s="8" t="n"/>
+      <c r="S657" s="9" t="n"/>
     </row>
     <row r="658">
       <c r="A658" s="5" t="n">
@@ -15835,6 +16124,7 @@
       </c>
       <c r="F658" s="7" t="n"/>
       <c r="G658" s="8" t="n"/>
+      <c r="S658" s="9" t="n"/>
     </row>
     <row r="659">
       <c r="A659" s="5" t="n">
@@ -15850,7 +16140,7 @@
       </c>
       <c r="F659" s="7" t="n"/>
       <c r="G659" s="8" t="n"/>
-      <c r="S659" t="inlineStr">
+      <c r="S659" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -15870,7 +16160,7 @@
       </c>
       <c r="F660" s="7" t="n"/>
       <c r="G660" s="8" t="n"/>
-      <c r="S660" t="inlineStr">
+      <c r="S660" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -15892,6 +16182,7 @@
       </c>
       <c r="F661" s="7" t="n"/>
       <c r="G661" s="8" t="n"/>
+      <c r="S661" s="9" t="n"/>
     </row>
     <row r="662">
       <c r="A662" s="5" t="n">
@@ -15909,6 +16200,7 @@
       </c>
       <c r="F662" s="7" t="n"/>
       <c r="G662" s="8" t="n"/>
+      <c r="S662" s="9" t="n"/>
     </row>
     <row r="663">
       <c r="A663" s="5" t="inlineStr">
@@ -15928,6 +16220,7 @@
       </c>
       <c r="F663" s="7" t="n"/>
       <c r="G663" s="8" t="n"/>
+      <c r="S663" s="9" t="n"/>
     </row>
     <row r="664">
       <c r="A664" s="3" t="inlineStr">
@@ -15968,7 +16261,7 @@
       </c>
       <c r="F665" s="7" t="n"/>
       <c r="G665" s="8" t="n"/>
-      <c r="S665" t="inlineStr">
+      <c r="S665" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -15988,7 +16281,7 @@
       </c>
       <c r="F666" s="7" t="n"/>
       <c r="G666" s="8" t="n"/>
-      <c r="S666" t="inlineStr">
+      <c r="S666" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER PART OF ITEM #1001</t>
         </is>
@@ -16008,7 +16301,7 @@
       </c>
       <c r="F667" s="7" t="n"/>
       <c r="G667" s="8" t="n"/>
-      <c r="S667" t="inlineStr">
+      <c r="S667" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -16046,6 +16339,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S668" s="9" t="n"/>
     </row>
     <row r="669">
       <c r="A669" s="5" t="n">
@@ -16063,6 +16357,7 @@
       </c>
       <c r="F669" s="7" t="n"/>
       <c r="G669" s="8" t="n"/>
+      <c r="S669" s="9" t="n"/>
     </row>
     <row r="670">
       <c r="A670" s="5" t="n">
@@ -16083,6 +16378,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S670" s="9" t="n"/>
     </row>
     <row r="671">
       <c r="A671" s="5" t="n">
@@ -16122,7 +16418,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S671" t="inlineStr">
+      <c r="S671" s="9" t="inlineStr">
         <is>
           <t>180° RINSE</t>
         </is>
@@ -16147,7 +16443,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S672" t="inlineStr">
+      <c r="S672" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -16169,6 +16465,7 @@
       </c>
       <c r="F673" s="7" t="n"/>
       <c r="G673" s="8" t="n"/>
+      <c r="S673" s="9" t="n"/>
     </row>
     <row r="674">
       <c r="A674" s="5" t="n">
@@ -16186,6 +16483,7 @@
       </c>
       <c r="F674" s="7" t="n"/>
       <c r="G674" s="8" t="n"/>
+      <c r="S674" s="9" t="n"/>
     </row>
     <row r="675">
       <c r="A675" s="5" t="n">
@@ -16201,7 +16499,7 @@
       </c>
       <c r="F675" s="7" t="n"/>
       <c r="G675" s="8" t="n"/>
-      <c r="S675" t="inlineStr">
+      <c r="S675" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -16239,6 +16537,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S676" s="9" t="n"/>
     </row>
     <row r="677">
       <c r="A677" s="5" t="n">
@@ -16259,6 +16558,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S677" s="9" t="n"/>
     </row>
     <row r="678">
       <c r="A678" s="5" t="n">
@@ -16274,6 +16574,7 @@
       </c>
       <c r="F678" s="7" t="n"/>
       <c r="G678" s="8" t="n"/>
+      <c r="S678" s="9" t="n"/>
     </row>
     <row r="679">
       <c r="A679" s="5" t="n">
@@ -16291,6 +16592,7 @@
       </c>
       <c r="F679" s="7" t="n"/>
       <c r="G679" s="8" t="n"/>
+      <c r="S679" s="9" t="n"/>
     </row>
     <row r="680">
       <c r="A680" s="5" t="n">
@@ -16316,7 +16618,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S680" t="inlineStr">
+      <c r="S680" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -16336,6 +16638,7 @@
       </c>
       <c r="F681" s="7" t="n"/>
       <c r="G681" s="8" t="n"/>
+      <c r="S681" s="9" t="n"/>
     </row>
     <row r="682">
       <c r="A682" s="5" t="n">
@@ -16351,7 +16654,7 @@
       </c>
       <c r="F682" s="7" t="n"/>
       <c r="G682" s="8" t="n"/>
-      <c r="S682" t="inlineStr">
+      <c r="S682" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #1017</t>
         </is>
@@ -16373,6 +16676,7 @@
       </c>
       <c r="F683" s="7" t="n"/>
       <c r="G683" s="8" t="n"/>
+      <c r="S683" s="9" t="n"/>
     </row>
     <row r="684">
       <c r="A684" s="5" t="n">
@@ -16390,6 +16694,7 @@
       </c>
       <c r="F684" s="7" t="n"/>
       <c r="G684" s="8" t="n"/>
+      <c r="S684" s="9" t="n"/>
     </row>
     <row r="685">
       <c r="A685" s="5" t="n">
@@ -16405,7 +16710,7 @@
       </c>
       <c r="F685" s="7" t="n"/>
       <c r="G685" s="8" t="n"/>
-      <c r="S685" t="inlineStr">
+      <c r="S685" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -16436,7 +16741,7 @@
         <f>IF(E686&gt;1,(1.732*D686*F686)/1000,(D686*F686)/1000)</f>
         <v/>
       </c>
-      <c r="S686" t="inlineStr">
+      <c r="S686" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -16456,7 +16761,7 @@
       </c>
       <c r="F687" s="7" t="n"/>
       <c r="G687" s="8" t="n"/>
-      <c r="S687" t="inlineStr">
+      <c r="S687" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -16487,7 +16792,7 @@
         <f>IF(E688&gt;1,(1.732*D688*F688)/1000,(D688*F688)/1000)</f>
         <v/>
       </c>
-      <c r="S688" t="inlineStr">
+      <c r="S688" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWER</t>
         </is>
@@ -16509,6 +16814,7 @@
       </c>
       <c r="F689" s="7" t="n"/>
       <c r="G689" s="8" t="n"/>
+      <c r="S689" s="9" t="n"/>
     </row>
     <row r="690">
       <c r="A690" s="5" t="n">
@@ -16524,7 +16830,7 @@
       </c>
       <c r="F690" s="7" t="n"/>
       <c r="G690" s="8" t="n"/>
-      <c r="S690" t="inlineStr">
+      <c r="S690" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -16544,7 +16850,7 @@
       </c>
       <c r="F691" s="7" t="n"/>
       <c r="G691" s="8" t="n"/>
-      <c r="S691" t="inlineStr">
+      <c r="S691" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -16582,6 +16888,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S692" s="9" t="n"/>
     </row>
     <row r="693">
       <c r="A693" s="5" t="n">
@@ -16599,6 +16906,7 @@
       </c>
       <c r="F693" s="7" t="n"/>
       <c r="G693" s="8" t="n"/>
+      <c r="S693" s="9" t="n"/>
     </row>
     <row r="694">
       <c r="A694" s="5" t="n">
@@ -16616,6 +16924,7 @@
       </c>
       <c r="F694" s="7" t="n"/>
       <c r="G694" s="8" t="n"/>
+      <c r="S694" s="9" t="n"/>
     </row>
     <row r="695">
       <c r="A695" s="5" t="n">
@@ -16636,6 +16945,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S695" s="9" t="n"/>
     </row>
     <row r="696">
       <c r="A696" s="5" t="n">
@@ -16651,6 +16961,7 @@
       </c>
       <c r="F696" s="7" t="n"/>
       <c r="G696" s="8" t="n"/>
+      <c r="S696" s="9" t="n"/>
     </row>
     <row r="697">
       <c r="A697" s="5" t="n">
@@ -16676,7 +16987,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S697" t="inlineStr">
+      <c r="S697" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -16696,6 +17007,7 @@
       </c>
       <c r="F698" s="7" t="n"/>
       <c r="G698" s="8" t="n"/>
+      <c r="S698" s="9" t="n"/>
     </row>
     <row r="699">
       <c r="A699" s="5" t="n">
@@ -16713,6 +17025,7 @@
       </c>
       <c r="F699" s="7" t="n"/>
       <c r="G699" s="8" t="n"/>
+      <c r="S699" s="9" t="n"/>
     </row>
     <row r="700">
       <c r="A700" s="5" t="n">
@@ -16728,7 +17041,7 @@
       </c>
       <c r="F700" s="7" t="n"/>
       <c r="G700" s="8" t="n"/>
-      <c r="S700" t="inlineStr">
+      <c r="S700" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #1034</t>
         </is>
@@ -16748,7 +17061,7 @@
       </c>
       <c r="F701" s="7" t="n"/>
       <c r="G701" s="8" t="n"/>
-      <c r="S701" t="inlineStr">
+      <c r="S701" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -16779,7 +17092,7 @@
         <f>IF(E702&gt;1,(1.732*D702*F702)/1000,(D702*F702)/1000)</f>
         <v/>
       </c>
-      <c r="S702" t="inlineStr">
+      <c r="S702" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -16801,6 +17114,7 @@
       </c>
       <c r="F703" s="7" t="n"/>
       <c r="G703" s="8" t="n"/>
+      <c r="S703" s="9" t="n"/>
     </row>
     <row r="704">
       <c r="A704" s="5" t="n">
@@ -16818,6 +17132,7 @@
       </c>
       <c r="F704" s="7" t="n"/>
       <c r="G704" s="8" t="n"/>
+      <c r="S704" s="9" t="n"/>
     </row>
     <row r="705">
       <c r="A705" s="5" t="n">
@@ -16833,7 +17148,7 @@
       </c>
       <c r="F705" s="7" t="n"/>
       <c r="G705" s="8" t="n"/>
-      <c r="S705" t="inlineStr">
+      <c r="S705" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -16868,6 +17183,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S706" s="9" t="n"/>
     </row>
     <row r="707">
       <c r="A707" s="5" t="n">
@@ -16888,6 +17204,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S707" s="9" t="n"/>
     </row>
     <row r="708">
       <c r="A708" s="5" t="n">
@@ -16903,7 +17220,7 @@
       </c>
       <c r="F708" s="7" t="n"/>
       <c r="G708" s="8" t="n"/>
-      <c r="S708" t="inlineStr">
+      <c r="S708" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -16925,6 +17242,7 @@
       </c>
       <c r="F709" s="7" t="n"/>
       <c r="G709" s="8" t="n"/>
+      <c r="S709" s="9" t="n"/>
     </row>
     <row r="710">
       <c r="A710" s="5" t="n">
@@ -16940,7 +17258,7 @@
       </c>
       <c r="F710" s="7" t="n"/>
       <c r="G710" s="8" t="n"/>
-      <c r="S710" t="inlineStr">
+      <c r="S710" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -16960,7 +17278,7 @@
       </c>
       <c r="F711" s="7" t="n"/>
       <c r="G711" s="8" t="n"/>
-      <c r="S711" t="inlineStr">
+      <c r="S711" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -16998,6 +17316,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S712" s="9" t="n"/>
     </row>
     <row r="713">
       <c r="A713" s="5" t="n">
@@ -17015,6 +17334,7 @@
       </c>
       <c r="F713" s="7" t="n"/>
       <c r="G713" s="8" t="n"/>
+      <c r="S713" s="9" t="n"/>
     </row>
     <row r="714">
       <c r="A714" s="5" t="n">
@@ -17032,6 +17352,7 @@
       </c>
       <c r="F714" s="7" t="n"/>
       <c r="G714" s="8" t="n"/>
+      <c r="S714" s="9" t="n"/>
     </row>
     <row r="715">
       <c r="A715" s="5" t="n">
@@ -17052,6 +17373,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S715" s="9" t="n"/>
     </row>
     <row r="716">
       <c r="A716" s="5" t="n">
@@ -17067,6 +17389,7 @@
       </c>
       <c r="F716" s="7" t="n"/>
       <c r="G716" s="8" t="n"/>
+      <c r="S716" s="9" t="n"/>
     </row>
     <row r="717">
       <c r="A717" s="5" t="n">
@@ -17092,7 +17415,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S717" t="inlineStr">
+      <c r="S717" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -17112,6 +17435,7 @@
       </c>
       <c r="F718" s="7" t="n"/>
       <c r="G718" s="8" t="n"/>
+      <c r="S718" s="9" t="n"/>
     </row>
     <row r="719">
       <c r="A719" s="5" t="n">
@@ -17129,6 +17453,7 @@
       </c>
       <c r="F719" s="7" t="n"/>
       <c r="G719" s="8" t="n"/>
+      <c r="S719" s="9" t="n"/>
     </row>
     <row r="720">
       <c r="A720" s="5" t="n">
@@ -17144,7 +17469,7 @@
       </c>
       <c r="F720" s="7" t="n"/>
       <c r="G720" s="8" t="n"/>
-      <c r="S720" t="inlineStr">
+      <c r="S720" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #1054</t>
         </is>
@@ -17164,7 +17489,7 @@
       </c>
       <c r="F721" s="7" t="n"/>
       <c r="G721" s="8" t="n"/>
-      <c r="S721" t="inlineStr">
+      <c r="S721" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -17195,7 +17520,7 @@
         <f>IF(E722&gt;1,(1.732*D722*F722)/1000,(D722*F722)/1000)</f>
         <v/>
       </c>
-      <c r="S722" t="inlineStr">
+      <c r="S722" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -17217,6 +17542,7 @@
       </c>
       <c r="F723" s="7" t="n"/>
       <c r="G723" s="8" t="n"/>
+      <c r="S723" s="9" t="n"/>
     </row>
     <row r="724">
       <c r="A724" s="5" t="n">
@@ -17234,6 +17560,7 @@
       </c>
       <c r="F724" s="7" t="n"/>
       <c r="G724" s="8" t="n"/>
+      <c r="S724" s="9" t="n"/>
     </row>
     <row r="725">
       <c r="A725" s="5" t="n">
@@ -17249,7 +17576,7 @@
       </c>
       <c r="F725" s="7" t="n"/>
       <c r="G725" s="8" t="n"/>
-      <c r="S725" t="inlineStr">
+      <c r="S725" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -17280,7 +17607,7 @@
         <f>IF(E726&gt;1,(1.732*D726*F726)/1000,(D726*F726)/1000)</f>
         <v/>
       </c>
-      <c r="S726" t="inlineStr">
+      <c r="S726" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -17311,7 +17638,7 @@
         <f>IF(E727&gt;1,(1.732*D727*F727)/1000,(D727*F727)/1000)</f>
         <v/>
       </c>
-      <c r="S727" t="inlineStr">
+      <c r="S727" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWER</t>
         </is>
@@ -17336,6 +17663,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S728" s="9" t="n"/>
     </row>
     <row r="729">
       <c r="A729" s="5" t="n">
@@ -17353,6 +17681,7 @@
       </c>
       <c r="F729" s="7" t="n"/>
       <c r="G729" s="8" t="n"/>
+      <c r="S729" s="9" t="n"/>
     </row>
     <row r="730">
       <c r="A730" s="5" t="n">
@@ -17368,7 +17697,7 @@
       </c>
       <c r="F730" s="7" t="n"/>
       <c r="G730" s="8" t="n"/>
-      <c r="S730" t="inlineStr">
+      <c r="S730" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -17406,6 +17735,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S731" s="9" t="n"/>
     </row>
     <row r="732">
       <c r="A732" s="5" t="n">
@@ -17426,6 +17756,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S732" s="9" t="n"/>
     </row>
     <row r="733">
       <c r="A733" s="5" t="n">
@@ -17443,6 +17774,7 @@
       </c>
       <c r="F733" s="7" t="n"/>
       <c r="G733" s="8" t="n"/>
+      <c r="S733" s="9" t="n"/>
     </row>
     <row r="734">
       <c r="A734" s="5" t="n">
@@ -17460,6 +17792,7 @@
       </c>
       <c r="F734" s="7" t="n"/>
       <c r="G734" s="8" t="n"/>
+      <c r="S734" s="9" t="n"/>
     </row>
     <row r="735">
       <c r="A735" s="5" t="n">
@@ -17475,6 +17808,7 @@
       </c>
       <c r="F735" s="7" t="n"/>
       <c r="G735" s="8" t="n"/>
+      <c r="S735" s="9" t="n"/>
     </row>
     <row r="736">
       <c r="A736" s="5" t="n">
@@ -17500,7 +17834,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S736" t="inlineStr">
+      <c r="S736" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -17520,6 +17854,7 @@
       </c>
       <c r="F737" s="7" t="n"/>
       <c r="G737" s="8" t="n"/>
+      <c r="S737" s="9" t="n"/>
     </row>
     <row r="738">
       <c r="A738" s="5" t="n">
@@ -17535,7 +17870,7 @@
       </c>
       <c r="F738" s="7" t="n"/>
       <c r="G738" s="8" t="n"/>
-      <c r="S738" t="inlineStr">
+      <c r="S738" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #1073</t>
         </is>
@@ -17557,6 +17892,7 @@
       </c>
       <c r="F739" s="7" t="n"/>
       <c r="G739" s="8" t="n"/>
+      <c r="S739" s="9" t="n"/>
     </row>
     <row r="740">
       <c r="A740" s="5" t="n">
@@ -17583,7 +17919,7 @@
         <f>IF(E740&gt;1,(1.732*D740*F740)/1000,(D740*F740)/1000)</f>
         <v/>
       </c>
-      <c r="S740" t="inlineStr">
+      <c r="S740" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -17603,7 +17939,7 @@
       </c>
       <c r="F741" s="7" t="n"/>
       <c r="G741" s="8" t="n"/>
-      <c r="S741" t="inlineStr">
+      <c r="S741" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -17634,7 +17970,7 @@
         <f>IF(E742&gt;1,(1.732*D742*F742)/1000,(D742*F742)/1000)</f>
         <v/>
       </c>
-      <c r="S742" t="inlineStr">
+      <c r="S742" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWER</t>
         </is>
@@ -17656,6 +17992,7 @@
       </c>
       <c r="F743" s="7" t="n"/>
       <c r="G743" s="8" t="n"/>
+      <c r="S743" s="9" t="n"/>
     </row>
     <row r="744">
       <c r="A744" s="5" t="n">
@@ -17673,6 +18010,7 @@
       </c>
       <c r="F744" s="7" t="n"/>
       <c r="G744" s="8" t="n"/>
+      <c r="S744" s="9" t="n"/>
     </row>
     <row r="745">
       <c r="A745" s="5" t="n">
@@ -17693,6 +18031,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S745" s="9" t="n"/>
     </row>
     <row r="746">
       <c r="A746" s="5" t="n">
@@ -17710,6 +18049,7 @@
       </c>
       <c r="F746" s="7" t="n"/>
       <c r="G746" s="8" t="n"/>
+      <c r="S746" s="9" t="n"/>
     </row>
     <row r="747">
       <c r="A747" s="5" t="n">
@@ -17727,6 +18067,7 @@
       </c>
       <c r="F747" s="7" t="n"/>
       <c r="G747" s="8" t="n"/>
+      <c r="S747" s="9" t="n"/>
     </row>
     <row r="748">
       <c r="A748" s="5" t="n">
@@ -17744,6 +18085,7 @@
       </c>
       <c r="F748" s="7" t="n"/>
       <c r="G748" s="8" t="n"/>
+      <c r="S748" s="9" t="n"/>
     </row>
     <row r="749">
       <c r="A749" s="5" t="n">
@@ -17761,6 +18103,7 @@
       </c>
       <c r="F749" s="7" t="n"/>
       <c r="G749" s="8" t="n"/>
+      <c r="S749" s="9" t="n"/>
     </row>
     <row r="750">
       <c r="A750" s="5" t="n">
@@ -17776,7 +18119,7 @@
       </c>
       <c r="F750" s="7" t="n"/>
       <c r="G750" s="8" t="n"/>
-      <c r="S750" t="inlineStr">
+      <c r="S750" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -17807,7 +18150,7 @@
         <f>IF(E751&gt;1,(1.732*D751*F751)/1000,(D751*F751)/1000)</f>
         <v/>
       </c>
-      <c r="S751" t="inlineStr">
+      <c r="S751" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -17838,6 +18181,7 @@
         <f>IF(E752&gt;1,(1.732*D752*F752)/1000,(D752*F752)/1000)</f>
         <v/>
       </c>
+      <c r="S752" s="9" t="n"/>
     </row>
     <row r="753">
       <c r="A753" s="5" t="n">
@@ -17855,6 +18199,7 @@
       </c>
       <c r="F753" s="7" t="n"/>
       <c r="G753" s="8" t="n"/>
+      <c r="S753" s="9" t="n"/>
     </row>
     <row r="754">
       <c r="A754" s="5" t="n">
@@ -17872,6 +18217,7 @@
       </c>
       <c r="F754" s="7" t="n"/>
       <c r="G754" s="8" t="n"/>
+      <c r="S754" s="9" t="n"/>
     </row>
     <row r="755">
       <c r="A755" s="5" t="n">
@@ -17898,7 +18244,7 @@
         <f>IF(E755&gt;1,(1.732*D755*F755)/1000,(D755*F755)/1000)</f>
         <v/>
       </c>
-      <c r="S755" t="inlineStr">
+      <c r="S755" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -17918,7 +18264,7 @@
       </c>
       <c r="F756" s="7" t="n"/>
       <c r="G756" s="8" t="n"/>
-      <c r="S756" t="inlineStr">
+      <c r="S756" s="9" t="inlineStr">
         <is>
           <t>3 TAP</t>
         </is>
@@ -17948,7 +18294,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S757" t="inlineStr">
+      <c r="S757" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -17979,7 +18325,7 @@
         <f>IF(E758&gt;1,(1.732*D758*F758)/1000,(D758*F758)/1000)</f>
         <v/>
       </c>
-      <c r="S758" t="inlineStr">
+      <c r="S758" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -18001,6 +18347,7 @@
       </c>
       <c r="F759" s="7" t="n"/>
       <c r="G759" s="8" t="n"/>
+      <c r="S759" s="9" t="n"/>
     </row>
     <row r="760">
       <c r="A760" s="5" t="n">
@@ -18027,6 +18374,7 @@
         <f>IF(E760&gt;1,(1.732*D760*F760)/1000,(D760*F760)/1000)</f>
         <v/>
       </c>
+      <c r="S760" s="9" t="n"/>
     </row>
     <row r="761">
       <c r="A761" s="5" t="n">
@@ -18044,6 +18392,7 @@
       </c>
       <c r="F761" s="7" t="n"/>
       <c r="G761" s="8" t="n"/>
+      <c r="S761" s="9" t="n"/>
     </row>
     <row r="762">
       <c r="A762" s="5" t="n">
@@ -18061,6 +18410,7 @@
       </c>
       <c r="F762" s="7" t="n"/>
       <c r="G762" s="8" t="n"/>
+      <c r="S762" s="9" t="n"/>
     </row>
     <row r="763">
       <c r="A763" s="5" t="n">
@@ -18078,6 +18428,7 @@
       </c>
       <c r="F763" s="7" t="n"/>
       <c r="G763" s="8" t="n"/>
+      <c r="S763" s="9" t="n"/>
     </row>
     <row r="764">
       <c r="A764" s="5" t="n">
@@ -18095,6 +18446,7 @@
       </c>
       <c r="F764" s="7" t="n"/>
       <c r="G764" s="8" t="n"/>
+      <c r="S764" s="9" t="n"/>
     </row>
     <row r="765">
       <c r="A765" s="5" t="n">
@@ -18110,7 +18462,7 @@
       </c>
       <c r="F765" s="7" t="n"/>
       <c r="G765" s="8" t="n"/>
-      <c r="S765" t="inlineStr">
+      <c r="S765" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -18141,7 +18493,7 @@
         <f>IF(E766&gt;1,(1.732*D766*F766)/1000,(D766*F766)/1000)</f>
         <v/>
       </c>
-      <c r="S766" t="inlineStr">
+      <c r="S766" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -18171,7 +18523,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S767" t="inlineStr">
+      <c r="S767" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -18191,7 +18543,7 @@
       </c>
       <c r="F768" s="7" t="n"/>
       <c r="G768" s="8" t="n"/>
-      <c r="S768" t="inlineStr">
+      <c r="S768" s="9" t="inlineStr">
         <is>
           <t>3 TAP</t>
         </is>
@@ -18213,6 +18565,7 @@
       </c>
       <c r="F769" s="7" t="n"/>
       <c r="G769" s="8" t="n"/>
+      <c r="S769" s="9" t="n"/>
     </row>
     <row r="770">
       <c r="A770" s="5" t="n">
@@ -18239,6 +18592,7 @@
         <f>IF(E770&gt;1,(1.732*D770*F770)/1000,(D770*F770)/1000)</f>
         <v/>
       </c>
+      <c r="S770" s="9" t="n"/>
     </row>
     <row r="771">
       <c r="A771" s="5" t="n">
@@ -18265,7 +18619,7 @@
         <f>IF(E771&gt;1,(1.732*D771*F771)/1000,(D771*F771)/1000)</f>
         <v/>
       </c>
-      <c r="S771" t="inlineStr">
+      <c r="S771" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -18285,7 +18639,7 @@
       </c>
       <c r="F772" s="7" t="n"/>
       <c r="G772" s="8" t="n"/>
-      <c r="S772" t="inlineStr">
+      <c r="S772" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -18307,6 +18661,7 @@
       </c>
       <c r="F773" s="7" t="n"/>
       <c r="G773" s="8" t="n"/>
+      <c r="S773" s="9" t="n"/>
     </row>
     <row r="774">
       <c r="A774" s="5" t="n">
@@ -18322,7 +18677,7 @@
       </c>
       <c r="F774" s="7" t="n"/>
       <c r="G774" s="8" t="n"/>
-      <c r="S774" t="inlineStr">
+      <c r="S774" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER PART OF ITEM #1108</t>
         </is>
@@ -18347,6 +18702,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S775" s="9" t="n"/>
     </row>
     <row r="776">
       <c r="A776" s="5" t="n">
@@ -18373,7 +18729,7 @@
         <f>IF(E776&gt;1,(1.732*D776*F776)/1000,(D776*F776)/1000)</f>
         <v/>
       </c>
-      <c r="S776" t="inlineStr">
+      <c r="S776" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWER</t>
         </is>
@@ -18398,7 +18754,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S777" t="inlineStr">
+      <c r="S777" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -18418,7 +18774,7 @@
       </c>
       <c r="F778" s="7" t="n"/>
       <c r="G778" s="8" t="n"/>
-      <c r="S778" t="inlineStr">
+      <c r="S778" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -18440,6 +18796,7 @@
       </c>
       <c r="F779" s="7" t="n"/>
       <c r="G779" s="8" t="n"/>
+      <c r="S779" s="9" t="n"/>
     </row>
     <row r="780">
       <c r="A780" s="5" t="n">
@@ -18473,6 +18830,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S780" s="9" t="n"/>
     </row>
     <row r="781">
       <c r="A781" s="5" t="n">
@@ -18493,6 +18851,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S781" s="9" t="n"/>
     </row>
     <row r="782">
       <c r="A782" s="5" t="n">
@@ -18508,6 +18867,7 @@
       </c>
       <c r="F782" s="7" t="n"/>
       <c r="G782" s="8" t="n"/>
+      <c r="S782" s="9" t="n"/>
     </row>
     <row r="783">
       <c r="A783" s="5" t="n">
@@ -18525,6 +18885,7 @@
       </c>
       <c r="F783" s="7" t="n"/>
       <c r="G783" s="8" t="n"/>
+      <c r="S783" s="9" t="n"/>
     </row>
     <row r="784">
       <c r="A784" s="5" t="n">
@@ -18542,6 +18903,7 @@
       </c>
       <c r="F784" s="7" t="n"/>
       <c r="G784" s="8" t="n"/>
+      <c r="S784" s="9" t="n"/>
     </row>
     <row r="785">
       <c r="A785" s="5" t="n">
@@ -18567,7 +18929,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S785" t="inlineStr">
+      <c r="S785" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -18587,6 +18949,7 @@
       </c>
       <c r="F786" s="7" t="n"/>
       <c r="G786" s="8" t="n"/>
+      <c r="S786" s="9" t="n"/>
     </row>
     <row r="787">
       <c r="A787" s="5" t="n">
@@ -18602,7 +18965,7 @@
       </c>
       <c r="F787" s="7" t="n"/>
       <c r="G787" s="8" t="n"/>
-      <c r="S787" t="inlineStr">
+      <c r="S787" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #1122</t>
         </is>
@@ -18622,7 +18985,7 @@
       </c>
       <c r="F788" s="7" t="n"/>
       <c r="G788" s="8" t="n"/>
-      <c r="S788" t="inlineStr">
+      <c r="S788" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -18644,6 +19007,7 @@
       </c>
       <c r="F789" s="7" t="n"/>
       <c r="G789" s="8" t="n"/>
+      <c r="S789" s="9" t="n"/>
     </row>
     <row r="790">
       <c r="A790" s="5" t="n">
@@ -18670,7 +19034,7 @@
         <f>IF(E790&gt;1,(1.732*D790*F790)/1000,(D790*F790)/1000)</f>
         <v/>
       </c>
-      <c r="S790" t="inlineStr">
+      <c r="S790" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -18690,7 +19054,7 @@
       </c>
       <c r="F791" s="7" t="n"/>
       <c r="G791" s="8" t="n"/>
-      <c r="S791" t="inlineStr">
+      <c r="S791" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -18715,6 +19079,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S792" s="9" t="n"/>
     </row>
     <row r="793">
       <c r="A793" s="5" t="n">
@@ -18732,6 +19097,7 @@
       </c>
       <c r="F793" s="7" t="n"/>
       <c r="G793" s="8" t="n"/>
+      <c r="S793" s="9" t="n"/>
     </row>
     <row r="794">
       <c r="A794" s="5" t="n">
@@ -18749,6 +19115,7 @@
       </c>
       <c r="F794" s="7" t="n"/>
       <c r="G794" s="8" t="n"/>
+      <c r="S794" s="9" t="n"/>
     </row>
     <row r="795">
       <c r="A795" s="5" t="n">
@@ -18764,7 +19131,7 @@
       </c>
       <c r="F795" s="7" t="n"/>
       <c r="G795" s="8" t="n"/>
-      <c r="S795" t="inlineStr">
+      <c r="S795" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -18808,7 +19175,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S796" t="inlineStr">
+      <c r="S796" s="9" t="inlineStr">
         <is>
           <t>180° RINSE</t>
         </is>
@@ -18833,6 +19200,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S797" s="9" t="n"/>
     </row>
     <row r="798">
       <c r="A798" s="5" t="n">
@@ -18848,7 +19216,7 @@
       </c>
       <c r="F798" s="7" t="n"/>
       <c r="G798" s="8" t="n"/>
-      <c r="S798" t="inlineStr">
+      <c r="S798" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -18870,6 +19238,7 @@
       </c>
       <c r="F799" s="7" t="n"/>
       <c r="G799" s="8" t="n"/>
+      <c r="S799" s="9" t="n"/>
     </row>
     <row r="800">
       <c r="A800" s="5" t="n">
@@ -18885,7 +19254,7 @@
       </c>
       <c r="F800" s="7" t="n"/>
       <c r="G800" s="8" t="n"/>
-      <c r="S800" t="inlineStr">
+      <c r="S800" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -18920,6 +19289,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S801" s="9" t="n"/>
     </row>
     <row r="802">
       <c r="A802" s="5" t="n">
@@ -18935,7 +19305,7 @@
       </c>
       <c r="F802" s="7" t="n"/>
       <c r="G802" s="8" t="n"/>
-      <c r="S802" t="inlineStr">
+      <c r="S802" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -18957,6 +19327,7 @@
       </c>
       <c r="F803" s="7" t="n"/>
       <c r="G803" s="8" t="n"/>
+      <c r="S803" s="9" t="n"/>
     </row>
     <row r="804">
       <c r="A804" s="5" t="n">
@@ -18974,6 +19345,7 @@
       </c>
       <c r="F804" s="7" t="n"/>
       <c r="G804" s="8" t="n"/>
+      <c r="S804" s="9" t="n"/>
     </row>
     <row r="805">
       <c r="A805" s="5" t="n">
@@ -19007,6 +19379,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S805" s="9" t="n"/>
     </row>
     <row r="806">
       <c r="A806" s="5" t="n">
@@ -19027,6 +19400,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S806" s="9" t="n"/>
     </row>
     <row r="807">
       <c r="A807" s="5" t="n">
@@ -19042,6 +19416,7 @@
       </c>
       <c r="F807" s="7" t="n"/>
       <c r="G807" s="8" t="n"/>
+      <c r="S807" s="9" t="n"/>
     </row>
     <row r="808">
       <c r="A808" s="5" t="n">
@@ -19067,7 +19442,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S808" t="inlineStr">
+      <c r="S808" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -19089,6 +19464,7 @@
       </c>
       <c r="F809" s="7" t="n"/>
       <c r="G809" s="8" t="n"/>
+      <c r="S809" s="9" t="n"/>
     </row>
     <row r="810">
       <c r="A810" s="5" t="n">
@@ -19104,6 +19480,7 @@
       </c>
       <c r="F810" s="7" t="n"/>
       <c r="G810" s="8" t="n"/>
+      <c r="S810" s="9" t="n"/>
     </row>
     <row r="811">
       <c r="A811" s="5" t="n">
@@ -19119,7 +19496,7 @@
       </c>
       <c r="F811" s="7" t="n"/>
       <c r="G811" s="8" t="n"/>
-      <c r="S811" t="inlineStr">
+      <c r="S811" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #1146</t>
         </is>
@@ -19139,7 +19516,7 @@
       </c>
       <c r="F812" s="7" t="n"/>
       <c r="G812" s="8" t="n"/>
-      <c r="S812" t="inlineStr">
+      <c r="S812" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -19161,6 +19538,7 @@
       </c>
       <c r="F813" s="7" t="n"/>
       <c r="G813" s="8" t="n"/>
+      <c r="S813" s="9" t="n"/>
     </row>
     <row r="814">
       <c r="A814" s="5" t="n">
@@ -19178,6 +19556,7 @@
       </c>
       <c r="F814" s="7" t="n"/>
       <c r="G814" s="8" t="n"/>
+      <c r="S814" s="9" t="n"/>
     </row>
     <row r="815">
       <c r="A815" s="5" t="n">
@@ -19204,7 +19583,7 @@
         <f>IF(E815&gt;1,(1.732*D815*F815)/1000,(D815*F815)/1000)</f>
         <v/>
       </c>
-      <c r="S815" t="inlineStr">
+      <c r="S815" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -19224,7 +19603,7 @@
       </c>
       <c r="F816" s="7" t="n"/>
       <c r="G816" s="8" t="n"/>
-      <c r="S816" t="inlineStr">
+      <c r="S816" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -19249,6 +19628,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S817" s="9" t="n"/>
     </row>
     <row r="818">
       <c r="A818" s="5" t="n">
@@ -19275,7 +19655,7 @@
         <f>IF(E818&gt;1,(1.732*D818*F818)/1000,(D818*F818)/1000)</f>
         <v/>
       </c>
-      <c r="S818" t="inlineStr">
+      <c r="S818" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWER</t>
         </is>
@@ -19297,6 +19677,7 @@
       </c>
       <c r="F819" s="7" t="n"/>
       <c r="G819" s="8" t="n"/>
+      <c r="S819" s="9" t="n"/>
     </row>
     <row r="820">
       <c r="A820" s="5" t="n">
@@ -19317,6 +19698,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S820" s="9" t="n"/>
     </row>
     <row r="821">
       <c r="A821" s="5" t="n">
@@ -19332,7 +19714,7 @@
       </c>
       <c r="F821" s="7" t="n"/>
       <c r="G821" s="8" t="n"/>
-      <c r="S821" t="inlineStr">
+      <c r="S821" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -19363,6 +19745,7 @@
         <f>IF(E822&gt;1,(1.732*D822*F822)/1000,(D822*F822)/1000)</f>
         <v/>
       </c>
+      <c r="S822" s="9" t="n"/>
     </row>
     <row r="823">
       <c r="A823" s="5" t="n">
@@ -19380,6 +19763,7 @@
       </c>
       <c r="F823" s="7" t="n"/>
       <c r="G823" s="8" t="n"/>
+      <c r="S823" s="9" t="n"/>
     </row>
     <row r="824">
       <c r="A824" s="5" t="n">
@@ -19397,6 +19781,7 @@
       </c>
       <c r="F824" s="7" t="n"/>
       <c r="G824" s="8" t="n"/>
+      <c r="S824" s="9" t="n"/>
     </row>
     <row r="825">
       <c r="A825" s="5" t="n">
@@ -19423,7 +19808,7 @@
         <f>IF(E825&gt;1,(1.732*D825*F825)/1000,(D825*F825)/1000)</f>
         <v/>
       </c>
-      <c r="S825" t="inlineStr">
+      <c r="S825" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -19445,6 +19830,7 @@
       </c>
       <c r="F826" s="7" t="n"/>
       <c r="G826" s="8" t="n"/>
+      <c r="S826" s="9" t="n"/>
     </row>
     <row r="827">
       <c r="A827" s="5" t="n">
@@ -19462,6 +19848,7 @@
       </c>
       <c r="F827" s="7" t="n"/>
       <c r="G827" s="8" t="n"/>
+      <c r="S827" s="9" t="n"/>
     </row>
     <row r="828">
       <c r="A828" s="5" t="n">
@@ -19479,6 +19866,7 @@
       </c>
       <c r="F828" s="7" t="n"/>
       <c r="G828" s="8" t="n"/>
+      <c r="S828" s="9" t="n"/>
     </row>
     <row r="829">
       <c r="A829" s="5" t="inlineStr">
@@ -19498,6 +19886,7 @@
       </c>
       <c r="F829" s="7" t="n"/>
       <c r="G829" s="8" t="n"/>
+      <c r="S829" s="9" t="n"/>
     </row>
     <row r="830">
       <c r="A830" s="3" t="inlineStr">
@@ -19543,7 +19932,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S831" t="inlineStr">
+      <c r="S831" s="9" t="inlineStr">
         <is>
           <t>2576LBS.</t>
         </is>
@@ -19568,7 +19957,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S832" t="inlineStr">
+      <c r="S832" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #1203</t>
         </is>
@@ -19622,7 +20011,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S833" t="inlineStr">
+      <c r="S833" s="9" t="inlineStr">
         <is>
           <t>1444LBS. WATER-COOLED CUBE ICE</t>
         </is>
@@ -19676,7 +20065,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S834" t="inlineStr">
+      <c r="S834" s="9" t="inlineStr">
         <is>
           <t>500LBS. WATER-COOLED FLAKE ICE</t>
         </is>
@@ -19701,7 +20090,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S835" t="inlineStr">
+      <c r="S835" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -19721,7 +20110,7 @@
       </c>
       <c r="F836" s="7" t="n"/>
       <c r="G836" s="8" t="n"/>
-      <c r="S836" t="inlineStr">
+      <c r="S836" s="9" t="inlineStr">
         <is>
           <t>MOBILE 250LBS.</t>
         </is>
@@ -19741,7 +20130,7 @@
       </c>
       <c r="F837" s="7" t="n"/>
       <c r="G837" s="8" t="n"/>
-      <c r="S837" t="inlineStr">
+      <c r="S837" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -19772,7 +20161,7 @@
         <f>IF(E838&gt;1,(1.732*D838*F838)/1000,(D838*F838)/1000)</f>
         <v/>
       </c>
-      <c r="S838" t="inlineStr">
+      <c r="S838" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -19797,7 +20186,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S839" t="inlineStr">
+      <c r="S839" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #1204</t>
         </is>
@@ -19819,6 +20208,7 @@
       </c>
       <c r="F840" s="7" t="n"/>
       <c r="G840" s="8" t="n"/>
+      <c r="S840" s="9" t="n"/>
     </row>
     <row r="841">
       <c r="A841" s="5" t="n">
@@ -19834,7 +20224,7 @@
       </c>
       <c r="F841" s="7" t="n"/>
       <c r="G841" s="8" t="n"/>
-      <c r="S841" t="inlineStr">
+      <c r="S841" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -19870,7 +20260,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S842" t="inlineStr">
+      <c r="S842" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR</t>
         </is>
@@ -19890,7 +20280,7 @@
       </c>
       <c r="F843" s="7" t="n"/>
       <c r="G843" s="8" t="n"/>
-      <c r="S843" t="inlineStr">
+      <c r="S843" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -19921,7 +20311,7 @@
         <f>IF(E844&gt;1,(1.732*D844*F844)/1000,(D844*F844)/1000)</f>
         <v/>
       </c>
-      <c r="S844" t="inlineStr">
+      <c r="S844" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -19962,7 +20352,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S845" t="inlineStr">
+      <c r="S845" s="9" t="inlineStr">
         <is>
           <t>INDOOR WATER-COOLED ON EMERGENCY POWER</t>
         </is>
@@ -19993,6 +20383,7 @@
         <f>IF(E846&gt;1,(1.732*D846*F846)/1000,(D846*F846)/1000)</f>
         <v/>
       </c>
+      <c r="S846" s="9" t="n"/>
     </row>
     <row r="847">
       <c r="A847" s="5" t="n">
@@ -20013,7 +20404,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S847" t="inlineStr">
+      <c r="S847" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -20049,7 +20440,7 @@
           <t>3/4"</t>
         </is>
       </c>
-      <c r="S848" t="inlineStr">
+      <c r="S848" s="9" t="inlineStr">
         <is>
           <t>ON EMERGENCY POWER</t>
         </is>
@@ -20071,6 +20462,7 @@
       </c>
       <c r="F849" s="7" t="n"/>
       <c r="G849" s="8" t="n"/>
+      <c r="S849" s="9" t="n"/>
     </row>
     <row r="850">
       <c r="A850" s="5" t="n">
@@ -20088,6 +20480,7 @@
       </c>
       <c r="F850" s="7" t="n"/>
       <c r="G850" s="8" t="n"/>
+      <c r="S850" s="9" t="n"/>
     </row>
     <row r="851">
       <c r="A851" s="5" t="n">
@@ -20103,7 +20496,7 @@
       </c>
       <c r="F851" s="7" t="n"/>
       <c r="G851" s="8" t="n"/>
-      <c r="S851" t="inlineStr">
+      <c r="S851" s="9" t="inlineStr">
         <is>
           <t>MOBILE FIVE TIER</t>
         </is>
@@ -20123,6 +20516,7 @@
       </c>
       <c r="F852" s="7" t="n"/>
       <c r="G852" s="8" t="n"/>
+      <c r="S852" s="9" t="n"/>
     </row>
     <row r="853">
       <c r="A853" s="5" t="n">
@@ -20138,7 +20532,7 @@
       </c>
       <c r="F853" s="7" t="n"/>
       <c r="G853" s="8" t="n"/>
-      <c r="S853" t="inlineStr">
+      <c r="S853" s="9" t="inlineStr">
         <is>
           <t>FIXED FIVE TIER</t>
         </is>
@@ -20158,7 +20552,7 @@
       </c>
       <c r="F854" s="7" t="n"/>
       <c r="G854" s="8" t="n"/>
-      <c r="S854" t="inlineStr">
+      <c r="S854" s="9" t="inlineStr">
         <is>
           <t>WALL MOUNTED</t>
         </is>
@@ -20199,7 +20593,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S855" t="inlineStr">
+      <c r="S855" s="9" t="inlineStr">
         <is>
           <t>WATER-COOLED</t>
         </is>
@@ -20273,7 +20667,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S857" t="inlineStr">
+      <c r="S857" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -20314,7 +20708,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S858" t="inlineStr">
+      <c r="S858" s="9" t="inlineStr">
         <is>
           <t>VENTLESS</t>
         </is>
@@ -20345,7 +20739,7 @@
         <f>IF(E859&gt;1,(1.732*D859*F859)/1000,(D859*F859)/1000)</f>
         <v/>
       </c>
-      <c r="S859" t="inlineStr">
+      <c r="S859" s="9" t="inlineStr">
         <is>
           <t>VENTLESS</t>
         </is>
@@ -20367,6 +20761,7 @@
       </c>
       <c r="F860" s="7" t="n"/>
       <c r="G860" s="8" t="n"/>
+      <c r="S860" s="9" t="n"/>
     </row>
     <row r="861">
       <c r="A861" s="5" t="n">
@@ -20384,6 +20779,7 @@
       </c>
       <c r="F861" s="7" t="n"/>
       <c r="G861" s="8" t="n"/>
+      <c r="S861" s="9" t="n"/>
     </row>
     <row r="862">
       <c r="A862" s="5" t="n">
@@ -20415,7 +20811,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S862" t="inlineStr">
+      <c r="S862" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS PART OF ITEM #1226</t>
         </is>
@@ -20446,6 +20842,7 @@
         <f>IF(E863&gt;1,(1.732*D863*F863)/1000,(D863*F863)/1000)</f>
         <v/>
       </c>
+      <c r="S863" s="9" t="n"/>
     </row>
     <row r="864">
       <c r="A864" s="5" t="n">
@@ -20461,7 +20858,7 @@
       </c>
       <c r="F864" s="7" t="n"/>
       <c r="G864" s="8" t="n"/>
-      <c r="S864" t="inlineStr">
+      <c r="S864" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -20497,7 +20894,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S865" t="inlineStr">
+      <c r="S865" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DOORS AND NSF7 RAIL PART OF ITEM #1226</t>
         </is>
@@ -20519,6 +20916,7 @@
       </c>
       <c r="F866" s="7" t="n"/>
       <c r="G866" s="8" t="n"/>
+      <c r="S866" s="9" t="n"/>
     </row>
     <row r="867">
       <c r="A867" s="5" t="n">
@@ -20534,7 +20932,7 @@
       </c>
       <c r="F867" s="7" t="n"/>
       <c r="G867" s="8" t="n"/>
-      <c r="S867" t="inlineStr">
+      <c r="S867" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #1226</t>
         </is>
@@ -20565,7 +20963,7 @@
         <f>IF(E868&gt;1,(1.732*D868*F868)/1000,(D868*F868)/1000)</f>
         <v/>
       </c>
-      <c r="S868" t="inlineStr">
+      <c r="S868" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -20603,7 +21001,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S869" t="inlineStr">
+      <c r="S869" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -20625,6 +21023,7 @@
       </c>
       <c r="F870" s="7" t="n"/>
       <c r="G870" s="8" t="n"/>
+      <c r="S870" s="9" t="n"/>
     </row>
     <row r="871">
       <c r="A871" s="5" t="n">
@@ -20642,6 +21041,7 @@
       </c>
       <c r="F871" s="7" t="n"/>
       <c r="G871" s="8" t="n"/>
+      <c r="S871" s="9" t="n"/>
     </row>
     <row r="872">
       <c r="A872" s="5" t="n">
@@ -20657,7 +21057,7 @@
       </c>
       <c r="F872" s="7" t="n"/>
       <c r="G872" s="8" t="n"/>
-      <c r="S872" t="inlineStr">
+      <c r="S872" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #1237</t>
         </is>
@@ -20677,7 +21077,7 @@
       </c>
       <c r="F873" s="7" t="n"/>
       <c r="G873" s="8" t="n"/>
-      <c r="S873" t="inlineStr">
+      <c r="S873" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -20697,7 +21097,7 @@
       </c>
       <c r="F874" s="7" t="n"/>
       <c r="G874" s="8" t="n"/>
-      <c r="S874" t="inlineStr">
+      <c r="S874" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #1237</t>
         </is>
@@ -20733,7 +21133,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S875" t="inlineStr">
+      <c r="S875" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #1237</t>
         </is>
@@ -20755,6 +21155,7 @@
       </c>
       <c r="F876" s="7" t="n"/>
       <c r="G876" s="8" t="n"/>
+      <c r="S876" s="9" t="n"/>
     </row>
     <row r="877">
       <c r="A877" s="5" t="n">
@@ -20770,7 +21171,7 @@
       </c>
       <c r="F877" s="7" t="n"/>
       <c r="G877" s="8" t="n"/>
-      <c r="S877" t="inlineStr">
+      <c r="S877" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #1237</t>
         </is>
@@ -20801,6 +21202,7 @@
         <f>IF(E878&gt;1,(1.732*D878*F878)/1000,(D878*F878)/1000)</f>
         <v/>
       </c>
+      <c r="S878" s="9" t="n"/>
     </row>
     <row r="879">
       <c r="A879" s="5" t="n">
@@ -20827,6 +21229,7 @@
         <f>IF(E879&gt;1,(1.732*D879*F879)/1000,(D879*F879)/1000)</f>
         <v/>
       </c>
+      <c r="S879" s="9" t="n"/>
     </row>
     <row r="880">
       <c r="A880" s="5" t="n">
@@ -20844,6 +21247,7 @@
       </c>
       <c r="F880" s="7" t="n"/>
       <c r="G880" s="8" t="n"/>
+      <c r="S880" s="9" t="n"/>
     </row>
     <row r="881">
       <c r="A881" s="5" t="n">
@@ -20861,6 +21265,7 @@
       </c>
       <c r="F881" s="7" t="n"/>
       <c r="G881" s="8" t="n"/>
+      <c r="S881" s="9" t="n"/>
     </row>
     <row r="882">
       <c r="A882" s="5" t="n">
@@ -20892,7 +21297,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S882" t="inlineStr">
+      <c r="S882" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WITH DRAWERS AND NSF7 RAIL PART OF ITEM #1237</t>
         </is>
@@ -20923,6 +21328,7 @@
         <f>IF(E883&gt;1,(1.732*D883*F883)/1000,(D883*F883)/1000)</f>
         <v/>
       </c>
+      <c r="S883" s="9" t="n"/>
     </row>
     <row r="884">
       <c r="A884" s="5" t="n">
@@ -20938,7 +21344,7 @@
       </c>
       <c r="F884" s="7" t="n"/>
       <c r="G884" s="8" t="n"/>
-      <c r="S884" t="inlineStr">
+      <c r="S884" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #1237</t>
         </is>
@@ -20960,6 +21366,7 @@
       </c>
       <c r="F885" s="7" t="n"/>
       <c r="G885" s="8" t="n"/>
+      <c r="S885" s="9" t="n"/>
     </row>
     <row r="886">
       <c r="A886" s="5" t="n">
@@ -20977,6 +21384,7 @@
       </c>
       <c r="F886" s="7" t="n"/>
       <c r="G886" s="8" t="n"/>
+      <c r="S886" s="9" t="n"/>
     </row>
     <row r="887">
       <c r="A887" s="3" t="inlineStr">
@@ -21035,7 +21443,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S888" t="inlineStr">
+      <c r="S888" s="9" t="inlineStr">
         <is>
           <t>WITH SOAP &amp; TOWEL DISPENSER</t>
         </is>
@@ -21055,7 +21463,7 @@
       </c>
       <c r="F889" s="7" t="n"/>
       <c r="G889" s="8" t="n"/>
-      <c r="S889" t="inlineStr">
+      <c r="S889" s="9" t="inlineStr">
         <is>
           <t>SLIM JIM</t>
         </is>
@@ -21080,7 +21488,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S890" t="inlineStr">
+      <c r="S890" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -21102,6 +21510,7 @@
       </c>
       <c r="F891" s="7" t="n"/>
       <c r="G891" s="8" t="n"/>
+      <c r="S891" s="9" t="n"/>
     </row>
     <row r="892">
       <c r="A892" s="5" t="n">
@@ -21119,6 +21528,7 @@
       </c>
       <c r="F892" s="7" t="n"/>
       <c r="G892" s="8" t="n"/>
+      <c r="S892" s="9" t="n"/>
     </row>
     <row r="893">
       <c r="A893" s="5" t="n">
@@ -21134,7 +21544,7 @@
       </c>
       <c r="F893" s="7" t="n"/>
       <c r="G893" s="8" t="n"/>
-      <c r="S893" t="inlineStr">
+      <c r="S893" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -21154,7 +21564,7 @@
       </c>
       <c r="F894" s="7" t="n"/>
       <c r="G894" s="8" t="n"/>
-      <c r="S894" t="inlineStr">
+      <c r="S894" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #1258</t>
         </is>
@@ -21174,7 +21584,7 @@
       </c>
       <c r="F895" s="7" t="n"/>
       <c r="G895" s="8" t="n"/>
-      <c r="S895" t="inlineStr">
+      <c r="S895" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -21194,7 +21604,7 @@
       </c>
       <c r="F896" s="7" t="n"/>
       <c r="G896" s="8" t="n"/>
-      <c r="S896" t="inlineStr">
+      <c r="S896" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -21216,6 +21626,7 @@
       </c>
       <c r="F897" s="7" t="n"/>
       <c r="G897" s="8" t="n"/>
+      <c r="S897" s="9" t="n"/>
     </row>
     <row r="898">
       <c r="A898" s="5" t="n">
@@ -21231,7 +21642,7 @@
       </c>
       <c r="F898" s="7" t="n"/>
       <c r="G898" s="8" t="n"/>
-      <c r="S898" t="inlineStr">
+      <c r="S898" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -21264,7 +21675,7 @@
       <c r="J899" t="n">
         <v>50</v>
       </c>
-      <c r="S899" t="inlineStr">
+      <c r="S899" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -21316,7 +21727,7 @@
       <c r="P900" t="n">
         <v>4300</v>
       </c>
-      <c r="S900" t="inlineStr">
+      <c r="S900" s="9" t="inlineStr">
         <is>
           <t>180°F RINSE VENTLESS</t>
         </is>
@@ -21338,6 +21749,7 @@
       </c>
       <c r="F901" s="7" t="n"/>
       <c r="G901" s="8" t="n"/>
+      <c r="S901" s="9" t="n"/>
     </row>
     <row r="902">
       <c r="A902" s="5" t="n">
@@ -21355,6 +21767,7 @@
       </c>
       <c r="F902" s="7" t="n"/>
       <c r="G902" s="8" t="n"/>
+      <c r="S902" s="9" t="n"/>
     </row>
     <row r="903">
       <c r="A903" s="5" t="n">
@@ -21370,7 +21783,7 @@
       </c>
       <c r="F903" s="7" t="n"/>
       <c r="G903" s="8" t="n"/>
-      <c r="S903" t="inlineStr">
+      <c r="S903" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -21390,7 +21803,7 @@
       </c>
       <c r="F904" s="7" t="n"/>
       <c r="G904" s="8" t="n"/>
-      <c r="S904" t="inlineStr">
+      <c r="S904" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION WALL MOUNTED</t>
         </is>
@@ -21428,7 +21841,7 @@
           <t>(3)2"</t>
         </is>
       </c>
-      <c r="S905" t="inlineStr">
+      <c r="S905" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -21448,7 +21861,7 @@
       </c>
       <c r="F906" s="7" t="n"/>
       <c r="G906" s="8" t="n"/>
-      <c r="S906" t="inlineStr">
+      <c r="S906" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -21470,6 +21883,7 @@
       </c>
       <c r="F907" s="7" t="n"/>
       <c r="G907" s="8" t="n"/>
+      <c r="S907" s="9" t="n"/>
     </row>
     <row r="908">
       <c r="A908" s="5" t="n">
@@ -21498,7 +21912,7 @@
       <c r="J908" t="n">
         <v>50</v>
       </c>
-      <c r="S908" t="inlineStr">
+      <c r="S908" s="9" t="inlineStr">
         <is>
           <t>WITH FAUCET</t>
         </is>
@@ -21518,7 +21932,7 @@
       </c>
       <c r="F909" s="7" t="n"/>
       <c r="G909" s="8" t="n"/>
-      <c r="S909" t="inlineStr">
+      <c r="S909" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -21538,7 +21952,7 @@
       </c>
       <c r="F910" s="7" t="n"/>
       <c r="G910" s="8" t="n"/>
-      <c r="S910" t="inlineStr">
+      <c r="S910" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -21560,6 +21974,7 @@
       </c>
       <c r="F911" s="7" t="n"/>
       <c r="G911" s="8" t="n"/>
+      <c r="S911" s="9" t="n"/>
     </row>
     <row r="912">
       <c r="A912" s="5" t="n">
@@ -21577,6 +21992,7 @@
       </c>
       <c r="F912" s="7" t="n"/>
       <c r="G912" s="8" t="n"/>
+      <c r="S912" s="9" t="n"/>
     </row>
     <row r="913">
       <c r="A913" s="5" t="n">
@@ -21597,7 +22013,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S913" t="inlineStr">
+      <c r="S913" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -21617,7 +22033,7 @@
       </c>
       <c r="F914" s="7" t="n"/>
       <c r="G914" s="8" t="n"/>
-      <c r="S914" t="inlineStr">
+      <c r="S914" s="9" t="inlineStr">
         <is>
           <t>MOBILE FOUR TIER</t>
         </is>
@@ -21655,7 +22071,7 @@
           <t>2"</t>
         </is>
       </c>
-      <c r="S915" t="inlineStr">
+      <c r="S915" s="9" t="inlineStr">
         <is>
           <t>WITH HOSE BIBB</t>
         </is>
@@ -21685,7 +22101,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S916" t="inlineStr">
+      <c r="S916" s="9" t="inlineStr">
         <is>
           <t>BY GENERAL CONTRACTOR</t>
         </is>
@@ -21709,6 +22125,7 @@
       </c>
       <c r="F917" s="7" t="n"/>
       <c r="G917" s="8" t="n"/>
+      <c r="S917" s="9" t="n"/>
     </row>
     <row r="918">
       <c r="A918" s="3" t="inlineStr">
@@ -21749,7 +22166,7 @@
       </c>
       <c r="F919" s="7" t="n"/>
       <c r="G919" s="8" t="n"/>
-      <c r="S919" t="inlineStr">
+      <c r="S919" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -21769,7 +22186,7 @@
       </c>
       <c r="F920" s="7" t="n"/>
       <c r="G920" s="8" t="n"/>
-      <c r="S920" t="inlineStr">
+      <c r="S920" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER WITH DRINK RAIL GRANITE TOP</t>
         </is>
@@ -21789,7 +22206,7 @@
       </c>
       <c r="F921" s="7" t="n"/>
       <c r="G921" s="8" t="n"/>
-      <c r="S921" t="inlineStr">
+      <c r="S921" s="9" t="inlineStr">
         <is>
           <t>BY INTERIOR DESIGNER PART OF ITEM #1302</t>
         </is>
@@ -21814,7 +22231,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S922" t="inlineStr">
+      <c r="S922" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -21836,6 +22253,7 @@
       </c>
       <c r="F923" s="7" t="n"/>
       <c r="G923" s="8" t="n"/>
+      <c r="S923" s="9" t="n"/>
     </row>
     <row r="924">
       <c r="A924" s="5" t="n">
@@ -21851,7 +22269,7 @@
       </c>
       <c r="F924" s="7" t="n"/>
       <c r="G924" s="8" t="n"/>
-      <c r="S924" t="inlineStr">
+      <c r="S924" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -21881,7 +22299,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S925" t="inlineStr">
+      <c r="S925" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -21919,6 +22337,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S926" s="9" t="n"/>
     </row>
     <row r="927">
       <c r="A927" s="5" t="n">
@@ -21936,6 +22355,7 @@
       </c>
       <c r="F927" s="7" t="n"/>
       <c r="G927" s="8" t="n"/>
+      <c r="S927" s="9" t="n"/>
     </row>
     <row r="928">
       <c r="A928" s="5" t="n">
@@ -21953,6 +22373,7 @@
       </c>
       <c r="F928" s="7" t="n"/>
       <c r="G928" s="8" t="n"/>
+      <c r="S928" s="9" t="n"/>
     </row>
     <row r="929">
       <c r="A929" s="5" t="n">
@@ -21973,6 +22394,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S929" s="9" t="n"/>
     </row>
     <row r="930">
       <c r="A930" s="5" t="n">
@@ -21988,6 +22410,7 @@
       </c>
       <c r="F930" s="7" t="n"/>
       <c r="G930" s="8" t="n"/>
+      <c r="S930" s="9" t="n"/>
     </row>
     <row r="931">
       <c r="A931" s="5" t="n">
@@ -22003,6 +22426,7 @@
       </c>
       <c r="F931" s="7" t="n"/>
       <c r="G931" s="8" t="n"/>
+      <c r="S931" s="9" t="n"/>
     </row>
     <row r="932">
       <c r="A932" s="5" t="n">
@@ -22018,7 +22442,7 @@
       </c>
       <c r="F932" s="7" t="n"/>
       <c r="G932" s="8" t="n"/>
-      <c r="S932" t="inlineStr">
+      <c r="S932" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #1313</t>
         </is>
@@ -22040,6 +22464,7 @@
       </c>
       <c r="F933" s="7" t="n"/>
       <c r="G933" s="8" t="n"/>
+      <c r="S933" s="9" t="n"/>
     </row>
     <row r="934">
       <c r="A934" s="5" t="n">
@@ -22066,7 +22491,7 @@
         <f>IF(E934&gt;1,(1.732*D934*F934)/1000,(D934*F934)/1000)</f>
         <v/>
       </c>
-      <c r="S934" t="inlineStr">
+      <c r="S934" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -22086,7 +22511,7 @@
       </c>
       <c r="F935" s="7" t="n"/>
       <c r="G935" s="8" t="n"/>
-      <c r="S935" t="inlineStr">
+      <c r="S935" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -22111,6 +22536,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S936" s="9" t="n"/>
     </row>
     <row r="937">
       <c r="A937" s="5" t="n">
@@ -22128,6 +22554,7 @@
       </c>
       <c r="F937" s="7" t="n"/>
       <c r="G937" s="8" t="n"/>
+      <c r="S937" s="9" t="n"/>
     </row>
     <row r="938">
       <c r="A938" s="5" t="n">
@@ -22145,6 +22572,7 @@
       </c>
       <c r="F938" s="7" t="n"/>
       <c r="G938" s="8" t="n"/>
+      <c r="S938" s="9" t="n"/>
     </row>
     <row r="939">
       <c r="A939" s="5" t="n">
@@ -22170,7 +22598,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S939" t="inlineStr">
+      <c r="S939" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -22214,7 +22642,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S940" t="inlineStr">
+      <c r="S940" s="9" t="inlineStr">
         <is>
           <t>180° RINSE</t>
         </is>
@@ -22239,6 +22667,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S941" s="9" t="n"/>
     </row>
     <row r="942">
       <c r="A942" s="5" t="n">
@@ -22269,6 +22698,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S942" s="9" t="n"/>
     </row>
     <row r="943">
       <c r="A943" s="5" t="n">
@@ -22286,6 +22716,7 @@
       </c>
       <c r="F943" s="7" t="n"/>
       <c r="G943" s="8" t="n"/>
+      <c r="S943" s="9" t="n"/>
     </row>
     <row r="944">
       <c r="A944" s="5" t="n">
@@ -22301,7 +22732,7 @@
       </c>
       <c r="F944" s="7" t="n"/>
       <c r="G944" s="8" t="n"/>
-      <c r="S944" t="inlineStr">
+      <c r="S944" s="9" t="inlineStr">
         <is>
           <t>WITH SLIM JIM</t>
         </is>
@@ -22339,6 +22770,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
+      <c r="S945" s="9" t="n"/>
     </row>
     <row r="946">
       <c r="A946" s="5" t="n">
@@ -22359,6 +22791,7 @@
           <t>1"</t>
         </is>
       </c>
+      <c r="S946" s="9" t="n"/>
     </row>
     <row r="947">
       <c r="A947" s="5" t="n">
@@ -22376,6 +22809,7 @@
       </c>
       <c r="F947" s="7" t="n"/>
       <c r="G947" s="8" t="n"/>
+      <c r="S947" s="9" t="n"/>
     </row>
     <row r="948">
       <c r="A948" s="5" t="n">
@@ -22393,6 +22827,7 @@
       </c>
       <c r="F948" s="7" t="n"/>
       <c r="G948" s="8" t="n"/>
+      <c r="S948" s="9" t="n"/>
     </row>
     <row r="949">
       <c r="A949" s="5" t="n">
@@ -22408,6 +22843,7 @@
       </c>
       <c r="F949" s="7" t="n"/>
       <c r="G949" s="8" t="n"/>
+      <c r="S949" s="9" t="n"/>
     </row>
     <row r="950">
       <c r="A950" s="5" t="n">
@@ -22423,6 +22859,7 @@
       </c>
       <c r="F950" s="7" t="n"/>
       <c r="G950" s="8" t="n"/>
+      <c r="S950" s="9" t="n"/>
     </row>
     <row r="951">
       <c r="A951" s="5" t="n">
@@ -22438,7 +22875,7 @@
       </c>
       <c r="F951" s="7" t="n"/>
       <c r="G951" s="8" t="n"/>
-      <c r="S951" t="inlineStr">
+      <c r="S951" s="9" t="inlineStr">
         <is>
           <t>BY VENDOR CONNECTED TO ITEM #1332</t>
         </is>
@@ -22468,7 +22905,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S952" t="inlineStr">
+      <c r="S952" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -22490,6 +22927,7 @@
       </c>
       <c r="F953" s="7" t="n"/>
       <c r="G953" s="8" t="n"/>
+      <c r="S953" s="9" t="n"/>
     </row>
     <row r="954">
       <c r="A954" s="5" t="n">
@@ -22516,7 +22954,7 @@
         <f>IF(E954&gt;1,(1.732*D954*F954)/1000,(D954*F954)/1000)</f>
         <v/>
       </c>
-      <c r="S954" t="inlineStr">
+      <c r="S954" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -22536,7 +22974,7 @@
       </c>
       <c r="F955" s="7" t="n"/>
       <c r="G955" s="8" t="n"/>
-      <c r="S955" t="inlineStr">
+      <c r="S955" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -22561,7 +22999,7 @@
           <t>1-1/2"</t>
         </is>
       </c>
-      <c r="S956" t="inlineStr">
+      <c r="S956" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN</t>
         </is>
@@ -22583,6 +23021,7 @@
       </c>
       <c r="F957" s="7" t="n"/>
       <c r="G957" s="8" t="n"/>
+      <c r="S957" s="9" t="n"/>
     </row>
     <row r="958">
       <c r="A958" s="5" t="n">
@@ -22600,6 +23039,7 @@
       </c>
       <c r="F958" s="7" t="n"/>
       <c r="G958" s="8" t="n"/>
+      <c r="S958" s="9" t="n"/>
     </row>
     <row r="959">
       <c r="A959" s="5" t="n">
@@ -22625,7 +23065,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S959" t="inlineStr">
+      <c r="S959" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -22645,7 +23085,7 @@
       </c>
       <c r="F960" s="7" t="n"/>
       <c r="G960" s="8" t="n"/>
-      <c r="S960" t="inlineStr">
+      <c r="S960" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -22676,7 +23116,7 @@
         <f>IF(E961&gt;1,(1.732*D961*F961)/1000,(D961*F961)/1000)</f>
         <v/>
       </c>
-      <c r="S961" t="inlineStr">
+      <c r="S961" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWER</t>
         </is>
@@ -22707,7 +23147,7 @@
         <f>IF(E962&gt;1,(1.732*D962*F962)/1000,(D962*F962)/1000)</f>
         <v/>
       </c>
-      <c r="S962" t="inlineStr">
+      <c r="S962" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -22729,6 +23169,7 @@
       </c>
       <c r="F963" s="7" t="n"/>
       <c r="G963" s="8" t="n"/>
+      <c r="S963" s="9" t="n"/>
     </row>
     <row r="964">
       <c r="A964" s="5" t="n">
@@ -22744,7 +23185,7 @@
       </c>
       <c r="F964" s="7" t="n"/>
       <c r="G964" s="8" t="n"/>
-      <c r="S964" t="inlineStr">
+      <c r="S964" s="9" t="inlineStr">
         <is>
           <t>3 TAP</t>
         </is>
@@ -22774,7 +23215,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S965" t="inlineStr">
+      <c r="S965" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -22805,7 +23246,7 @@
         <f>IF(E966&gt;1,(1.732*D966*F966)/1000,(D966*F966)/1000)</f>
         <v/>
       </c>
-      <c r="S966" t="inlineStr">
+      <c r="S966" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -22827,6 +23268,7 @@
       </c>
       <c r="F967" s="7" t="n"/>
       <c r="G967" s="8" t="n"/>
+      <c r="S967" s="9" t="n"/>
     </row>
     <row r="968">
       <c r="A968" s="5" t="n">
@@ -22844,6 +23286,7 @@
       </c>
       <c r="F968" s="7" t="n"/>
       <c r="G968" s="8" t="n"/>
+      <c r="S968" s="9" t="n"/>
     </row>
     <row r="969">
       <c r="A969" s="5" t="n">
@@ -22870,7 +23313,7 @@
         <f>IF(E969&gt;1,(1.732*D969*F969)/1000,(D969*F969)/1000)</f>
         <v/>
       </c>
-      <c r="S969" t="inlineStr">
+      <c r="S969" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -22890,7 +23333,7 @@
       </c>
       <c r="F970" s="7" t="n"/>
       <c r="G970" s="8" t="n"/>
-      <c r="S970" t="inlineStr">
+      <c r="S970" s="9" t="inlineStr">
         <is>
           <t>3 TAP</t>
         </is>
@@ -22920,7 +23363,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S971" t="inlineStr">
+      <c r="S971" s="9" t="inlineStr">
         <is>
           <t>WITH RINSER</t>
         </is>
@@ -22951,7 +23394,7 @@
         <f>IF(E972&gt;1,(1.732*D972*F972)/1000,(D972*F972)/1000)</f>
         <v/>
       </c>
-      <c r="S972" t="inlineStr">
+      <c r="S972" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -22973,6 +23416,7 @@
       </c>
       <c r="F973" s="7" t="n"/>
       <c r="G973" s="8" t="n"/>
+      <c r="S973" s="9" t="n"/>
     </row>
     <row r="974">
       <c r="A974" s="5" t="n">
@@ -22999,7 +23443,7 @@
         <f>IF(E974&gt;1,(1.732*D974*F974)/1000,(D974*F974)/1000)</f>
         <v/>
       </c>
-      <c r="S974" t="inlineStr">
+      <c r="S974" s="9" t="inlineStr">
         <is>
           <t>MOBILE WITH DRAWER</t>
         </is>
@@ -23021,6 +23465,7 @@
       </c>
       <c r="F975" s="7" t="n"/>
       <c r="G975" s="8" t="n"/>
+      <c r="S975" s="9" t="n"/>
     </row>
     <row r="976">
       <c r="A976" s="5" t="n">
@@ -23038,6 +23483,7 @@
       </c>
       <c r="F976" s="7" t="n"/>
       <c r="G976" s="8" t="n"/>
+      <c r="S976" s="9" t="n"/>
     </row>
     <row r="977">
       <c r="A977" s="5" t="n">
@@ -23055,6 +23501,7 @@
       </c>
       <c r="F977" s="7" t="n"/>
       <c r="G977" s="8" t="n"/>
+      <c r="S977" s="9" t="n"/>
     </row>
     <row r="978">
       <c r="A978" s="5" t="inlineStr">
@@ -23074,6 +23521,7 @@
       </c>
       <c r="F978" s="7" t="n"/>
       <c r="G978" s="8" t="n"/>
+      <c r="S978" s="9" t="n"/>
     </row>
     <row r="979">
       <c r="A979" s="3" t="inlineStr">
@@ -23125,7 +23573,7 @@
         <f>IF(E980&gt;1,(1.732*D980*F980)/1000,(D980*F980)/1000)</f>
         <v/>
       </c>
-      <c r="S980" t="inlineStr">
+      <c r="S980" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -23169,7 +23617,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S981" t="inlineStr">
+      <c r="S981" s="9" t="inlineStr">
         <is>
           <t>3 WELLS AUTOFILL</t>
         </is>
@@ -23200,6 +23648,7 @@
         <f>IF(E982&gt;1,(1.732*D982*F982)/1000,(D982*F982)/1000)</f>
         <v/>
       </c>
+      <c r="S982" s="9" t="n"/>
     </row>
     <row r="983">
       <c r="A983" s="5" t="n">
@@ -23226,7 +23675,7 @@
         <f>IF(E983&gt;1,(1.732*D983*F983)/1000,(D983*F983)/1000)</f>
         <v/>
       </c>
-      <c r="S983" t="inlineStr">
+      <c r="S983" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LIGHTS</t>
         </is>
@@ -23248,6 +23697,7 @@
       </c>
       <c r="F984" s="7" t="n"/>
       <c r="G984" s="8" t="n"/>
+      <c r="S984" s="9" t="n"/>
     </row>
     <row r="985">
       <c r="A985" s="5" t="n">
@@ -23279,7 +23729,7 @@
           <t>1"</t>
         </is>
       </c>
-      <c r="S985" t="inlineStr">
+      <c r="S985" s="9" t="inlineStr">
         <is>
           <t>3 WELLS</t>
         </is>
@@ -23310,7 +23760,7 @@
         <f>IF(E986&gt;1,(1.732*D986*F986)/1000,(D986*F986)/1000)</f>
         <v/>
       </c>
-      <c r="S986" t="inlineStr">
+      <c r="S986" s="9" t="inlineStr">
         <is>
           <t>CUSTOM DESIGN WITH LIGHTS</t>
         </is>
@@ -23341,6 +23791,7 @@
         <f>IF(E987&gt;1,(1.732*D987*F987)/1000,(D987*F987)/1000)</f>
         <v/>
       </c>
+      <c r="S987" s="9" t="n"/>
     </row>
     <row r="988">
       <c r="A988" s="5" t="n">
@@ -23358,6 +23809,7 @@
       </c>
       <c r="F988" s="7" t="n"/>
       <c r="G988" s="8" t="n"/>
+      <c r="S988" s="9" t="n"/>
     </row>
     <row r="989">
       <c r="A989" s="5" t="n">
@@ -23375,6 +23827,7 @@
       </c>
       <c r="F989" s="7" t="n"/>
       <c r="G989" s="8" t="n"/>
+      <c r="S989" s="9" t="n"/>
     </row>
     <row r="990">
       <c r="A990" s="5" t="n">
@@ -23390,7 +23843,7 @@
       </c>
       <c r="F990" s="7" t="n"/>
       <c r="G990" s="8" t="n"/>
-      <c r="S990" t="inlineStr">
+      <c r="S990" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -23410,7 +23863,7 @@
       </c>
       <c r="F991" s="7" t="n"/>
       <c r="G991" s="8" t="n"/>
-      <c r="S991" t="inlineStr">
+      <c r="S991" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION</t>
         </is>
@@ -23430,7 +23883,7 @@
       </c>
       <c r="F992" s="7" t="n"/>
       <c r="G992" s="8" t="n"/>
-      <c r="S992" t="inlineStr">
+      <c r="S992" s="9" t="inlineStr">
         <is>
           <t>MOBILE</t>
         </is>
@@ -23450,7 +23903,7 @@
       </c>
       <c r="F993" s="7" t="n"/>
       <c r="G993" s="8" t="n"/>
-      <c r="S993" t="inlineStr">
+      <c r="S993" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -23472,6 +23925,7 @@
       </c>
       <c r="F994" s="7" t="n"/>
       <c r="G994" s="8" t="n"/>
+      <c r="S994" s="9" t="n"/>
     </row>
     <row r="995">
       <c r="A995" s="5" t="n">
@@ -23487,7 +23941,7 @@
       </c>
       <c r="F995" s="7" t="n"/>
       <c r="G995" s="8" t="n"/>
-      <c r="S995" t="inlineStr">
+      <c r="S995" s="9" t="inlineStr">
         <is>
           <t>CUSTOM FABRICATION PART OF ITEM #1414</t>
         </is>
@@ -23507,7 +23961,7 @@
       </c>
       <c r="F996" s="7" t="n"/>
       <c r="G996" s="8" t="n"/>
-      <c r="S996" t="inlineStr">
+      <c r="S996" s="9" t="inlineStr">
         <is>
           <t>WITH LID AND DOLLY</t>
         </is>
@@ -23527,7 +23981,7 @@
       </c>
       <c r="F997" s="7" t="n"/>
       <c r="G997" s="8" t="n"/>
-      <c r="S997" t="inlineStr">
+      <c r="S997" s="9" t="inlineStr">
         <is>
           <t>MILLWORK / BY GENERAL CONTRACTOR</t>
         </is>
@@ -23549,6 +24003,7 @@
       </c>
       <c r="F998" s="7" t="n"/>
       <c r="G998" s="8" t="n"/>
+      <c r="S998" s="9" t="n"/>
     </row>
     <row r="999">
       <c r="A999" s="5" t="inlineStr">
@@ -23568,6 +24023,7 @@
       </c>
       <c r="F999" s="7" t="n"/>
       <c r="G999" s="8" t="n"/>
+      <c r="S999" s="9" t="n"/>
     </row>
     <row r="1000">
       <c r="A1000" s="3" t="inlineStr">
@@ -23624,6 +24080,7 @@
           <t>3/4"</t>
         </is>
       </c>
+      <c r="S1001" s="9" t="n"/>
     </row>
     <row r="1002">
       <c r="A1002" s="5" t="n">
@@ -23673,7 +24130,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S1002" t="inlineStr">
+      <c r="S1002" s="9" t="inlineStr">
         <is>
           <t>360LBS. WATER-COOLED CUBE STYLE</t>
         </is>
@@ -23698,7 +24155,7 @@
           <t>3/8"</t>
         </is>
       </c>
-      <c r="S1003" t="inlineStr">
+      <c r="S1003" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #1502</t>
         </is>
@@ -23720,6 +24177,7 @@
       </c>
       <c r="F1004" s="7" t="n"/>
       <c r="G1004" s="8" t="n"/>
+      <c r="S1004" s="9" t="n"/>
     </row>
     <row r="1005">
       <c r="A1005" s="5" t="inlineStr">
@@ -23739,6 +24197,7 @@
       </c>
       <c r="F1005" s="7" t="n"/>
       <c r="G1005" s="8" t="n"/>
+      <c r="S1005" s="9" t="n"/>
     </row>
     <row r="1006">
       <c r="A1006" s="3" t="inlineStr">
@@ -23789,7 +24248,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S1007" t="inlineStr">
+      <c r="S1007" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #1702</t>
         </is>
@@ -23833,7 +24292,7 @@
       <c r="P1008" t="n">
         <v>5500</v>
       </c>
-      <c r="S1008" t="inlineStr">
+      <c r="S1008" s="9" t="inlineStr">
         <is>
           <t>1900LBS. AIR-COOLED CUBE ICE</t>
         </is>
@@ -23858,7 +24317,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S1009" t="inlineStr">
+      <c r="S1009" s="9" t="inlineStr">
         <is>
           <t>1020LBS.</t>
         </is>
@@ -23880,6 +24339,7 @@
       </c>
       <c r="F1010" s="7" t="n"/>
       <c r="G1010" s="8" t="n"/>
+      <c r="S1010" s="9" t="n"/>
     </row>
     <row r="1011">
       <c r="A1011" s="5" t="inlineStr">
@@ -23899,6 +24359,7 @@
       </c>
       <c r="F1011" s="7" t="n"/>
       <c r="G1011" s="8" t="n"/>
+      <c r="S1011" s="9" t="n"/>
     </row>
     <row r="1012">
       <c r="A1012" s="3" t="inlineStr">
@@ -23949,7 +24410,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S1013" t="inlineStr">
+      <c r="S1013" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #1802</t>
         </is>
@@ -23993,7 +24454,7 @@
       <c r="P1014" t="n">
         <v>5500</v>
       </c>
-      <c r="S1014" t="inlineStr">
+      <c r="S1014" s="9" t="inlineStr">
         <is>
           <t>1900LBS. AIR-COOLED CUBE ICE</t>
         </is>
@@ -24018,7 +24479,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S1015" t="inlineStr">
+      <c r="S1015" s="9" t="inlineStr">
         <is>
           <t>1020LBS.</t>
         </is>
@@ -24040,6 +24501,7 @@
       </c>
       <c r="F1016" s="7" t="n"/>
       <c r="G1016" s="8" t="n"/>
+      <c r="S1016" s="9" t="n"/>
     </row>
     <row r="1017">
       <c r="A1017" s="5" t="inlineStr">
@@ -24059,6 +24521,7 @@
       </c>
       <c r="F1017" s="7" t="n"/>
       <c r="G1017" s="8" t="n"/>
+      <c r="S1017" s="9" t="n"/>
     </row>
     <row r="1018">
       <c r="A1018" s="3" t="inlineStr">
@@ -24109,7 +24572,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S1019" t="inlineStr">
+      <c r="S1019" s="9" t="inlineStr">
         <is>
           <t>FOR ITEM #1902</t>
         </is>
@@ -24153,7 +24616,7 @@
       <c r="P1020" t="n">
         <v>5500</v>
       </c>
-      <c r="S1020" t="inlineStr">
+      <c r="S1020" s="9" t="inlineStr">
         <is>
           <t>1900LBS. AIR-COOLED CUBE ICE</t>
         </is>
@@ -24178,7 +24641,7 @@
           <t>1/2"</t>
         </is>
       </c>
-      <c r="S1021" t="inlineStr">
+      <c r="S1021" s="9" t="inlineStr">
         <is>
           <t>1020LBS.</t>
         </is>
@@ -24200,6 +24663,7 @@
       </c>
       <c r="F1022" s="7" t="n"/>
       <c r="G1022" s="8" t="n"/>
+      <c r="S1022" s="9" t="n"/>
     </row>
     <row r="1023">
       <c r="A1023" s="5" t="inlineStr">
@@ -24219,43 +24683,45 @@
       </c>
       <c r="F1023" s="7" t="n"/>
       <c r="G1023" s="8" t="n"/>
+      <c r="S1023" s="9" t="n"/>
     </row>
     <row r="1024">
       <c r="A1024" t="inlineStr"/>
     </row>
     <row r="1025">
-      <c r="A1025" s="9" t="inlineStr">
+      <c r="A1025" s="10" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="G1025" s="10">
+      <c r="G1025" s="11">
         <f>SUM(G7:G1024)</f>
         <v/>
       </c>
-      <c r="J1025" s="10">
+      <c r="J1025" s="11">
         <f>SUM(J7:J1024)</f>
         <v/>
       </c>
-      <c r="M1025" s="10">
+      <c r="M1025" s="11">
         <f>SUM(M7:M1024)</f>
         <v/>
       </c>
-      <c r="N1025" s="10">
+      <c r="N1025" s="11">
         <f>SUM(N7:N1024)</f>
         <v/>
       </c>
-      <c r="O1025" s="10">
+      <c r="O1025" s="11">
         <f>SUM(O7:O1024)</f>
         <v/>
       </c>
-      <c r="P1025" s="10">
+      <c r="P1025" s="11">
         <f>SUM(P7:P1024)</f>
         <v/>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="landscape" paperSize="3" fitToHeight="0"/>
   <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>